--- a/iselUssSyncV2/OutputForces/sumDataTable.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>D</t>
   </si>
@@ -40,6 +40,9 @@
     <t>hDown</t>
   </si>
   <si>
+    <t>hDownMin</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>FrUp</t>
   </si>
   <si>
+    <t>FrDownMax</t>
+  </si>
+  <si>
     <t>Dhy</t>
   </si>
   <si>
@@ -106,7 +112,19 @@
     <t>Fs</t>
   </si>
   <si>
+    <t>FspecMom</t>
+  </si>
+  <si>
+    <t>caseNum</t>
+  </si>
+  <si>
     <t>Ftotal</t>
+  </si>
+  <si>
+    <t>hUpAsterix</t>
+  </si>
+  <si>
+    <t>hDownAsterix</t>
   </si>
 </sst>
 </file>
@@ -152,40 +170,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AK12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
     <col min="2" max="2" width="5.7109375" customWidth="true"/>
     <col min="3" max="3" width="7.5703125" customWidth="true"/>
-    <col min="4" max="4" width="4.7109375" customWidth="true"/>
+    <col min="4" max="4" width="5.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.7109375" customWidth="true"/>
     <col min="7" max="7" width="13.7109375" customWidth="true"/>
     <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="5.7109375" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
     <col min="10" max="10" width="5.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="6.42578125" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="5.85546875" customWidth="true"/>
-    <col min="15" max="15" width="6.7109375" customWidth="true"/>
-    <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="16.140625" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="6.42578125" customWidth="true"/>
+    <col min="14" max="14" width="11.7109375" customWidth="true"/>
+    <col min="15" max="15" width="5.85546875" customWidth="true"/>
+    <col min="16" max="16" width="6.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="16.140625" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="13.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="13.7109375" customWidth="true"/>
-    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="13.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="11.5703125" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="11.7109375" customWidth="true"/>
-    <col min="30" max="30" width="11.7109375" customWidth="true"/>
+    <col min="29" max="29" width="11.5703125" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="11.7109375" customWidth="true"/>
+    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="34" max="34" width="9.28515625" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -282,6 +306,24 @@
       <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -294,88 +336,104 @@
         <v>90</v>
       </c>
       <c r="D2" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.094171052645629666</v>
+        <v>0.07212386420059641</v>
       </c>
       <c r="F2" s="0">
-        <v>0.09868924302788841</v>
+        <v>0.076441713147410356</v>
       </c>
       <c r="G2" s="0">
-        <v>0.04040908366533863</v>
+        <v>0.022403690476190462</v>
       </c>
       <c r="H2" s="0">
-        <v>0.060999511185861534</v>
+        <v>0.047773607559582716</v>
       </c>
       <c r="I2" s="0">
+        <v>0.033488525896414337</v>
+      </c>
+      <c r="J2" s="0">
         <v>0.002</v>
       </c>
-      <c r="J2" s="0">
+      <c r="K2" s="0">
         <v>0.027000000000000003</v>
       </c>
-      <c r="K2" s="0">
-        <v>0.40325219350796054</v>
-      </c>
       <c r="L2" s="0">
+        <v>0.26326018416515856</v>
+      </c>
+      <c r="M2" s="0">
         <v>0.040000000000000001</v>
       </c>
-      <c r="M2" s="0">
-        <v>1.8834210529125932</v>
-      </c>
       <c r="N2" s="0">
+        <v>1.4424772840119282</v>
+      </c>
+      <c r="O2" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="O2" s="0">
+      <c r="P2" s="0">
         <v>0.023699999999999999</v>
       </c>
-      <c r="P2" s="0">
-        <v>0.3185692328712888</v>
-      </c>
       <c r="Q2" s="0">
-        <v>976.65683333333391</v>
+        <v>0.41595109098095051</v>
       </c>
       <c r="R2" s="0">
-        <v>9.581003535000006</v>
+        <v>780.77431999999965</v>
       </c>
       <c r="S2" s="0">
-        <v>4.97209219781901</v>
+        <v>7.6593960791999969</v>
       </c>
       <c r="T2" s="0">
-        <v>2.3087805228799652</v>
+        <v>9.3262234415083025</v>
       </c>
       <c r="U2" s="0">
-        <v>0.052776401275214511</v>
+        <v>3.1812972517381151</v>
       </c>
       <c r="V2" s="0">
-        <v>0.041693357007419468</v>
+        <v>0.033247049452170704</v>
       </c>
       <c r="W2" s="0">
-        <v>0.41954980371337303</v>
+        <v>0.026265169067214857</v>
       </c>
       <c r="X2" s="0">
-        <v>0.30416816852791789</v>
+        <v>0.31297610655129149</v>
       </c>
       <c r="Y2" s="0">
-        <v>122656.48115418191</v>
+        <v>0.61736186610135635</v>
       </c>
       <c r="Z2" s="0">
-        <v>191141.5397227733</v>
+        <v>0.24395179559485419</v>
       </c>
       <c r="AA2" s="0">
-        <v>190000</v>
+        <v>64222.794635722435</v>
       </c>
       <c r="AB2" s="0">
-        <v>1.9269561290924326</v>
+        <v>124785.32729428516</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.149811313831032</v>
+        <v>120000</v>
       </c>
       <c r="AD2" s="0">
-        <v>7.7122838747717113</v>
+        <v>0.82127520611507743</v>
       </c>
       <c r="AE2" s="0">
-        <v>11.862095188602744</v>
+        <v>2.4076329475390126</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>5.6198320902720846</v>
+      </c>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>8.0274650378110977</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0.84605701504147324</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0.56041361978618276</v>
       </c>
     </row>
     <row r="3">
@@ -389,88 +447,1091 @@
         <v>90</v>
       </c>
       <c r="D3" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.0818593096671556</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.086107539682539647</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.029688286852589684</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.066906689334622557</v>
+      </c>
+      <c r="I3" s="0">
+        <v>0.055061865079365079</v>
+      </c>
+      <c r="J3" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K3" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L3" s="0">
+        <v>0.30926788656220799</v>
+      </c>
+      <c r="M3" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N3" s="0">
+        <v>1.637186193343112</v>
+      </c>
+      <c r="O3" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P3" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q3" s="0">
+        <v>0.36648244557621645</v>
+      </c>
+      <c r="R3" s="0">
+        <v>659.4147566666669</v>
+      </c>
+      <c r="S3" s="0">
+        <v>6.4688587629000027</v>
+      </c>
+      <c r="T3" s="0">
+        <v>5.7074178047991442</v>
+      </c>
+      <c r="U3" s="0">
+        <v>2.2906406981467322</v>
+      </c>
+      <c r="V3" s="0">
+        <v>0.040275932140298593</v>
+      </c>
+      <c r="W3" s="0">
+        <v>0.031817986390835891</v>
+      </c>
+      <c r="X3" s="0">
+        <v>0.34511694542974075</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0.39043272005177632</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0.27122823577541694</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>83882.183254259449</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>146592.97823048659</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>150000</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>1.1334125140550588</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>2.8240390420608974</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>3.4764393694529345</v>
+      </c>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>6.3004784115138319</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>0.88711441616969733</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>0.72507194219285676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C4" s="0">
+        <v>90</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.080807979303858107</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.085461195219123529</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.030192270916334665</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.058735251489495037</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.040164860557768925</v>
+      </c>
+      <c r="J4" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K4" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L4" s="0">
+        <v>0.31329153277062355</v>
+      </c>
+      <c r="M4" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N4" s="0">
+        <v>1.616159586077162</v>
+      </c>
+      <c r="O4" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>0.37125046633318887</v>
+      </c>
+      <c r="R4" s="0">
+        <v>813.40790999999956</v>
+      </c>
+      <c r="S4" s="0">
+        <v>7.9795315970999967</v>
+      </c>
+      <c r="T4" s="0">
+        <v>6.8605942251348786</v>
+      </c>
+      <c r="U4" s="0">
+        <v>2.712171108583016</v>
+      </c>
+      <c r="V4" s="0">
+        <v>0.040275932140298593</v>
+      </c>
+      <c r="W4" s="0">
+        <v>0.031817986390835891</v>
+      </c>
+      <c r="X4" s="0">
+        <v>0.3518738804227674</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0.62669061063757303</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>0.26833641480097925</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>84067.526691172621</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>148500.18653327556</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>150000</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>1.1630962763933352</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>2.9421195336266717</v>
+      </c>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0">
+        <v>7.2763528148565033</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0">
+        <v>0.8757210838140943</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>0.63651756343346944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C5" s="0">
+        <v>90</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.087359211489722269</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.091786031746031754</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.035352857142857193</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.054682875559310395</v>
+      </c>
+      <c r="I5" s="0">
+        <v>0.020698047808764941</v>
+      </c>
+      <c r="J5" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K5" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L5" s="0">
+        <v>0.36224651162260363</v>
+      </c>
+      <c r="M5" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N5" s="0">
+        <v>1.7471842297944453</v>
+      </c>
+      <c r="O5" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P5" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>0.34340969301822816</v>
+      </c>
+      <c r="R5" s="0">
+        <v>955.83672666666655</v>
+      </c>
+      <c r="S5" s="0">
+        <v>9.3767582885999996</v>
+      </c>
+      <c r="T5" s="0">
+        <v>6.0301198890050731</v>
+      </c>
+      <c r="U5" s="0">
+        <v>2.5996499977198084</v>
+      </c>
+      <c r="V5" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W5" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X5" s="0">
+        <v>0.39130496246093227</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>2.1175736180782505</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>0.28615096564130232</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>103657.18910100128</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>171704.84650911411</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>1.5549870419155294</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>3.60693104718885</v>
+      </c>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0">
+        <v>9.5496031422778227</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0">
+        <v>0.88477496958126711</v>
+      </c>
+      <c r="AK5" s="0">
+        <v>0.55382871175865833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C6" s="0">
+        <v>90</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.092867135584637467</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.097614382470119554</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.040634143426294844</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.085588412271115993</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.06319555555555556</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K6" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L6" s="0">
+        <v>0.34076177133095653</v>
+      </c>
+      <c r="M6" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N6" s="0">
+        <v>1.8573427116927492</v>
+      </c>
+      <c r="O6" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P6" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>0.32304215922174673</v>
+      </c>
+      <c r="R6" s="0">
+        <v>503.37807333333348</v>
+      </c>
+      <c r="S6" s="0">
+        <v>4.9381388994000019</v>
+      </c>
+      <c r="T6" s="0">
+        <v>3.5887500949430722</v>
+      </c>
+      <c r="U6" s="0">
+        <v>1.6446233899182507</v>
+      </c>
+      <c r="V6" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W6" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X6" s="0">
+        <v>0.35701407508991895</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0.39691982583064056</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>0.30075826699802732</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>102486.91980467657</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>161521.07961087339</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>160000</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>1.3760052298872416</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>3.0025955666637221</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>1.6922813342238019</v>
+      </c>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>4.6948769008875235</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>0.940559280021247</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>0.86684029734625934</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C7" s="0">
+        <v>90</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.087470022914181711</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.091993665338645406</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.035620876494023915</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.054429640278736952</v>
+      </c>
+      <c r="I7" s="0">
+        <v>0.021937976190476185</v>
+      </c>
+      <c r="J7" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K7" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L7" s="0">
+        <v>0.36178759952196599</v>
+      </c>
+      <c r="M7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N7" s="0">
+        <v>1.7494004582836342</v>
+      </c>
+      <c r="O7" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P7" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q7" s="0">
+        <v>0.34297464434682373</v>
+      </c>
+      <c r="R7" s="0">
+        <v>954.92149333333305</v>
+      </c>
+      <c r="S7" s="0">
+        <v>9.367779849599998</v>
+      </c>
+      <c r="T7" s="0">
+        <v>6.0396388686415552</v>
+      </c>
+      <c r="U7" s="0">
+        <v>2.6072053065240381</v>
+      </c>
+      <c r="V7" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W7" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X7" s="0">
+        <v>0.39056161080255553</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>1.9406077215117736</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>0.28644813074529524</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>103633.38160989464</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>171487.32217341187</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>1.5510496659392174</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>3.5930349735630336</v>
+      </c>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0">
+        <v>9.6281002432955916</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0">
+        <v>0.88589726879887043</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>0.5512639422987986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C8" s="0">
+        <v>90</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.08851770666998024</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.093423531746031754</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.036624063745019926</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.071085574885830616</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0.055093386454183262</v>
+      </c>
+      <c r="J8" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L8" s="0">
+        <v>0.35750552980588451</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N8" s="0">
+        <v>1.7703541333996047</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P8" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>0.33891524225597847</v>
+      </c>
+      <c r="R8" s="0">
+        <v>767.31547666666609</v>
+      </c>
+      <c r="S8" s="0">
+        <v>7.5273648260999941</v>
+      </c>
+      <c r="T8" s="0">
+        <v>4.9700308843627763</v>
+      </c>
+      <c r="U8" s="0">
+        <v>2.1720677903871892</v>
+      </c>
+      <c r="V8" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W8" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X8" s="0">
+        <v>0.3836482161841242</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.48762211514814141</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>0.28925099248542585</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>103408.82931538009</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>169457.62112798926</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>1.5145509155251662</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>3.465529418286792</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>4.0529183434194351</v>
+      </c>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>7.5184477617062271</v>
+      </c>
+      <c r="AJ8" s="0">
+        <v>0.89650822037867595</v>
+      </c>
+      <c r="AK8" s="0">
+        <v>0.71995541494416049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C9" s="0">
+        <v>90</v>
+      </c>
+      <c r="D9" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E9" s="0">
+        <v>0.094171052645629666</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.09868924302788841</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.04040908366533863</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.060999511185861534</v>
+      </c>
+      <c r="I9" s="0">
+        <v>0.027752828685258961</v>
+      </c>
+      <c r="J9" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K9" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L9" s="0">
+        <v>0.40325219350796054</v>
+      </c>
+      <c r="M9" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N9" s="0">
+        <v>1.8834210529125932</v>
+      </c>
+      <c r="O9" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P9" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>0.3185692328712888</v>
+      </c>
+      <c r="R9" s="0">
+        <v>976.65683333333391</v>
+      </c>
+      <c r="S9" s="0">
+        <v>9.581003535000006</v>
+      </c>
+      <c r="T9" s="0">
+        <v>4.97209219781901</v>
+      </c>
+      <c r="U9" s="0">
+        <v>2.3087805228799652</v>
+      </c>
+      <c r="V9" s="0">
+        <v>0.052776401275214511</v>
+      </c>
+      <c r="W9" s="0">
+        <v>0.041693357007419468</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0.41954980371337303</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>1.6366392417692019</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>0.30416816852791789</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>122656.48115418191</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>191141.5397227733</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>190000</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>1.9269561290924326</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>4.149811313831032</v>
+      </c>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0">
+        <v>10.151898399914455</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0">
+        <v>0.89878113296019835</v>
+      </c>
+      <c r="AK9" s="0">
+        <v>0.58218750065327296</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C10" s="0">
+        <v>90</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E10" s="0">
         <v>0.10030448492202078</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F10" s="0">
         <v>0.10505400793650793</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G10" s="0">
         <v>0.047640478087649415</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H10" s="0">
         <v>0.092692562812583257</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I10" s="0">
+        <v>0.068380992063492074</v>
+      </c>
+      <c r="J10" s="0">
         <v>0.002</v>
       </c>
-      <c r="J3" s="0">
+      <c r="K10" s="0">
         <v>0.027000000000000003</v>
       </c>
-      <c r="K3" s="0">
+      <c r="L10" s="0">
         <v>0.3785940735733429</v>
       </c>
-      <c r="L3" s="0">
+      <c r="M10" s="0">
         <v>0.040000000000000001</v>
       </c>
-      <c r="M3" s="0">
+      <c r="N10" s="0">
         <v>2.0060896984404155</v>
       </c>
-      <c r="N3" s="0">
+      <c r="O10" s="0">
         <v>0.59999999999999998</v>
       </c>
-      <c r="O3" s="0">
+      <c r="P10" s="0">
         <v>0.023699999999999999</v>
       </c>
-      <c r="P3" s="0">
+      <c r="Q10" s="0">
         <v>0.29908931812294087</v>
       </c>
-      <c r="Q3" s="0">
+      <c r="R10" s="0">
         <v>540.43937999999991</v>
       </c>
-      <c r="R3" s="0">
+      <c r="S10" s="0">
         <v>5.3017103177999996</v>
       </c>
-      <c r="S3" s="0">
+      <c r="T10" s="0">
         <v>3.1214042793964905</v>
       </c>
-      <c r="T3" s="0">
+      <c r="U10" s="0">
         <v>1.5334703344458387</v>
       </c>
-      <c r="U3" s="0">
+      <c r="V10" s="0">
         <v>0.052776401275214518</v>
       </c>
-      <c r="V3" s="0">
+      <c r="W10" s="0">
         <v>0.041693357007419468</v>
       </c>
-      <c r="W3" s="0">
+      <c r="X10" s="0">
         <v>0.38166218439308464</v>
       </c>
-      <c r="X3" s="0">
+      <c r="Y10" s="0">
+        <v>0.42316598073463313</v>
+      </c>
+      <c r="Z10" s="0">
         <v>0.31996699202459999</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="AA10" s="0">
         <v>121137.60691960265</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="AB10" s="0">
         <v>179453.59087376454</v>
       </c>
-      <c r="AA3" s="0">
+      <c r="AC10" s="0">
         <v>180000</v>
       </c>
-      <c r="AB3" s="0">
+      <c r="AD10" s="0">
         <v>1.6985016496565648</v>
       </c>
-      <c r="AC3" s="0">
+      <c r="AE10" s="0">
         <v>3.4573282565103667</v>
       </c>
-      <c r="AD3" s="0">
+      <c r="AF10" s="0">
         <v>1.7697490546778953</v>
       </c>
-      <c r="AE3" s="0">
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="0">
         <v>5.2270773111882622</v>
+      </c>
+      <c r="AJ10" s="0">
+        <v>0.95731943167767874</v>
+      </c>
+      <c r="AK10" s="0">
+        <v>0.88467022807081497</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C11" s="0">
+        <v>90</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.10046699364855335</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.1047505555555556</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.046326904761904757</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.069157301623147371</v>
+      </c>
+      <c r="I11" s="0">
+        <v>0.033200836653386454</v>
+      </c>
+      <c r="J11" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K11" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L11" s="0">
+        <v>0.44097863247839281</v>
+      </c>
+      <c r="M11" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N11" s="0">
+        <v>2.0093398729710668</v>
+      </c>
+      <c r="O11" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P11" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>0.29860553113536881</v>
+      </c>
+      <c r="R11" s="0">
+        <v>1003.0107766666673</v>
+      </c>
+      <c r="S11" s="0">
+        <v>9.8395357191000077</v>
+      </c>
+      <c r="T11" s="0">
+        <v>4.2699340135919019</v>
+      </c>
+      <c r="U11" s="0">
+        <v>2.100611975782475</v>
+      </c>
+      <c r="V11" s="0">
+        <v>0.058488565005636588</v>
+      </c>
+      <c r="W11" s="0">
+        <v>0.046205966354452906</v>
+      </c>
+      <c r="X11" s="0">
+        <v>0.44419262057129771</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>1.4592748243254487</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>0.32038027154097543</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>141280.8540171955</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>209023.87179475819</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>210000</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>2.3043765284847839</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>4.6841281648100637</v>
+      </c>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0">
+        <v>10.322915590847217</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0">
+        <v>0.90929766029116244</v>
+      </c>
+      <c r="AK11" s="0">
+        <v>0.62592270629652313</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C12" s="0">
+        <v>90</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.10662369211618179</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.11153388888888893</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.051912151394422311</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.068598943845090021</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.038800039682539686</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L12" s="0">
+        <v>0.47487486493370767</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N12" s="0">
+        <v>2.1324738423236358</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P12" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0.28136335747322178</v>
+      </c>
+      <c r="R12" s="0">
+        <v>1023.0010099999997</v>
+      </c>
+      <c r="S12" s="0">
+        <v>10.035639908099999</v>
+      </c>
+      <c r="T12" s="0">
+        <v>3.7555050771094471</v>
+      </c>
+      <c r="U12" s="0">
+        <v>1.9394878743804205</v>
+      </c>
+      <c r="V12" s="0">
+        <v>0.063934057048509796</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0.050507905068322742</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.46432045982665726</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>1.3200923803108826</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>0.33584026470693235</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>159482.10034200514</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>225090.68597857744</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>230000</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>2.672247727547814</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>5.1743762055258715</v>
+      </c>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0">
+        <v>11.611883797627113</v>
+      </c>
+      <c r="AH12" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0">
+        <v>0.91969258068461879</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>0.59170657519892067</v>
       </c>
     </row>
   </sheetData>

--- a/iselUssSyncV2/OutputForces/sumDataTable.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>D</t>
   </si>
@@ -121,6 +121,9 @@
     <t>Ftotal</t>
   </si>
   <si>
+    <t>measurementDay</t>
+  </si>
+  <si>
     <t>hUpAsterix</t>
   </si>
   <si>
@@ -170,7 +173,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AL31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
@@ -204,12 +207,13 @@
     <col min="29" max="29" width="11.5703125" customWidth="true"/>
     <col min="30" max="30" width="12.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="11.7109375" customWidth="true"/>
-    <col min="33" max="33" width="11.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="10.7109375" customWidth="true"/>
     <col min="34" max="34" width="9.28515625" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="12.7109375" customWidth="true"/>
-    <col min="37" max="37" width="13.7109375" customWidth="true"/>
+    <col min="36" max="36" width="16.85546875" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -324,6 +328,9 @@
       <c r="AK1" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -336,22 +343,22 @@
         <v>90</v>
       </c>
       <c r="D2" s="0">
-        <v>0.014999999999999999</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.07212386420059641</v>
+        <v>0.094171052645629666</v>
       </c>
       <c r="F2" s="0">
-        <v>0.076441713147410356</v>
+        <v>0.09868924302788841</v>
       </c>
       <c r="G2" s="0">
-        <v>0.022403690476190462</v>
+        <v>0.04040908366533863</v>
       </c>
       <c r="H2" s="0">
-        <v>0.047773607559582716</v>
+        <v>0.060999511185861534</v>
       </c>
       <c r="I2" s="0">
-        <v>0.033488525896414337</v>
+        <v>0.027752828685258961</v>
       </c>
       <c r="J2" s="0">
         <v>0.002</v>
@@ -360,13 +367,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L2" s="0">
-        <v>0.26326018416515856</v>
+        <v>0.40325219350796054</v>
       </c>
       <c r="M2" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N2" s="0">
-        <v>1.4424772840119282</v>
+        <v>1.8834210529125932</v>
       </c>
       <c r="O2" s="0">
         <v>0.59999999999999998</v>
@@ -375,65 +382,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.41595109098095051</v>
+        <v>0.3185692328712888</v>
       </c>
       <c r="R2" s="0">
-        <v>780.77431999999965</v>
+        <v>976.65683333333391</v>
       </c>
       <c r="S2" s="0">
-        <v>7.6593960791999969</v>
+        <v>9.581003535000006</v>
       </c>
       <c r="T2" s="0">
-        <v>9.3262234415083025</v>
+        <v>4.97209219781901</v>
       </c>
       <c r="U2" s="0">
-        <v>3.1812972517381151</v>
+        <v>2.3087805228799652</v>
       </c>
       <c r="V2" s="0">
-        <v>0.033247049452170704</v>
+        <v>0.052776401275214511</v>
       </c>
       <c r="W2" s="0">
-        <v>0.026265169067214857</v>
+        <v>0.041693357007419468</v>
       </c>
       <c r="X2" s="0">
-        <v>0.31297610655129149</v>
+        <v>0.41954980371337303</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.61736186610135635</v>
+        <v>1.6366392417692019</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.24395179559485419</v>
+        <v>0.30416816852791789</v>
       </c>
       <c r="AA2" s="0">
-        <v>64222.794635722435</v>
+        <v>122656.48115418191</v>
       </c>
       <c r="AB2" s="0">
-        <v>124785.32729428516</v>
+        <v>191141.5397227733</v>
       </c>
       <c r="AC2" s="0">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.82127520611507743</v>
+        <v>1.9269561290924326</v>
       </c>
       <c r="AE2" s="0">
-        <v>2.4076329475390126</v>
+        <v>4.149811313831032</v>
       </c>
       <c r="AF2" s="0">
-        <v>5.6198320902720846</v>
+        <v>7.7122838747717113</v>
       </c>
       <c r="AG2" s="0"/>
       <c r="AH2" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="0">
-        <v>8.0274650378110977</v>
+        <v>11.862095188602744</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.84605701504147324</v>
+        <v>20220426</v>
       </c>
       <c r="AK2" s="0">
-        <v>0.56041361978618276</v>
+        <v>0.91627116222388982</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0.593516706452069</v>
       </c>
     </row>
     <row r="3">
@@ -447,22 +457,22 @@
         <v>90</v>
       </c>
       <c r="D3" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0818593096671556</v>
+        <v>0.10030448492202078</v>
       </c>
       <c r="F3" s="0">
-        <v>0.086107539682539647</v>
+        <v>0.10505400793650793</v>
       </c>
       <c r="G3" s="0">
-        <v>0.029688286852589684</v>
+        <v>0.047640478087649415</v>
       </c>
       <c r="H3" s="0">
-        <v>0.066906689334622557</v>
+        <v>0.092692562812583257</v>
       </c>
       <c r="I3" s="0">
-        <v>0.055061865079365079</v>
+        <v>0.068380992063492074</v>
       </c>
       <c r="J3" s="0">
         <v>0.002</v>
@@ -471,13 +481,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L3" s="0">
-        <v>0.30926788656220799</v>
+        <v>0.3785940735733429</v>
       </c>
       <c r="M3" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N3" s="0">
-        <v>1.637186193343112</v>
+        <v>2.0060896984404155</v>
       </c>
       <c r="O3" s="0">
         <v>0.59999999999999998</v>
@@ -486,65 +496,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.36648244557621645</v>
+        <v>0.29908931812294087</v>
       </c>
       <c r="R3" s="0">
-        <v>659.4147566666669</v>
+        <v>540.43937999999991</v>
       </c>
       <c r="S3" s="0">
-        <v>6.4688587629000027</v>
+        <v>5.3017103177999996</v>
       </c>
       <c r="T3" s="0">
-        <v>5.7074178047991442</v>
+        <v>3.1214042793964905</v>
       </c>
       <c r="U3" s="0">
-        <v>2.2906406981467322</v>
+        <v>1.5334703344458387</v>
       </c>
       <c r="V3" s="0">
-        <v>0.040275932140298593</v>
+        <v>0.052776401275214518</v>
       </c>
       <c r="W3" s="0">
-        <v>0.031817986390835891</v>
+        <v>0.041693357007419468</v>
       </c>
       <c r="X3" s="0">
-        <v>0.34511694542974075</v>
+        <v>0.38166218439308464</v>
       </c>
       <c r="Y3" s="0">
-        <v>0.39043272005177632</v>
+        <v>0.42316598073463313</v>
       </c>
       <c r="Z3" s="0">
-        <v>0.27122823577541694</v>
+        <v>0.31996699202459999</v>
       </c>
       <c r="AA3" s="0">
-        <v>83882.183254259449</v>
+        <v>121137.60691960265</v>
       </c>
       <c r="AB3" s="0">
-        <v>146592.97823048659</v>
+        <v>179453.59087376454</v>
       </c>
       <c r="AC3" s="0">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="AD3" s="0">
-        <v>1.1334125140550588</v>
+        <v>1.6985016496565648</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.8240390420608974</v>
+        <v>3.4573282565103667</v>
       </c>
       <c r="AF3" s="0">
-        <v>3.4764393694529345</v>
+        <v>1.7697490546778953</v>
       </c>
       <c r="AG3" s="0"/>
       <c r="AH3" s="0">
         <v>3</v>
       </c>
       <c r="AI3" s="0">
-        <v>6.3004784115138319</v>
+        <v>5.2270773111882622</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.88711441616969733</v>
+        <v>20220426</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.72507194219285676</v>
+        <v>0.97594859984857374</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>0.90188566307523477</v>
       </c>
     </row>
     <row r="4">
@@ -558,22 +571,22 @@
         <v>90</v>
       </c>
       <c r="D4" s="0">
-        <v>0.02</v>
+        <v>0.035000000000000003</v>
       </c>
       <c r="E4" s="0">
-        <v>0.080807979303858107</v>
+        <v>0.10046699364855335</v>
       </c>
       <c r="F4" s="0">
-        <v>0.085461195219123529</v>
+        <v>0.1047505555555556</v>
       </c>
       <c r="G4" s="0">
-        <v>0.030192270916334665</v>
+        <v>0.046326904761904757</v>
       </c>
       <c r="H4" s="0">
-        <v>0.058735251489495037</v>
+        <v>0.069157301623147371</v>
       </c>
       <c r="I4" s="0">
-        <v>0.040164860557768925</v>
+        <v>0.033200836653386454</v>
       </c>
       <c r="J4" s="0">
         <v>0.002</v>
@@ -582,13 +595,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L4" s="0">
-        <v>0.31329153277062355</v>
+        <v>0.44097863247839281</v>
       </c>
       <c r="M4" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N4" s="0">
-        <v>1.616159586077162</v>
+        <v>2.0093398729710668</v>
       </c>
       <c r="O4" s="0">
         <v>0.59999999999999998</v>
@@ -597,63 +610,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.37125046633318887</v>
+        <v>0.29860553113536881</v>
       </c>
       <c r="R4" s="0">
-        <v>813.40790999999956</v>
+        <v>1003.0107766666673</v>
       </c>
       <c r="S4" s="0">
-        <v>7.9795315970999967</v>
+        <v>9.8395357191000077</v>
       </c>
       <c r="T4" s="0">
-        <v>6.8605942251348786</v>
+        <v>4.2699340135919019</v>
       </c>
       <c r="U4" s="0">
-        <v>2.712171108583016</v>
+        <v>2.100611975782475</v>
       </c>
       <c r="V4" s="0">
-        <v>0.040275932140298593</v>
+        <v>0.058488565005636588</v>
       </c>
       <c r="W4" s="0">
-        <v>0.031817986390835891</v>
+        <v>0.046205966354452906</v>
       </c>
       <c r="X4" s="0">
-        <v>0.3518738804227674</v>
+        <v>0.44419262057129771</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.62669061063757303</v>
+        <v>1.4592748243254487</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.26833641480097925</v>
+        <v>0.32038027154097543</v>
       </c>
       <c r="AA4" s="0">
-        <v>84067.526691172621</v>
+        <v>141280.8540171955</v>
       </c>
       <c r="AB4" s="0">
-        <v>148500.18653327556</v>
+        <v>209023.87179475819</v>
       </c>
       <c r="AC4" s="0">
-        <v>150000</v>
+        <v>210000</v>
       </c>
       <c r="AD4" s="0">
-        <v>1.1630962763933352</v>
+        <v>2.3043765284847839</v>
       </c>
       <c r="AE4" s="0">
-        <v>2.9421195336266717</v>
-      </c>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0">
-        <v>7.2763528148565033</v>
-      </c>
+        <v>4.6841281648100637</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>7.2794094668308142</v>
+      </c>
+      <c r="AG4" s="0"/>
       <c r="AH4" s="0">
         <v>4</v>
       </c>
-      <c r="AI4" s="0"/>
+      <c r="AI4" s="0">
+        <v>11.963537631640879</v>
+      </c>
       <c r="AJ4" s="0">
-        <v>0.8757210838140943</v>
+        <v>20220426</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.63651756343346944</v>
+        <v>0.92606067416721327</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>0.6374616681449724</v>
       </c>
     </row>
     <row r="5">
@@ -750,19 +768,24 @@
       <c r="AE5" s="0">
         <v>3.60693104718885</v>
       </c>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0">
-        <v>9.5496031422778227</v>
-      </c>
+      <c r="AF5" s="0">
+        <v>7.5971500748129692</v>
+      </c>
+      <c r="AG5" s="0"/>
       <c r="AH5" s="0">
         <v>4</v>
       </c>
-      <c r="AI5" s="0"/>
+      <c r="AI5" s="0">
+        <v>11.204081122001819</v>
+      </c>
       <c r="AJ5" s="0">
-        <v>0.88477496958126711</v>
+        <v>20220426</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.55382871175865833</v>
+        <v>0.90306752343919072</v>
+      </c>
+      <c r="AL5" s="0">
+        <v>0.56527901481447862</v>
       </c>
     </row>
     <row r="6">
@@ -776,22 +799,22 @@
         <v>90</v>
       </c>
       <c r="D6" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.092867135584637467</v>
+        <v>0.10662369211618179</v>
       </c>
       <c r="F6" s="0">
-        <v>0.097614382470119554</v>
+        <v>0.11153388888888893</v>
       </c>
       <c r="G6" s="0">
-        <v>0.040634143426294844</v>
+        <v>0.051912151394422311</v>
       </c>
       <c r="H6" s="0">
-        <v>0.085588412271115993</v>
+        <v>0.068598943845090021</v>
       </c>
       <c r="I6" s="0">
-        <v>0.06319555555555556</v>
+        <v>0.038800039682539686</v>
       </c>
       <c r="J6" s="0">
         <v>0.002</v>
@@ -800,13 +823,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L6" s="0">
-        <v>0.34076177133095653</v>
+        <v>0.47487486493370767</v>
       </c>
       <c r="M6" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N6" s="0">
-        <v>1.8573427116927492</v>
+        <v>2.1324738423236358</v>
       </c>
       <c r="O6" s="0">
         <v>0.59999999999999998</v>
@@ -815,65 +838,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.32304215922174673</v>
+        <v>0.28136335747322178</v>
       </c>
       <c r="R6" s="0">
-        <v>503.37807333333348</v>
+        <v>1023.0010099999997</v>
       </c>
       <c r="S6" s="0">
-        <v>4.9381388994000019</v>
+        <v>10.035639908099999</v>
       </c>
       <c r="T6" s="0">
-        <v>3.5887500949430722</v>
+        <v>3.7555050771094471</v>
       </c>
       <c r="U6" s="0">
-        <v>1.6446233899182507</v>
+        <v>1.9394878743804205</v>
       </c>
       <c r="V6" s="0">
-        <v>0.046736079221438992</v>
+        <v>0.063934057048509796</v>
       </c>
       <c r="W6" s="0">
-        <v>0.036921502584936802</v>
+        <v>0.050507905068322742</v>
       </c>
       <c r="X6" s="0">
-        <v>0.35701407508991895</v>
+        <v>0.46432045982665726</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.39691982583064056</v>
+        <v>1.3200923803108826</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.30075826699802732</v>
+        <v>0.33584026470693235</v>
       </c>
       <c r="AA6" s="0">
-        <v>102486.91980467657</v>
+        <v>159482.10034200514</v>
       </c>
       <c r="AB6" s="0">
-        <v>161521.07961087339</v>
+        <v>225090.68597857744</v>
       </c>
       <c r="AC6" s="0">
-        <v>160000</v>
+        <v>230000</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.3760052298872416</v>
+        <v>2.672247727547814</v>
       </c>
       <c r="AE6" s="0">
-        <v>3.0025955666637221</v>
+        <v>5.1743762055258715</v>
       </c>
       <c r="AF6" s="0">
-        <v>1.6922813342238019</v>
+        <v>8.8406398987840227</v>
       </c>
       <c r="AG6" s="0"/>
       <c r="AH6" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6" s="0">
-        <v>4.6948769008875235</v>
+        <v>14.015016104309893</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.940559280021247</v>
+        <v>20220426</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.86684029734625934</v>
+        <v>0.93583687685925665</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>0.60209340053503568</v>
       </c>
     </row>
     <row r="7">
@@ -890,19 +916,19 @@
         <v>0.025000000000000001</v>
       </c>
       <c r="E7" s="0">
-        <v>0.087470022914181711</v>
+        <v>0.092867135584637467</v>
       </c>
       <c r="F7" s="0">
-        <v>0.091993665338645406</v>
+        <v>0.097614382470119554</v>
       </c>
       <c r="G7" s="0">
-        <v>0.035620876494023915</v>
+        <v>0.040634143426294844</v>
       </c>
       <c r="H7" s="0">
-        <v>0.054429640278736952</v>
+        <v>0.085588412271115993</v>
       </c>
       <c r="I7" s="0">
-        <v>0.021937976190476185</v>
+        <v>0.06319555555555556</v>
       </c>
       <c r="J7" s="0">
         <v>0.002</v>
@@ -911,13 +937,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L7" s="0">
-        <v>0.36178759952196599</v>
+        <v>0.34076177133095653</v>
       </c>
       <c r="M7" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N7" s="0">
-        <v>1.7494004582836342</v>
+        <v>1.8573427116927492</v>
       </c>
       <c r="O7" s="0">
         <v>0.59999999999999998</v>
@@ -926,19 +952,19 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.34297464434682373</v>
+        <v>0.32304215922174673</v>
       </c>
       <c r="R7" s="0">
-        <v>954.92149333333305</v>
+        <v>503.37807333333348</v>
       </c>
       <c r="S7" s="0">
-        <v>9.367779849599998</v>
+        <v>4.9381388994000019</v>
       </c>
       <c r="T7" s="0">
-        <v>6.0396388686415552</v>
+        <v>3.5887500949430722</v>
       </c>
       <c r="U7" s="0">
-        <v>2.6072053065240381</v>
+        <v>1.6446233899182507</v>
       </c>
       <c r="V7" s="0">
         <v>0.046736079221438992</v>
@@ -947,42 +973,47 @@
         <v>0.036921502584936802</v>
       </c>
       <c r="X7" s="0">
-        <v>0.39056161080255553</v>
+        <v>0.35701407508991895</v>
       </c>
       <c r="Y7" s="0">
-        <v>1.9406077215117736</v>
+        <v>0.39691982583064056</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.28644813074529524</v>
+        <v>0.30075826699802732</v>
       </c>
       <c r="AA7" s="0">
-        <v>103633.38160989464</v>
+        <v>102486.91980467657</v>
       </c>
       <c r="AB7" s="0">
-        <v>171487.32217341187</v>
+        <v>161521.07961087339</v>
       </c>
       <c r="AC7" s="0">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.5510496659392174</v>
+        <v>1.3760052298872416</v>
       </c>
       <c r="AE7" s="0">
-        <v>3.5930349735630336</v>
-      </c>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0">
-        <v>9.6281002432955916</v>
-      </c>
+        <v>3.0025955666637221</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>1.6922813342238019</v>
+      </c>
+      <c r="AG7" s="0"/>
       <c r="AH7" s="0">
-        <v>4</v>
-      </c>
-      <c r="AI7" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>4.6948769008875235</v>
+      </c>
       <c r="AJ7" s="0">
-        <v>0.88589726879887043</v>
+        <v>20220426</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.5512639422987986</v>
+        <v>0.96000516386502377</v>
+      </c>
+      <c r="AL7" s="0">
+        <v>0.88476205527407381</v>
       </c>
     </row>
     <row r="8">
@@ -999,19 +1030,19 @@
         <v>0.025000000000000001</v>
       </c>
       <c r="E8" s="0">
-        <v>0.08851770666998024</v>
+        <v>0.087470022914181711</v>
       </c>
       <c r="F8" s="0">
-        <v>0.093423531746031754</v>
+        <v>0.091993665338645406</v>
       </c>
       <c r="G8" s="0">
-        <v>0.036624063745019926</v>
+        <v>0.035620876494023915</v>
       </c>
       <c r="H8" s="0">
-        <v>0.071085574885830616</v>
+        <v>0.054429640278736952</v>
       </c>
       <c r="I8" s="0">
-        <v>0.055093386454183262</v>
+        <v>0.021937976190476185</v>
       </c>
       <c r="J8" s="0">
         <v>0.002</v>
@@ -1020,13 +1051,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L8" s="0">
-        <v>0.35750552980588451</v>
+        <v>0.36178759952196599</v>
       </c>
       <c r="M8" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N8" s="0">
-        <v>1.7703541333996047</v>
+        <v>1.7494004582836342</v>
       </c>
       <c r="O8" s="0">
         <v>0.59999999999999998</v>
@@ -1035,19 +1066,19 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.33891524225597847</v>
+        <v>0.34297464434682373</v>
       </c>
       <c r="R8" s="0">
-        <v>767.31547666666609</v>
+        <v>954.92149333333305</v>
       </c>
       <c r="S8" s="0">
-        <v>7.5273648260999941</v>
+        <v>9.367779849599998</v>
       </c>
       <c r="T8" s="0">
-        <v>4.9700308843627763</v>
+        <v>6.0396388686415552</v>
       </c>
       <c r="U8" s="0">
-        <v>2.1720677903871892</v>
+        <v>2.6072053065240381</v>
       </c>
       <c r="V8" s="0">
         <v>0.046736079221438992</v>
@@ -1056,44 +1087,47 @@
         <v>0.036921502584936802</v>
       </c>
       <c r="X8" s="0">
-        <v>0.3836482161841242</v>
+        <v>0.39056161080255553</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.48762211514814141</v>
+        <v>1.9406077215117736</v>
       </c>
       <c r="Z8" s="0">
-        <v>0.28925099248542585</v>
+        <v>0.28644813074529524</v>
       </c>
       <c r="AA8" s="0">
-        <v>103408.82931538009</v>
+        <v>103633.38160989464</v>
       </c>
       <c r="AB8" s="0">
-        <v>169457.62112798926</v>
+        <v>171487.32217341187</v>
       </c>
       <c r="AC8" s="0">
         <v>170000</v>
       </c>
       <c r="AD8" s="0">
-        <v>1.5145509155251662</v>
+        <v>1.5510496659392174</v>
       </c>
       <c r="AE8" s="0">
-        <v>3.465529418286792</v>
+        <v>3.5930349735630336</v>
       </c>
       <c r="AF8" s="0">
-        <v>4.0529183434194351</v>
+        <v>7.6817898415929999</v>
       </c>
       <c r="AG8" s="0"/>
       <c r="AH8" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="0">
-        <v>7.5184477617062271</v>
+        <v>11.274824815156034</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.89650822037867595</v>
+        <v>20220426</v>
       </c>
       <c r="AK8" s="0">
-        <v>0.71995541494416049</v>
+        <v>0.90421302597920772</v>
+      </c>
+      <c r="AL8" s="0">
+        <v>0.56266121923488155</v>
       </c>
     </row>
     <row r="9">
@@ -1107,22 +1141,22 @@
         <v>90</v>
       </c>
       <c r="D9" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.025000000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>0.094171052645629666</v>
+        <v>0.08851770666998024</v>
       </c>
       <c r="F9" s="0">
-        <v>0.09868924302788841</v>
+        <v>0.093423531746031754</v>
       </c>
       <c r="G9" s="0">
-        <v>0.04040908366533863</v>
+        <v>0.036624063745019926</v>
       </c>
       <c r="H9" s="0">
-        <v>0.060999511185861534</v>
+        <v>0.071085574885830616</v>
       </c>
       <c r="I9" s="0">
-        <v>0.027752828685258961</v>
+        <v>0.055093386454183262</v>
       </c>
       <c r="J9" s="0">
         <v>0.002</v>
@@ -1131,13 +1165,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L9" s="0">
-        <v>0.40325219350796054</v>
+        <v>0.35750552980588451</v>
       </c>
       <c r="M9" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N9" s="0">
-        <v>1.8834210529125932</v>
+        <v>1.7703541333996047</v>
       </c>
       <c r="O9" s="0">
         <v>0.59999999999999998</v>
@@ -1146,63 +1180,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.3185692328712888</v>
+        <v>0.33891524225597847</v>
       </c>
       <c r="R9" s="0">
-        <v>976.65683333333391</v>
+        <v>767.31547666666609</v>
       </c>
       <c r="S9" s="0">
-        <v>9.581003535000006</v>
+        <v>7.5273648260999941</v>
       </c>
       <c r="T9" s="0">
-        <v>4.97209219781901</v>
+        <v>4.9700308843627763</v>
       </c>
       <c r="U9" s="0">
-        <v>2.3087805228799652</v>
+        <v>2.1720677903871892</v>
       </c>
       <c r="V9" s="0">
-        <v>0.052776401275214511</v>
+        <v>0.046736079221438992</v>
       </c>
       <c r="W9" s="0">
-        <v>0.041693357007419468</v>
+        <v>0.036921502584936802</v>
       </c>
       <c r="X9" s="0">
-        <v>0.41954980371337303</v>
+        <v>0.3836482161841242</v>
       </c>
       <c r="Y9" s="0">
-        <v>1.6366392417692019</v>
+        <v>0.48762211514814141</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.30416816852791789</v>
+        <v>0.28925099248542585</v>
       </c>
       <c r="AA9" s="0">
-        <v>122656.48115418191</v>
+        <v>103408.82931538009</v>
       </c>
       <c r="AB9" s="0">
-        <v>191141.5397227733</v>
+        <v>169457.62112798926</v>
       </c>
       <c r="AC9" s="0">
-        <v>190000</v>
+        <v>170000</v>
       </c>
       <c r="AD9" s="0">
-        <v>1.9269561290924326</v>
+        <v>1.5145509155251662</v>
       </c>
       <c r="AE9" s="0">
-        <v>4.149811313831032</v>
-      </c>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0">
-        <v>10.151898399914455</v>
-      </c>
+        <v>3.465529418286792</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>4.0529183434194351</v>
+      </c>
+      <c r="AG9" s="0"/>
       <c r="AH9" s="0">
-        <v>4</v>
-      </c>
-      <c r="AI9" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>7.5184477617062271</v>
+      </c>
       <c r="AJ9" s="0">
-        <v>0.89878113296019835</v>
+        <v>20220426</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.58218750065327296</v>
+        <v>0.91504335696047756</v>
+      </c>
+      <c r="AL9" s="0">
+        <v>0.73484035592458019</v>
       </c>
     </row>
     <row r="10">
@@ -1216,22 +1255,22 @@
         <v>90</v>
       </c>
       <c r="D10" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="0">
-        <v>0.10030448492202078</v>
+        <v>0.079776499518139601</v>
       </c>
       <c r="F10" s="0">
-        <v>0.10505400793650793</v>
+        <v>0.084297698412698394</v>
       </c>
       <c r="G10" s="0">
-        <v>0.047640478087649415</v>
+        <v>0.029403293650793687</v>
       </c>
       <c r="H10" s="0">
-        <v>0.092692562812583257</v>
+        <v>0.046608810893151283</v>
       </c>
       <c r="I10" s="0">
-        <v>0.068380992063492074</v>
+        <v>0.016340595238095241</v>
       </c>
       <c r="J10" s="0">
         <v>0.002</v>
@@ -1240,13 +1279,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L10" s="0">
-        <v>0.3785940735733429</v>
+        <v>0.3173422730894086</v>
       </c>
       <c r="M10" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N10" s="0">
-        <v>2.0060896984404155</v>
+        <v>1.595529990362792</v>
       </c>
       <c r="O10" s="0">
         <v>0.59999999999999998</v>
@@ -1255,65 +1294,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.29908931812294087</v>
+        <v>0.37605059361094917</v>
       </c>
       <c r="R10" s="0">
-        <v>540.43937999999991</v>
+        <v>927.08347333333268</v>
       </c>
       <c r="S10" s="0">
-        <v>5.3017103177999996</v>
+        <v>9.0946888733999955</v>
       </c>
       <c r="T10" s="0">
-        <v>3.1214042793964905</v>
+        <v>7.6210294483522185</v>
       </c>
       <c r="U10" s="0">
-        <v>1.5334703344458387</v>
+        <v>2.9669647838913655</v>
       </c>
       <c r="V10" s="0">
-        <v>0.052776401275214518</v>
+        <v>0.040275932140298593</v>
       </c>
       <c r="W10" s="0">
-        <v>0.041693357007419468</v>
+        <v>0.031817986390835891</v>
       </c>
       <c r="X10" s="0">
-        <v>0.38166218439308464</v>
+        <v>0.35872028540853007</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.42316598073463313</v>
+        <v>2.4150202379255181</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.31996699202459999</v>
+        <v>0.26548674874722761</v>
       </c>
       <c r="AA10" s="0">
-        <v>121137.60691960265</v>
+        <v>84250.168322561905</v>
       </c>
       <c r="AB10" s="0">
-        <v>179453.59087376454</v>
+        <v>150420.23744437966</v>
       </c>
       <c r="AC10" s="0">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="AD10" s="0">
-        <v>1.6985016496565648</v>
+        <v>1.1933675017312004</v>
       </c>
       <c r="AE10" s="0">
-        <v>3.4573282565103667</v>
+        <v>3.0653174324070425</v>
       </c>
       <c r="AF10" s="0">
-        <v>1.7697490546778953</v>
+        <v>7.6438130352245128</v>
       </c>
       <c r="AG10" s="0"/>
       <c r="AH10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI10" s="0">
-        <v>5.2270773111882622</v>
+        <v>10.709130467631555</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.95731943167767874</v>
+        <v>20220426</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.88467022807081497</v>
+        <v>0.88369621478023919</v>
+      </c>
+      <c r="AL10" s="0">
+        <v>0.5162927680515792</v>
       </c>
     </row>
     <row r="11">
@@ -1327,22 +1369,22 @@
         <v>90</v>
       </c>
       <c r="D11" s="0">
-        <v>0.035000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="0">
-        <v>0.10046699364855335</v>
+        <v>0.080807979303858107</v>
       </c>
       <c r="F11" s="0">
-        <v>0.1047505555555556</v>
+        <v>0.085461195219123529</v>
       </c>
       <c r="G11" s="0">
-        <v>0.046326904761904757</v>
+        <v>0.030192270916334665</v>
       </c>
       <c r="H11" s="0">
-        <v>0.069157301623147371</v>
+        <v>0.058735251489495037</v>
       </c>
       <c r="I11" s="0">
-        <v>0.033200836653386454</v>
+        <v>0.040164860557768925</v>
       </c>
       <c r="J11" s="0">
         <v>0.002</v>
@@ -1351,13 +1393,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L11" s="0">
-        <v>0.44097863247839281</v>
+        <v>0.31329153277062355</v>
       </c>
       <c r="M11" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N11" s="0">
-        <v>2.0093398729710668</v>
+        <v>1.616159586077162</v>
       </c>
       <c r="O11" s="0">
         <v>0.59999999999999998</v>
@@ -1366,63 +1408,68 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.29860553113536881</v>
+        <v>0.37125046633318887</v>
       </c>
       <c r="R11" s="0">
-        <v>1003.0107766666673</v>
+        <v>813.40790999999956</v>
       </c>
       <c r="S11" s="0">
-        <v>9.8395357191000077</v>
+        <v>7.9795315970999967</v>
       </c>
       <c r="T11" s="0">
-        <v>4.2699340135919019</v>
+        <v>6.8605942251348786</v>
       </c>
       <c r="U11" s="0">
-        <v>2.100611975782475</v>
+        <v>2.712171108583016</v>
       </c>
       <c r="V11" s="0">
-        <v>0.058488565005636588</v>
+        <v>0.040275932140298593</v>
       </c>
       <c r="W11" s="0">
-        <v>0.046205966354452906</v>
+        <v>0.031817986390835891</v>
       </c>
       <c r="X11" s="0">
-        <v>0.44419262057129771</v>
+        <v>0.3518738804227674</v>
       </c>
       <c r="Y11" s="0">
-        <v>1.4592748243254487</v>
+        <v>0.62669061063757303</v>
       </c>
       <c r="Z11" s="0">
-        <v>0.32038027154097543</v>
+        <v>0.26833641480097925</v>
       </c>
       <c r="AA11" s="0">
-        <v>141280.8540171955</v>
+        <v>84067.526691172621</v>
       </c>
       <c r="AB11" s="0">
-        <v>209023.87179475819</v>
+        <v>148500.18653327556</v>
       </c>
       <c r="AC11" s="0">
-        <v>210000</v>
+        <v>150000</v>
       </c>
       <c r="AD11" s="0">
-        <v>2.3043765284847839</v>
+        <v>1.1630962763933352</v>
       </c>
       <c r="AE11" s="0">
-        <v>4.6841281648100637</v>
-      </c>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0">
-        <v>10.322915590847217</v>
-      </c>
+        <v>2.9421195336266717</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>5.1318429986559702</v>
+      </c>
+      <c r="AG11" s="0"/>
       <c r="AH11" s="0">
         <v>4</v>
       </c>
-      <c r="AI11" s="0"/>
+      <c r="AI11" s="0">
+        <v>8.0739625322826427</v>
+      </c>
       <c r="AJ11" s="0">
-        <v>0.90929766029116244</v>
+        <v>20220426</v>
       </c>
       <c r="AK11" s="0">
-        <v>0.62592270629652313</v>
+        <v>0.89512207061206239</v>
+      </c>
+      <c r="AL11" s="0">
+        <v>0.65061916390089536</v>
       </c>
     </row>
     <row r="12">
@@ -1436,22 +1483,22 @@
         <v>90</v>
       </c>
       <c r="D12" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="E12" s="0">
-        <v>0.10662369211618179</v>
+        <v>0.0818593096671556</v>
       </c>
       <c r="F12" s="0">
-        <v>0.11153388888888893</v>
+        <v>0.086107539682539647</v>
       </c>
       <c r="G12" s="0">
-        <v>0.051912151394422311</v>
+        <v>0.029688286852589684</v>
       </c>
       <c r="H12" s="0">
-        <v>0.068598943845090021</v>
+        <v>0.066906689334622557</v>
       </c>
       <c r="I12" s="0">
-        <v>0.038800039682539686</v>
+        <v>0.055061865079365079</v>
       </c>
       <c r="J12" s="0">
         <v>0.002</v>
@@ -1460,13 +1507,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="L12" s="0">
-        <v>0.47487486493370767</v>
+        <v>0.30926788656220799</v>
       </c>
       <c r="M12" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="N12" s="0">
-        <v>2.1324738423236358</v>
+        <v>1.637186193343112</v>
       </c>
       <c r="O12" s="0">
         <v>0.59999999999999998</v>
@@ -1475,63 +1522,2234 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.28136335747322178</v>
+        <v>0.36648244557621645</v>
       </c>
       <c r="R12" s="0">
-        <v>1023.0010099999997</v>
+        <v>659.4147566666669</v>
       </c>
       <c r="S12" s="0">
-        <v>10.035639908099999</v>
+        <v>6.4688587629000027</v>
       </c>
       <c r="T12" s="0">
-        <v>3.7555050771094471</v>
+        <v>5.7074178047991442</v>
       </c>
       <c r="U12" s="0">
-        <v>1.9394878743804205</v>
+        <v>2.2906406981467322</v>
       </c>
       <c r="V12" s="0">
+        <v>0.040275932140298593</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0.031817986390835891</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.34511694542974075</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0.39043272005177632</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>0.27122823577541694</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>83882.183254259449</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>146592.97823048659</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>150000</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>1.1334125140550588</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>2.8240390420608974</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>3.4764393694529345</v>
+      </c>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI12" s="0">
+        <v>6.3004784115138319</v>
+      </c>
+      <c r="AJ12" s="0">
+        <v>20220426</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>0.90676781426014352</v>
+      </c>
+      <c r="AL12" s="0">
+        <v>0.74113540285180668</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C13" s="0">
+        <v>90</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.071860353382510719</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.076746587301587302</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.021688531746031758</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.039309615093625794</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.013716626984126984</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L13" s="0">
+        <v>0.26422555523882257</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N13" s="0">
+        <v>1.4372070676502142</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>0.41747637727733966</v>
+      </c>
+      <c r="R13" s="0">
+        <v>861.87732000000051</v>
+      </c>
+      <c r="S13" s="0">
+        <v>8.4550165092000054</v>
+      </c>
+      <c r="T13" s="0">
+        <v>10.219895879099838</v>
+      </c>
+      <c r="U13" s="0">
+        <v>3.4679558081882131</v>
+      </c>
+      <c r="V13" s="0">
+        <v>0.033247049452170697</v>
+      </c>
+      <c r="W13" s="0">
+        <v>0.026265169067214853</v>
+      </c>
+      <c r="X13" s="0">
+        <v>0.31469920168540161</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>2.3551189885882189</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>0.24319768753493021</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>64259.044021714617</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>125242.91318320189</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>130000</v>
+      </c>
+      <c r="AD13" s="0">
+        <v>0.82730945688897939</v>
+      </c>
+      <c r="AE13" s="0">
+        <v>2.4380404413564931</v>
+      </c>
+      <c r="AF13" s="0">
+        <v>7.1935221857347118</v>
+      </c>
+      <c r="AG13" s="0"/>
+      <c r="AH13" s="0">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="0">
+        <v>9.6315626270912045</v>
+      </c>
+      <c r="AJ13" s="0">
+        <v>20220426</v>
+      </c>
+      <c r="AK13" s="0">
+        <v>0.86321802220507315</v>
+      </c>
+      <c r="AL13" s="0">
+        <v>0.47220430456470402</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C14" s="0">
+        <v>90</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.07212386420059641</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.076441713147410356</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.022403690476190462</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.047773607559582716</v>
+      </c>
+      <c r="I14" s="0">
+        <v>0.033488525896414337</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L14" s="0">
+        <v>0.26326018416515856</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N14" s="0">
+        <v>1.4424772840119282</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0.41595109098095051</v>
+      </c>
+      <c r="R14" s="0">
+        <v>780.77431999999965</v>
+      </c>
+      <c r="S14" s="0">
+        <v>7.6593960791999969</v>
+      </c>
+      <c r="T14" s="0">
+        <v>9.3262234415083025</v>
+      </c>
+      <c r="U14" s="0">
+        <v>3.1812972517381151</v>
+      </c>
+      <c r="V14" s="0">
+        <v>0.033247049452170704</v>
+      </c>
+      <c r="W14" s="0">
+        <v>0.026265169067214857</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.31297610655129149</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>0.61736186610135635</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>0.24395179559485419</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>64222.794635722435</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>124785.32729428516</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>120000</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>0.82127520611507743</v>
+      </c>
+      <c r="AE14" s="0">
+        <v>2.4076329475390126</v>
+      </c>
+      <c r="AF14" s="0">
+        <v>5.6198320902720846</v>
+      </c>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="0">
+        <v>8.0274650378110977</v>
+      </c>
+      <c r="AJ14" s="0">
+        <v>20220426</v>
+      </c>
+      <c r="AK14" s="0">
+        <v>0.86638342950562974</v>
+      </c>
+      <c r="AL14" s="0">
+        <v>0.57387748723792154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C15" s="0">
+        <v>90</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.10749938090433828</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.11226976190476194</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.055007301587301542</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.058264952153841358</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0.038259203187250998</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L15" s="0">
+        <v>0.47100653944660725</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N15" s="0">
+        <v>2.1499876180867652</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>0.27907137462211479</v>
+      </c>
+      <c r="R15" s="0">
+        <v>1020.5612266666674</v>
+      </c>
+      <c r="S15" s="0">
+        <v>10.011705633600007</v>
+      </c>
+      <c r="T15" s="0">
+        <v>3.8083411703546681</v>
+      </c>
+      <c r="U15" s="0">
+        <v>1.979339938868327</v>
+      </c>
+      <c r="V15" s="0">
         <v>0.063934057048509796</v>
       </c>
-      <c r="W12" s="0">
+      <c r="W15" s="0">
         <v>0.050507905068322742</v>
       </c>
-      <c r="X12" s="0">
-        <v>0.46432045982665726</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>1.3200923803108826</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>0.33584026470693235</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>159482.10034200514</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>225090.68597857744</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>230000</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>2.672247727547814</v>
-      </c>
-      <c r="AE12" s="0">
-        <v>5.1743762055258715</v>
-      </c>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0">
-        <v>11.611883797627113</v>
-      </c>
-      <c r="AH12" s="0">
+      <c r="X15" s="0">
+        <v>0.45865850555109139</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>1.348182537629256</v>
+      </c>
+      <c r="Z15" s="0">
+        <v>0.33800842007641979</v>
+      </c>
+      <c r="AA15" s="0">
+        <v>159204.17624400964</v>
+      </c>
+      <c r="AB15" s="0">
+        <v>223257.09969769185</v>
+      </c>
+      <c r="AC15" s="0">
+        <v>220000</v>
+      </c>
+      <c r="AD15" s="0">
+        <v>2.6288888483874002</v>
+      </c>
+      <c r="AE15" s="0">
+        <v>5.0581031772259015</v>
+      </c>
+      <c r="AF15" s="0">
+        <v>11.446856981204281</v>
+      </c>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="0">
         <v>4</v>
       </c>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0">
-        <v>0.91969258068461879</v>
-      </c>
-      <c r="AK12" s="0">
-        <v>0.59170657519892067</v>
+      <c r="AI15" s="0">
+        <v>16.504960158430183</v>
+      </c>
+      <c r="AJ15" s="0">
+        <v>20220427</v>
+      </c>
+      <c r="AK15" s="0">
+        <v>0.94352280335780703</v>
+      </c>
+      <c r="AL15" s="0">
+        <v>0.51139188459719154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C16" s="0">
+        <v>90</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.10121772290978677</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.10609503968253968</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.04909182539682537</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.078188090182401943</v>
+      </c>
+      <c r="I16" s="0">
+        <v>0.032986587301587308</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L16" s="0">
+        <v>0.4377079052434471</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N16" s="0">
+        <v>2.0243544581957353</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P16" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0.2963907815505627</v>
+      </c>
+      <c r="R16" s="0">
+        <v>1000.1466233333331</v>
+      </c>
+      <c r="S16" s="0">
+        <v>9.8114383748999963</v>
+      </c>
+      <c r="T16" s="0">
+        <v>4.3216097784042171</v>
+      </c>
+      <c r="U16" s="0">
+        <v>2.1394817739264202</v>
+      </c>
+      <c r="V16" s="0">
+        <v>0.058488565005636581</v>
+      </c>
+      <c r="W16" s="0">
+        <v>0.046205966354452899</v>
+      </c>
+      <c r="X16" s="0">
+        <v>0.43925994736671392</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>1.4735149668827514</v>
+      </c>
+      <c r="Z16" s="0">
+        <v>0.32228595395521081</v>
+      </c>
+      <c r="AA16" s="0">
+        <v>141067.10979512139</v>
+      </c>
+      <c r="AB16" s="0">
+        <v>207473.54708539392</v>
+      </c>
+      <c r="AC16" s="0">
+        <v>210000</v>
+      </c>
+      <c r="AD16" s="0">
+        <v>2.2703202922043868</v>
+      </c>
+      <c r="AE16" s="0">
+        <v>4.5858948154972348</v>
+      </c>
+      <c r="AF16" s="0">
+        <v>5.3543205202187902</v>
+      </c>
+      <c r="AG16" s="0"/>
+      <c r="AH16" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI16" s="0">
+        <v>9.9402153357160259</v>
+      </c>
+      <c r="AJ16" s="0">
+        <v>20220427</v>
+      </c>
+      <c r="AK16" s="0">
+        <v>0.93298056716417943</v>
+      </c>
+      <c r="AL16" s="0">
+        <v>0.72070351541970934</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C17" s="0">
+        <v>90</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.095175470472690218</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.10014365079365078</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.043745896414342636</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.05723651343302489</v>
+      </c>
+      <c r="I17" s="0">
+        <v>0.028251309523809529</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K17" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L17" s="0">
+        <v>0.39899654139561419</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N17" s="0">
+        <v>1.9035094094538043</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P17" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>0.31520726770253521</v>
+      </c>
+      <c r="R17" s="0">
+        <v>979.41674000000023</v>
+      </c>
+      <c r="S17" s="0">
+        <v>9.608078219400003</v>
+      </c>
+      <c r="T17" s="0">
+        <v>5.0930731917915795</v>
+      </c>
+      <c r="U17" s="0">
+        <v>2.3883512746926714</v>
+      </c>
+      <c r="V17" s="0">
+        <v>0.052776401275214518</v>
+      </c>
+      <c r="W17" s="0">
+        <v>0.041693357007419468</v>
+      </c>
+      <c r="X17" s="0">
+        <v>0.41292588788009887</v>
+      </c>
+      <c r="Y17" s="0">
+        <v>1.5935143080265466</v>
+      </c>
+      <c r="Z17" s="0">
+        <v>0.30678247363507904</v>
+      </c>
+      <c r="AA17" s="0">
+        <v>122405.14594118774</v>
+      </c>
+      <c r="AB17" s="0">
+        <v>189124.3606215211</v>
+      </c>
+      <c r="AC17" s="0">
+        <v>190000</v>
+      </c>
+      <c r="AD17" s="0">
+        <v>1.8864991445410955</v>
+      </c>
+      <c r="AE17" s="0">
+        <v>4.0228915742875184</v>
+      </c>
+      <c r="AF17" s="0">
+        <v>8.8206936948510695</v>
+      </c>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="0">
+        <v>12.843585269138588</v>
+      </c>
+      <c r="AJ17" s="0">
+        <v>20220427</v>
+      </c>
+      <c r="AK17" s="0">
+        <v>0.92604400710460233</v>
+      </c>
+      <c r="AL17" s="0">
+        <v>0.55690326497964282</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C18" s="0">
+        <v>90</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.0970291025029415</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.10196023904382469</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.045718968253968269</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.081985367172343462</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.06165039682539683</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L18" s="0">
+        <v>0.39137416058396057</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N18" s="0">
+        <v>1.94058205005883</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P18" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>0.30918558686132885</v>
+      </c>
+      <c r="R18" s="0">
+        <v>753.33559666666667</v>
+      </c>
+      <c r="S18" s="0">
+        <v>7.3902222033000005</v>
+      </c>
+      <c r="T18" s="0">
+        <v>4.0715038327380801</v>
+      </c>
+      <c r="U18" s="0">
+        <v>1.943021598245334</v>
+      </c>
+      <c r="V18" s="0">
+        <v>0.052776401275214518</v>
+      </c>
+      <c r="W18" s="0">
+        <v>0.041693357007419468</v>
+      </c>
+      <c r="X18" s="0">
+        <v>0.40114985386344293</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>0.49432210065157484</v>
+      </c>
+      <c r="Z18" s="0">
+        <v>0.31157909394949063</v>
+      </c>
+      <c r="AA18" s="0">
+        <v>121944.00634999289</v>
+      </c>
+      <c r="AB18" s="0">
+        <v>185511.35211679732</v>
+      </c>
+      <c r="AC18" s="0">
+        <v>190000</v>
+      </c>
+      <c r="AD18" s="0">
+        <v>1.8151087428376771</v>
+      </c>
+      <c r="AE18" s="0">
+        <v>3.8034688909139343</v>
+      </c>
+      <c r="AF18" s="0">
+        <v>3.4976233331580517</v>
+      </c>
+      <c r="AG18" s="0"/>
+      <c r="AH18" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="0">
+        <v>7.3010922240719864</v>
+      </c>
+      <c r="AJ18" s="0">
+        <v>20220427</v>
+      </c>
+      <c r="AK18" s="0">
+        <v>0.94407958732780584</v>
+      </c>
+      <c r="AL18" s="0">
+        <v>0.79770614805633389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C19" s="0">
+        <v>90</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.0880665207351706</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.092954603174603148</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.038208565737051788</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.055089750990732315</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.021715737051792829</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K19" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L19" s="0">
+        <v>0.35933711648966127</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N19" s="0">
+        <v>1.7613304147034119</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P19" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>0.34065158643219884</v>
+      </c>
+      <c r="R19" s="0">
+        <v>954.48115000000007</v>
+      </c>
+      <c r="S19" s="0">
+        <v>9.3634600815000013</v>
+      </c>
+      <c r="T19" s="0">
+        <v>6.1194706480710384</v>
+      </c>
+      <c r="U19" s="0">
+        <v>2.6603806918706479</v>
+      </c>
+      <c r="V19" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W19" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X19" s="0">
+        <v>0.38660027207261372</v>
+      </c>
+      <c r="Y19" s="0">
+        <v>1.9704741180332972</v>
+      </c>
+      <c r="Z19" s="0">
+        <v>0.28804542809095318</v>
+      </c>
+      <c r="AA19" s="0">
+        <v>103505.41354823319</v>
+      </c>
+      <c r="AB19" s="0">
+        <v>170325.79321609944</v>
+      </c>
+      <c r="AC19" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD19" s="0">
+        <v>1.5301094849521868</v>
+      </c>
+      <c r="AE19" s="0">
+        <v>3.5195940603959506</v>
+      </c>
+      <c r="AF19" s="0">
+        <v>7.6670000352726673</v>
+      </c>
+      <c r="AG19" s="0"/>
+      <c r="AH19" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI19" s="0">
+        <v>11.186594095668617</v>
+      </c>
+      <c r="AJ19" s="0">
+        <v>20220427</v>
+      </c>
+      <c r="AK19" s="0">
+        <v>0.91037926535741776</v>
+      </c>
+      <c r="AL19" s="0">
+        <v>0.56948505081156042</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C20" s="0">
+        <v>90</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.088414004760579978</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.093020793650793687</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.03812210317460317</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.066981671149030905</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.046019163346613552</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K20" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L20" s="0">
+        <v>0.3579248525835646</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N20" s="0">
+        <v>1.7682800952115996</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P20" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>0.33931276024921919</v>
+      </c>
+      <c r="R20" s="0">
+        <v>852.33362999999974</v>
+      </c>
+      <c r="S20" s="0">
+        <v>8.3613929102999975</v>
+      </c>
+      <c r="T20" s="0">
+        <v>5.507779838814054</v>
+      </c>
+      <c r="U20" s="0">
+        <v>2.404187917225213</v>
+      </c>
+      <c r="V20" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W20" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X20" s="0">
+        <v>0.38432339286822947</v>
+      </c>
+      <c r="Y20" s="0">
+        <v>0.63874059458397847</v>
+      </c>
+      <c r="Z20" s="0">
+        <v>0.28897410117628375</v>
+      </c>
+      <c r="AA20" s="0">
+        <v>103431.01256398944</v>
+      </c>
+      <c r="AB20" s="0">
+        <v>169656.38012460963</v>
+      </c>
+      <c r="AC20" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD20" s="0">
+        <v>1.5181058711490523</v>
+      </c>
+      <c r="AE20" s="0">
+        <v>3.4778449930612227</v>
+      </c>
+      <c r="AF20" s="0">
+        <v>4.9829532676843247</v>
+      </c>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI20" s="0">
+        <v>8.4607982607455483</v>
+      </c>
+      <c r="AJ20" s="0">
+        <v>20220427</v>
+      </c>
+      <c r="AK20" s="0">
+        <v>0.91397134835484783</v>
+      </c>
+      <c r="AL20" s="0">
+        <v>0.69241664214757825</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C21" s="0">
+        <v>90</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.072766218743135866</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.077673650793650809</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.024241752988047836</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.052389935368493859</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0.041830996015936255</v>
+      </c>
+      <c r="J21" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K21" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L21" s="0">
+        <v>0.26093621600947897</v>
+      </c>
+      <c r="M21" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N21" s="0">
+        <v>1.4553243748627172</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P21" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>0.41227922129497674</v>
+      </c>
+      <c r="R21" s="0">
+        <v>707.01055333333318</v>
+      </c>
+      <c r="S21" s="0">
+        <v>6.9357735281999986</v>
+      </c>
+      <c r="T21" s="0">
+        <v>8.5962261654782424</v>
+      </c>
+      <c r="U21" s="0">
+        <v>2.9692715962612946</v>
+      </c>
+      <c r="V21" s="0">
+        <v>0.033247049452170704</v>
+      </c>
+      <c r="W21" s="0">
+        <v>0.026265169067214857</v>
+      </c>
+      <c r="X21" s="0">
+        <v>0.3088410018740626</v>
+      </c>
+      <c r="Y21" s="0">
+        <v>0.44221812461130333</v>
+      </c>
+      <c r="Z21" s="0">
+        <v>0.2457865083183538</v>
+      </c>
+      <c r="AA21" s="0">
+        <v>64134.601426773574</v>
+      </c>
+      <c r="AB21" s="0">
+        <v>123683.76638849304</v>
+      </c>
+      <c r="AC21" s="0">
+        <v>120000</v>
+      </c>
+      <c r="AD21" s="0">
+        <v>0.80683934958034376</v>
+      </c>
+      <c r="AE21" s="0">
+        <v>2.3358501583125819</v>
+      </c>
+      <c r="AF21" s="0">
+        <v>4.7374247557541427</v>
+      </c>
+      <c r="AG21" s="0"/>
+      <c r="AH21" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="0">
+        <v>7.0732749140667242</v>
+      </c>
+      <c r="AJ21" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK21" s="0">
+        <v>0.87409967346582573</v>
+      </c>
+      <c r="AL21" s="0">
+        <v>0.62933083770848008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C22" s="0">
+        <v>90</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.014999999999999999</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.072013157599376154</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.076808412698412723</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.023395595238095254</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.03967453904910382</v>
+      </c>
+      <c r="I22" s="0">
+        <v>0.016822261904761906</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K22" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L22" s="0">
+        <v>0.26366489687596179</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N22" s="0">
+        <v>1.4402631519875231</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P22" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>0.41659053706401961</v>
+      </c>
+      <c r="R22" s="0">
+        <v>852.58670666666706</v>
+      </c>
+      <c r="S22" s="0">
+        <v>8.363875592400003</v>
+      </c>
+      <c r="T22" s="0">
+        <v>10.152770906700084</v>
+      </c>
+      <c r="U22" s="0">
+        <v>3.455664128745402</v>
+      </c>
+      <c r="V22" s="0">
+        <v>0.033247049452170697</v>
+      </c>
+      <c r="W22" s="0">
+        <v>0.026265169067214853</v>
+      </c>
+      <c r="X22" s="0">
+        <v>0.31369809615328093</v>
+      </c>
+      <c r="Y22" s="0">
+        <v>1.7340326134224453</v>
+      </c>
+      <c r="Z22" s="0">
+        <v>0.24363508212892868</v>
+      </c>
+      <c r="AA22" s="0">
+        <v>64238.01880489046</v>
+      </c>
+      <c r="AB22" s="0">
+        <v>124977.16111920589</v>
+      </c>
+      <c r="AC22" s="0">
+        <v>120000</v>
+      </c>
+      <c r="AD22" s="0">
+        <v>0.82380225745864699</v>
+      </c>
+      <c r="AE22" s="0">
+        <v>2.4203381118050249</v>
+      </c>
+      <c r="AF22" s="0">
+        <v>7.1654293583012407</v>
+      </c>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="0">
+        <v>9.5857674701062656</v>
+      </c>
+      <c r="AJ22" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK22" s="0">
+        <v>0.86505357334917987</v>
+      </c>
+      <c r="AL22" s="0">
+        <v>0.47658793086593038</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C23" s="0">
+        <v>90</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.080565810882196817</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.085525856573705192</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.030358690476190445</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.047507063141212981</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0.017506269841269836</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K23" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L23" s="0">
+        <v>0.31423323887623011</v>
+      </c>
+      <c r="M23" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N23" s="0">
+        <v>1.6113162176439362</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P23" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>0.37236638806833267</v>
+      </c>
+      <c r="R23" s="0">
+        <v>921.52516333333335</v>
+      </c>
+      <c r="S23" s="0">
+        <v>9.0401618523000007</v>
+      </c>
+      <c r="T23" s="0">
+        <v>7.7259805777975528</v>
+      </c>
+      <c r="U23" s="0">
+        <v>3.0434487932139733</v>
+      </c>
+      <c r="V23" s="0">
+        <v>0.040275932140298593</v>
+      </c>
+      <c r="W23" s="0">
+        <v>0.031817986390835891</v>
+      </c>
+      <c r="X23" s="0">
+        <v>0.3534615900857897</v>
+      </c>
+      <c r="Y23" s="0">
+        <v>2.1778710185494647</v>
+      </c>
+      <c r="Z23" s="0">
+        <v>0.26766848726516879</v>
+      </c>
+      <c r="AA23" s="0">
+        <v>84110.335698434952</v>
+      </c>
+      <c r="AB23" s="0">
+        <v>148946.5552273331</v>
+      </c>
+      <c r="AC23" s="0">
+        <v>150000</v>
+      </c>
+      <c r="AD23" s="0">
+        <v>1.1700989617135538</v>
+      </c>
+      <c r="AE23" s="0">
+        <v>2.9703676541090465</v>
+      </c>
+      <c r="AF23" s="0">
+        <v>7.6391267093703323</v>
+      </c>
+      <c r="AG23" s="0"/>
+      <c r="AH23" s="0">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="0">
+        <v>10.609494363479378</v>
+      </c>
+      <c r="AJ23" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK23" s="0">
+        <v>0.89243953479193994</v>
+      </c>
+      <c r="AL23" s="0">
+        <v>0.52624284252619902</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C24" s="0">
+        <v>90</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.089851791351352767</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.094808293650793588</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.039390557768924341</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.087604054054053651</v>
+      </c>
+      <c r="I24" s="0">
+        <v>0.077020476190476223</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K24" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L24" s="0">
+        <v>0.28175794066482324</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N24" s="0">
+        <v>1.7970358270270552</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P24" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>0.33388315968781551</v>
+      </c>
+      <c r="R24" s="0">
+        <v>310.79023666666666</v>
+      </c>
+      <c r="S24" s="0">
+        <v>3.0488522216999998</v>
+      </c>
+      <c r="T24" s="0">
+        <v>3.2409004816795219</v>
+      </c>
+      <c r="U24" s="0">
+        <v>1.4380252838371275</v>
+      </c>
+      <c r="V24" s="0">
+        <v>0.040275932140298593</v>
+      </c>
+      <c r="W24" s="0">
+        <v>0.031817986390835891</v>
+      </c>
+      <c r="X24" s="0">
+        <v>0.30010849627188335</v>
+      </c>
+      <c r="Y24" s="0">
+        <v>0.23600069622731637</v>
+      </c>
+      <c r="Z24" s="0">
+        <v>0.29280252825189707</v>
+      </c>
+      <c r="AA24" s="0">
+        <v>82499.437381708252</v>
+      </c>
+      <c r="AB24" s="0">
+        <v>133553.2638751262</v>
+      </c>
+      <c r="AC24" s="0">
+        <v>130000</v>
+      </c>
+      <c r="AD24" s="0">
+        <v>0.94074231496303229</v>
+      </c>
+      <c r="AE24" s="0">
+        <v>2.1201659358621656</v>
+      </c>
+      <c r="AF24" s="0">
+        <v>0.52259217841015249</v>
+      </c>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="0">
+        <v>2.642758114272318</v>
+      </c>
+      <c r="AJ24" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK24" s="0">
+        <v>0.99530172905568381</v>
+      </c>
+      <c r="AL24" s="0">
+        <v>0.97040320689137216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C25" s="0">
+        <v>90</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.087994292564544038</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.092397460317460323</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.03665936507936509</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.05526450513142897</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.02246813492063492</v>
+      </c>
+      <c r="J25" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K25" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L25" s="0">
+        <v>0.35963207042139761</v>
+      </c>
+      <c r="M25" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N25" s="0">
+        <v>1.7598858512908806</v>
+      </c>
+      <c r="O25" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P25" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>0.34093120275948491</v>
+      </c>
+      <c r="R25" s="0">
+        <v>954.53787000000045</v>
+      </c>
+      <c r="S25" s="0">
+        <v>9.3640165047000039</v>
+      </c>
+      <c r="T25" s="0">
+        <v>6.1097999921849429</v>
+      </c>
+      <c r="U25" s="0">
+        <v>2.6539240839903835</v>
+      </c>
+      <c r="V25" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W25" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X25" s="0">
+        <v>0.38707636817329144</v>
+      </c>
+      <c r="Y25" s="0">
+        <v>1.87232855827053</v>
+      </c>
+      <c r="Z25" s="0">
+        <v>0.28785222598339588</v>
+      </c>
+      <c r="AA25" s="0">
+        <v>103520.89200581668</v>
+      </c>
+      <c r="AB25" s="0">
+        <v>170465.60137974247</v>
+      </c>
+      <c r="AC25" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD25" s="0">
+        <v>1.5326224289956358</v>
+      </c>
+      <c r="AE25" s="0">
+        <v>3.5283663768635272</v>
+      </c>
+      <c r="AF25" s="0">
+        <v>7.6095773888369536</v>
+      </c>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI25" s="0">
+        <v>11.137943765700481</v>
+      </c>
+      <c r="AJ25" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK25" s="0">
+        <v>0.90963261352691283</v>
+      </c>
+      <c r="AL25" s="0">
+        <v>0.57129155508693652</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C26" s="0">
+        <v>90</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.10014756303509827</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.1050802777777777</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.048609880952380904</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.098415054576480768</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.086791075697211173</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K26" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L26" s="0">
+        <v>0.3159894126346588</v>
+      </c>
+      <c r="M26" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N26" s="0">
+        <v>2.0029512607019653</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P26" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q26" s="0">
+        <v>0.29955796317765648</v>
+      </c>
+      <c r="R26" s="0">
+        <v>318.19465666666667</v>
+      </c>
+      <c r="S26" s="0">
+        <v>3.1214895819000001</v>
+      </c>
+      <c r="T26" s="0">
+        <v>2.6381438716380137</v>
+      </c>
+      <c r="U26" s="0">
+        <v>1.2943236320143094</v>
+      </c>
+      <c r="V26" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W26" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X26" s="0">
+        <v>0.31879964937058347</v>
+      </c>
+      <c r="Y26" s="0">
+        <v>0.24661528463144569</v>
+      </c>
+      <c r="Z26" s="0">
+        <v>0.31956766307307666</v>
+      </c>
+      <c r="AA26" s="0">
+        <v>100979.99815149204</v>
+      </c>
+      <c r="AB26" s="0">
+        <v>149778.98158882829</v>
+      </c>
+      <c r="AC26" s="0">
+        <v>150000</v>
+      </c>
+      <c r="AD26" s="0">
+        <v>1.1832143104317805</v>
+      </c>
+      <c r="AE26" s="0">
+        <v>2.4116762644920096</v>
+      </c>
+      <c r="AF26" s="0">
+        <v>0.40280301910319261</v>
+      </c>
+      <c r="AG26" s="0"/>
+      <c r="AH26" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI26" s="0">
+        <v>2.8144792835952019</v>
+      </c>
+      <c r="AJ26" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK26" s="0">
+        <v>1.0352658888091797</v>
+      </c>
+      <c r="AL26" s="0">
+        <v>1.017356247726336</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C27" s="0">
+        <v>90</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.094686333207380527</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.099652341269841307</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.042325577689243034</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.05663043831475538</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0.02877191235059761</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K27" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L27" s="0">
+        <v>0.40105770556276837</v>
+      </c>
+      <c r="M27" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N27" s="0">
+        <v>1.8937266641476105</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P27" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>0.316835587394587</v>
+      </c>
+      <c r="R27" s="0">
+        <v>971.25497666666661</v>
+      </c>
+      <c r="S27" s="0">
+        <v>9.528011321100001</v>
+      </c>
+      <c r="T27" s="0">
+        <v>4.9988509120315072</v>
+      </c>
+      <c r="U27" s="0">
+        <v>2.3330317782531687</v>
+      </c>
+      <c r="V27" s="0">
+        <v>0.052776401275214518</v>
+      </c>
+      <c r="W27" s="0">
+        <v>0.041693357007419468</v>
+      </c>
+      <c r="X27" s="0">
+        <v>0.416129698649714</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>1.5504606531507716</v>
+      </c>
+      <c r="Z27" s="0">
+        <v>0.30551068372231716</v>
+      </c>
+      <c r="AA27" s="0">
+        <v>122527.41383858513</v>
+      </c>
+      <c r="AB27" s="0">
+        <v>190101.3524367522</v>
+      </c>
+      <c r="AC27" s="0">
+        <v>190000</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>1.9060403058165756</v>
+      </c>
+      <c r="AE27" s="0">
+        <v>4.0839612258663669</v>
+      </c>
+      <c r="AF27" s="0">
+        <v>8.8478813948506687</v>
+      </c>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI27" s="0">
+        <v>12.931842620717035</v>
+      </c>
+      <c r="AJ27" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK27" s="0">
+        <v>0.92128476997194697</v>
+      </c>
+      <c r="AL27" s="0">
+        <v>0.5510062389041086</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C28" s="0">
+        <v>90</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.10375303801828996</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.10857035714285718</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.051786071428571473</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.099012918702242061</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.080321314741035862</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K28" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L28" s="0">
+        <v>0.36601032865764838</v>
+      </c>
+      <c r="M28" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N28" s="0">
+        <v>2.0750607603657989</v>
+      </c>
+      <c r="O28" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P28" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>0.28914815963954221</v>
+      </c>
+      <c r="R28" s="0">
+        <v>449.70739999999989</v>
+      </c>
+      <c r="S28" s="0">
+        <v>4.411629593999999</v>
+      </c>
+      <c r="T28" s="0">
+        <v>2.7790349503559644</v>
+      </c>
+      <c r="U28" s="0">
+        <v>1.4042750927011771</v>
+      </c>
+      <c r="V28" s="0">
+        <v>0.052776401275214511</v>
+      </c>
+      <c r="W28" s="0">
+        <v>0.041693357007419468</v>
+      </c>
+      <c r="X28" s="0">
+        <v>0.36279260528537693</v>
+      </c>
+      <c r="Y28" s="0">
+        <v>0.3324050624734281</v>
+      </c>
+      <c r="Z28" s="0">
+        <v>0.32867930132364753</v>
+      </c>
+      <c r="AA28" s="0">
+        <v>120300.01910043448</v>
+      </c>
+      <c r="AB28" s="0">
+        <v>173488.89578372531</v>
+      </c>
+      <c r="AC28" s="0">
+        <v>170000</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>1.5874681941063453</v>
+      </c>
+      <c r="AE28" s="0">
+        <v>3.141570776929512</v>
+      </c>
+      <c r="AF28" s="0">
+        <v>1.1020635206231879</v>
+      </c>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="0">
+        <v>4.2436342975526999</v>
+      </c>
+      <c r="AJ28" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK28" s="0">
+        <v>1.0095025388217302</v>
+      </c>
+      <c r="AL28" s="0">
+        <v>0.96338184129550719</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C29" s="0">
+        <v>90</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.10091689961642784</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.1056528286852589</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.048154342629482101</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.079983275641625412</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0.033352023809523804</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K29" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L29" s="0">
+        <v>0.43901266920354737</v>
+      </c>
+      <c r="M29" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N29" s="0">
+        <v>2.0183379923285569</v>
+      </c>
+      <c r="O29" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P29" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q29" s="0">
+        <v>0.29727429314640202</v>
+      </c>
+      <c r="R29" s="0">
+        <v>995.72511333333375</v>
+      </c>
+      <c r="S29" s="0">
+        <v>9.7680633618000048</v>
+      </c>
+      <c r="T29" s="0">
+        <v>4.2769680971710544</v>
+      </c>
+      <c r="U29" s="0">
+        <v>2.1120670090106777</v>
+      </c>
+      <c r="V29" s="0">
+        <v>0.058488565005636581</v>
+      </c>
+      <c r="W29" s="0">
+        <v>0.046205966354452899</v>
+      </c>
+      <c r="X29" s="0">
+        <v>0.44122549599277755</v>
+      </c>
+      <c r="Y29" s="0">
+        <v>1.4493635788929642</v>
+      </c>
+      <c r="Z29" s="0">
+        <v>0.32152302435606306</v>
+      </c>
+      <c r="AA29" s="0">
+        <v>141152.68113295242</v>
+      </c>
+      <c r="AB29" s="0">
+        <v>208092.00520248146</v>
+      </c>
+      <c r="AC29" s="0">
+        <v>210000</v>
+      </c>
+      <c r="AD29" s="0">
+        <v>2.2838756660964963</v>
+      </c>
+      <c r="AE29" s="0">
+        <v>4.6248832637064421</v>
+      </c>
+      <c r="AF29" s="0">
+        <v>4.8670047732696409</v>
+      </c>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI29" s="0">
+        <v>9.4918880369760821</v>
+      </c>
+      <c r="AJ29" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK29" s="0">
+        <v>0.93020771001242986</v>
+      </c>
+      <c r="AL29" s="0">
+        <v>0.737250747463291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C30" s="0">
+        <v>90</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.11117253907036892</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.11594358565737056</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.059090476190476152</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.10604825471290835</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0.087358373015873028</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K30" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L30" s="0">
+        <v>0.3985138581777955</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N30" s="0">
+        <v>2.2234507814073781</v>
+      </c>
+      <c r="O30" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P30" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>0.26985081253753579</v>
+      </c>
+      <c r="R30" s="0">
+        <v>481.99908666666619</v>
+      </c>
+      <c r="S30" s="0">
+        <v>4.7284110401999948</v>
+      </c>
+      <c r="T30" s="0">
+        <v>2.5125228231520516</v>
+      </c>
+      <c r="U30" s="0">
+        <v>1.339470730259074</v>
+      </c>
+      <c r="V30" s="0">
+        <v>0.058488565005636581</v>
+      </c>
+      <c r="W30" s="0">
+        <v>0.046205966354452899</v>
+      </c>
+      <c r="X30" s="0">
+        <v>0.38160157843492365</v>
+      </c>
+      <c r="Y30" s="0">
+        <v>0.34190372027747096</v>
+      </c>
+      <c r="Z30" s="0">
+        <v>0.3470212193924716</v>
+      </c>
+      <c r="AA30" s="0">
+        <v>138292.7650096571</v>
+      </c>
+      <c r="AB30" s="0">
+        <v>188895.56877627506</v>
+      </c>
+      <c r="AC30" s="0">
+        <v>190000</v>
+      </c>
+      <c r="AD30" s="0">
+        <v>1.8819375476430622</v>
+      </c>
+      <c r="AE30" s="0">
+        <v>3.5300592490628357</v>
+      </c>
+      <c r="AF30" s="0">
+        <v>1.1913807402565095</v>
+      </c>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="0">
+        <v>4.7214399893193448</v>
+      </c>
+      <c r="AJ30" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK30" s="0">
+        <v>1.0247396955116228</v>
+      </c>
+      <c r="AL30" s="0">
+        <v>0.97750629024725832</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C31" s="0">
+        <v>90</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.1071594489764025</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.11185864541832671</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.053073888888888872</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.061253618690420363</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0.037930238095238093</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K31" s="0">
+        <v>0.027000000000000003</v>
+      </c>
+      <c r="L31" s="0">
+        <v>0.47250066957282405</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N31" s="0">
+        <v>2.1431889795280501</v>
+      </c>
+      <c r="O31" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P31" s="0">
+        <v>0.023699999999999999</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>0.27995664672189824</v>
+      </c>
+      <c r="R31" s="0">
+        <v>1018.708606666667</v>
+      </c>
+      <c r="S31" s="0">
+        <v>9.9935314314000045</v>
+      </c>
+      <c r="T31" s="0">
+        <v>3.7774243525953048</v>
+      </c>
+      <c r="U31" s="0">
+        <v>1.9584526112540919</v>
+      </c>
+      <c r="V31" s="0">
+        <v>0.063934057048509796</v>
+      </c>
+      <c r="W31" s="0">
+        <v>0.050507905068322742</v>
+      </c>
+      <c r="X31" s="0">
+        <v>0.46084267483889091</v>
+      </c>
+      <c r="Y31" s="0">
+        <v>1.3657594860390512</v>
+      </c>
+      <c r="Z31" s="0">
+        <v>0.33716766602289361</v>
+      </c>
+      <c r="AA31" s="0">
+        <v>159311.94795412355</v>
+      </c>
+      <c r="AB31" s="0">
+        <v>223965.3173775186</v>
+      </c>
+      <c r="AC31" s="0">
+        <v>220000</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>2.6455940605491897</v>
+      </c>
+      <c r="AE31" s="0">
+        <v>5.1027690810453992</v>
+      </c>
+      <c r="AF31" s="0">
+        <v>10.67296782399999</v>
+      </c>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="0">
+        <v>15.775736905045388</v>
+      </c>
+      <c r="AJ31" s="0">
+        <v>20220428</v>
+      </c>
+      <c r="AK31" s="0">
+        <v>0.94053921849528399</v>
+      </c>
+      <c r="AL31" s="0">
+        <v>0.53762343128306544</v>
       </c>
     </row>
   </sheetData>

--- a/iselUssSyncV2/OutputForces/sumDataTable.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>D</t>
   </si>
@@ -250,6 +250,21 @@
     <t>1</t>
   </si>
   <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Ftotal</t>
   </si>
   <si>
@@ -305,7 +320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM109"/>
+  <dimension ref="A1:AM118"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
@@ -323,12 +338,12 @@
     <col min="13" max="13" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.85546875" customWidth="true"/>
-    <col min="16" max="16" width="7.7109375" customWidth="true"/>
+    <col min="16" max="16" width="13.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
     <col min="19" max="19" width="16.140625" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
-    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="13.7109375" customWidth="true"/>
     <col min="23" max="23" width="13.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
@@ -456,16 +471,16 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
@@ -12260,10 +12275,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="P101" s="0">
-        <v>0.028439999999999997</v>
+        <v>0.024721772302998789</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.66475073477790647</v>
+        <v>0.57784164217406975</v>
       </c>
       <c r="R101" s="0">
         <v>552.75664333333373</v>
@@ -12272,10 +12287,10 @@
         <v>5.4225426711000049</v>
       </c>
       <c r="T101" s="0">
-        <v>9.4373054421443658</v>
+        <v>10.85670410215811</v>
       </c>
       <c r="U101" s="0">
-        <v>1.0606782922789655</v>
+        <v>1.934856607569754</v>
       </c>
       <c r="V101" s="0">
         <v>0.022945167770059685</v>
@@ -12302,10 +12317,10 @@
         <v>100000</v>
       </c>
       <c r="AD101" s="0">
-        <v>0.57458590318423375</v>
+        <v>0.49946490390413273</v>
       </c>
       <c r="AE101" s="0">
-        <v>5.1123349186765861</v>
+        <v>2.802555315926436</v>
       </c>
       <c r="AF101" s="0">
         <v>9.8148741714054566</v>
@@ -12320,7 +12335,7 @@
         <v>77</v>
       </c>
       <c r="AJ101" s="0">
-        <v>14.927209090082043</v>
+        <v>12.617429487331894</v>
       </c>
       <c r="AK101" s="0">
         <v>20220510</v>
@@ -12379,10 +12394,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="P102" s="0">
-        <v>0.028439999999999997</v>
+        <v>0.028066705993822268</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.58811555780138591</v>
+        <v>0.5803961480732871</v>
       </c>
       <c r="R102" s="0">
         <v>513.77080999999953</v>
@@ -12391,10 +12406,10 @@
         <v>5.040091646099996</v>
       </c>
       <c r="T102" s="0">
-        <v>9.1838646417988805</v>
+        <v>9.3060122719869653</v>
       </c>
       <c r="U102" s="0">
-        <v>1.558031558217279</v>
+        <v>1.6384853157831907</v>
       </c>
       <c r="V102" s="0">
         <v>0.024519296584056539</v>
@@ -12421,10 +12436,10 @@
         <v>90000</v>
       </c>
       <c r="AD102" s="0">
-        <v>0.54879855514864961</v>
+        <v>0.54159520735554167</v>
       </c>
       <c r="AE102" s="0">
-        <v>3.2349098575814073</v>
+        <v>3.0760676324345626</v>
       </c>
       <c r="AF102" s="0">
         <v>6.9507975534810216</v>
@@ -12439,7 +12454,7 @@
         <v>77</v>
       </c>
       <c r="AJ102" s="0">
-        <v>10.185707411062429</v>
+        <v>10.026865185915584</v>
       </c>
       <c r="AK102" s="0">
         <v>20220510</v>
@@ -12498,10 +12513,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="P103" s="0">
-        <v>0.028439999999999997</v>
+        <v>0.0278726770243907</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.5920749184885169</v>
+        <v>0.58026416938371606</v>
       </c>
       <c r="R103" s="0">
         <v>703.10466000000019</v>
@@ -12510,10 +12525,10 @@
         <v>6.8974567146000023</v>
       </c>
       <c r="T103" s="0">
-        <v>11.653143441490771</v>
+        <v>11.890332571427709</v>
       </c>
       <c r="U103" s="0">
-        <v>1.9391165379620738</v>
+        <v>2.0948170034370537</v>
       </c>
       <c r="V103" s="0">
         <v>0.025032812924899187</v>
@@ -12540,10 +12555,10 @@
         <v>100000</v>
       </c>
       <c r="AD103" s="0">
-        <v>0.59189666283877995</v>
+        <v>0.58008946958931062</v>
       </c>
       <c r="AE103" s="0">
-        <v>3.5570098957790983</v>
+        <v>3.2926297157618345</v>
       </c>
       <c r="AF103" s="0">
         <v>12.871913179423228</v>
@@ -12558,7 +12573,7 @@
         <v>77</v>
       </c>
       <c r="AJ103" s="0">
-        <v>16.428923075202327</v>
+        <v>16.164542895185061</v>
       </c>
       <c r="AK103" s="0">
         <v>20220510</v>
@@ -12615,10 +12630,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="P104" s="0">
-        <v>0.028439999999999997</v>
+        <v>0.019646855424445112</v>
       </c>
       <c r="Q104" s="0">
-        <v>0.82855643549436331</v>
+        <v>0.57238145215018776</v>
       </c>
       <c r="R104" s="0">
         <v>337.44995666666654</v>
@@ -12627,10 +12642,10 @@
         <v>3.3103840748999986</v>
       </c>
       <c r="T104" s="0">
-        <v>6.1100417339319355</v>
+        <v>8.8446513785007905</v>
       </c>
       <c r="U104" s="0">
-        <v>0.17959182008264743</v>
+        <v>1.6173119226060506</v>
       </c>
       <c r="V104" s="0">
         <v>0.019427137103757684</v>
@@ -12657,10 +12672,10 @@
         <v>90000</v>
       </c>
       <c r="AD104" s="0">
-        <v>0.54179402024635592</v>
+        <v>0.37428089963463584</v>
       </c>
       <c r="AE104" s="0">
-        <v>18.432822126177982</v>
+        <v>2.0468433013007297</v>
       </c>
       <c r="AF104" s="0">
         <v>6.1025668425632711</v>
@@ -12675,7 +12690,7 @@
         <v>77</v>
       </c>
       <c r="AJ104" s="0">
-        <v>24.535388968741252</v>
+        <v>8.1494101438640012</v>
       </c>
       <c r="AK104" s="0">
         <v>20220510</v>
@@ -12734,10 +12749,10 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="P105" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.017909015091020705</v>
       </c>
       <c r="Q105" s="0">
-        <v>0.40903909320870369</v>
+        <v>0.38636536355970985</v>
       </c>
       <c r="R105" s="0">
         <v>437.50507333333326</v>
@@ -12746,10 +12761,10 @@
         <v>4.2919247693999996</v>
       </c>
       <c r="T105" s="0">
-        <v>5.1826235164414252</v>
+        <v>5.4867641448912909</v>
       </c>
       <c r="U105" s="0">
-        <v>1.8099524528042485</v>
+        <v>2.0660271410003563</v>
       </c>
       <c r="V105" s="0">
         <v>0.031297235763209683</v>
@@ -12776,10 +12791,10 @@
         <v>90000</v>
       </c>
       <c r="AD105" s="0">
-        <v>0.82813747820659533</v>
+        <v>0.78223241532920595</v>
       </c>
       <c r="AE105" s="0">
-        <v>2.3712914462202082</v>
+        <v>2.0773806327258018</v>
       </c>
       <c r="AF105" s="0">
         <v>6.3431669059628852</v>
@@ -12794,7 +12809,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" s="0">
-        <v>8.7144583521830938</v>
+        <v>8.4205475386886874</v>
       </c>
       <c r="AK105" s="0">
         <v>20220510</v>
@@ -12851,10 +12866,10 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="P106" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.014811748200785457</v>
       </c>
       <c r="Q106" s="0">
-        <v>0.49107249751807552</v>
+        <v>0.38363091674939742</v>
       </c>
       <c r="R106" s="0">
         <v>283.97206999999997</v>
@@ -12863,10 +12878,10 @@
         <v>2.7857660066999999</v>
       </c>
       <c r="T106" s="0">
-        <v>4.0500003459723493</v>
+        <v>5.1842635669139803</v>
       </c>
       <c r="U106" s="0">
-        <v>1.0489792608784116</v>
+        <v>1.9695579616742591</v>
       </c>
       <c r="V106" s="0">
         <v>0.026044408361122217</v>
@@ -12893,10 +12908,10 @@
         <v>90000</v>
       </c>
       <c r="AD106" s="0">
-        <v>0.68784339968523533</v>
+        <v>0.53735038173575611</v>
       </c>
       <c r="AE106" s="0">
-        <v>2.6556921672285583</v>
+        <v>1.4144117923454804</v>
       </c>
       <c r="AF106" s="0">
         <v>4.2404108529683642</v>
@@ -12911,7 +12926,7 @@
         <v>77</v>
       </c>
       <c r="AJ106" s="0">
-        <v>6.8961030201969225</v>
+        <v>5.6548226453138444</v>
       </c>
       <c r="AK106" s="0">
         <v>20220510</v>
@@ -12968,10 +12983,10 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="P107" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.016773661753535535</v>
       </c>
       <c r="Q107" s="0">
-        <v>0.43572029075306462</v>
+        <v>0.38547599030823115</v>
       </c>
       <c r="R107" s="0">
         <v>181.93077000000002</v>
@@ -12980,10 +12995,10 @@
         <v>1.7847408537000002</v>
       </c>
       <c r="T107" s="0">
-        <v>3.2958030062295567</v>
+        <v>3.7253895968744661</v>
       </c>
       <c r="U107" s="0">
-        <v>1.0494218764229686</v>
+        <v>1.406855227636074</v>
       </c>
       <c r="V107" s="0">
         <v>0.02604440836112222</v>
@@ -13010,10 +13025,10 @@
         <v>80000</v>
       </c>
       <c r="AD107" s="0">
-        <v>0.54151927476447326</v>
+        <v>0.47907495505902664</v>
       </c>
       <c r="AE107" s="0">
-        <v>1.7006895832812445</v>
+        <v>1.268603064935746</v>
       </c>
       <c r="AF107" s="0">
         <v>1.0302915402293669</v>
@@ -13028,7 +13043,7 @@
         <v>77</v>
       </c>
       <c r="AJ107" s="0">
-        <v>2.7309811235106114</v>
+        <v>2.2988946051651129</v>
       </c>
       <c r="AK107" s="0">
         <v>20220510</v>
@@ -13085,10 +13100,10 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="P108" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.013271569706825866</v>
       </c>
       <c r="Q108" s="0">
-        <v>0.54547142639754487</v>
+        <v>0.38181761912008183</v>
       </c>
       <c r="R108" s="0">
         <v>220.56758666666664</v>
@@ -13097,10 +13112,10 @@
         <v>2.1637680252</v>
       </c>
       <c r="T108" s="0">
-        <v>3.4044738061901616</v>
+        <v>4.8636916952006484</v>
       </c>
       <c r="U108" s="0">
-        <v>0.70335143381846477</v>
+        <v>1.8586571356203279</v>
       </c>
       <c r="V108" s="0">
         <v>0.023651241518095195</v>
@@ -13127,10 +13142,10 @@
         <v>80000</v>
       </c>
       <c r="AD108" s="0">
-        <v>0.63556606641112734</v>
+        <v>0.44488182245086461</v>
       </c>
       <c r="AE108" s="0">
-        <v>3.076368257974532</v>
+        <v>1.1641566288544341</v>
       </c>
       <c r="AF108" s="0">
         <v>3.3785913892753849</v>
@@ -13145,7 +13160,7 @@
         <v>77</v>
       </c>
       <c r="AJ108" s="0">
-        <v>6.4549596472499164</v>
+        <v>4.542748018129819</v>
       </c>
       <c r="AK108" s="0">
         <v>20220510</v>
@@ -13202,10 +13217,10 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="P109" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.013616791320565315</v>
       </c>
       <c r="Q109" s="0">
-        <v>0.5322556720340198</v>
+        <v>0.38225814426553267</v>
       </c>
       <c r="R109" s="0">
         <v>183.16765333333339</v>
@@ -13214,10 +13229,10 @@
         <v>1.7968746792000005</v>
       </c>
       <c r="T109" s="0">
-        <v>2.9693439207149765</v>
+        <v>4.1345100627141482</v>
       </c>
       <c r="U109" s="0">
-        <v>0.64964718619619255</v>
+        <v>1.577749713830972</v>
       </c>
       <c r="V109" s="0">
         <v>0.023651241518095195</v>
@@ -13244,10 +13259,10 @@
         <v>80000</v>
       </c>
       <c r="AD109" s="0">
-        <v>0.60514198664038144</v>
+        <v>0.43460401642375518</v>
       </c>
       <c r="AE109" s="0">
-        <v>2.7659239005113565</v>
+        <v>1.1388844906439348</v>
       </c>
       <c r="AF109" s="0">
         <v>1.9516736034097171</v>
@@ -13262,7 +13277,7 @@
         <v>77</v>
       </c>
       <c r="AJ109" s="0">
-        <v>4.7175975039210734</v>
+        <v>3.0905580940536517</v>
       </c>
       <c r="AK109" s="0">
         <v>20220510</v>
@@ -13272,6 +13287,1077 @@
       </c>
       <c r="AM109" s="0">
         <v>0.44269902520110732</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C110" s="0">
+        <v>90</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0.10468609850183905</v>
+      </c>
+      <c r="F110" s="0">
+        <v>0.10719565737051796</v>
+      </c>
+      <c r="G110" s="0">
+        <v>0.039118525896414354</v>
+      </c>
+      <c r="H110" s="0">
+        <v>0.073246532699381153</v>
+      </c>
+      <c r="I110" s="0">
+        <v>0.024948486055776889</v>
+      </c>
+      <c r="J110" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K110" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L110" s="0">
+        <v>0.48366413608885789</v>
+      </c>
+      <c r="M110" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N110" s="0">
+        <v>1.7447683083639842</v>
+      </c>
+      <c r="O110" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P110" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q110" s="0">
+        <v>0.22925680050611863</v>
+      </c>
+      <c r="R110" s="0">
+        <v>927.65143000000069</v>
+      </c>
+      <c r="S110" s="0">
+        <v>9.1002605283000069</v>
+      </c>
+      <c r="T110" s="0">
+        <v>4.1035309895078953</v>
+      </c>
+      <c r="U110" s="0">
+        <v>2.4376823931640312</v>
+      </c>
+      <c r="V110" s="0">
+        <v>0.063934057048509796</v>
+      </c>
+      <c r="W110" s="0">
+        <v>0.050507905068322742</v>
+      </c>
+      <c r="X110" s="0">
+        <v>0.47727081093364804</v>
+      </c>
+      <c r="Y110" s="0">
+        <v>2.5602730461376333</v>
+      </c>
+      <c r="Z110" s="0">
+        <v>0.33101588402963533</v>
+      </c>
+      <c r="AA110" s="0">
+        <v>160100.51158088315</v>
+      </c>
+      <c r="AB110" s="0">
+        <v>152837.8670040791</v>
+      </c>
+      <c r="AC110" s="0">
+        <v>150000</v>
+      </c>
+      <c r="AD110" s="0">
+        <v>2.2176658471857502</v>
+      </c>
+      <c r="AE110" s="0">
+        <v>3.7331608719084066</v>
+      </c>
+      <c r="AF110" s="0">
+        <v>5.8476837842992424</v>
+      </c>
+      <c r="AG110" s="0">
+        <v>6.7710575007128107</v>
+      </c>
+      <c r="AH110" s="0">
+        <v>32</v>
+      </c>
+      <c r="AI110" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ110" s="0">
+        <v>9.580844656207649</v>
+      </c>
+      <c r="AK110" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL110" s="0">
+        <v>0.84469193533189357</v>
+      </c>
+      <c r="AM110" s="0">
+        <v>0.59101214342326647</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C111" s="0">
+        <v>90</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.035000000000000003</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0.098726613363617044</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0.10164329365079362</v>
+      </c>
+      <c r="G111" s="0">
+        <v>0.034323134920634928</v>
+      </c>
+      <c r="H111" s="0">
+        <v>0.067127597372702172</v>
+      </c>
+      <c r="I111" s="0">
+        <v>0.02508147410358566</v>
+      </c>
+      <c r="J111" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K111" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L111" s="0">
+        <v>0.44875232684403382</v>
+      </c>
+      <c r="M111" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N111" s="0">
+        <v>1.645443556060284</v>
+      </c>
+      <c r="O111" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P111" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q111" s="0">
+        <v>0.24309554619893944</v>
+      </c>
+      <c r="R111" s="0">
+        <v>910.32197333333329</v>
+      </c>
+      <c r="S111" s="0">
+        <v>8.9302585584000003</v>
+      </c>
+      <c r="T111" s="0">
+        <v>4.6778066716070557</v>
+      </c>
+      <c r="U111" s="0">
+        <v>2.6799358008384808</v>
+      </c>
+      <c r="V111" s="0">
+        <v>0.058488565005636581</v>
+      </c>
+      <c r="W111" s="0">
+        <v>0.046205966354452899</v>
+      </c>
+      <c r="X111" s="0">
+        <v>0.4559897600088661</v>
+      </c>
+      <c r="Y111" s="0">
+        <v>2.2224451207486329</v>
+      </c>
+      <c r="Z111" s="0">
+        <v>0.31594012737497246</v>
+      </c>
+      <c r="AA111" s="0">
+        <v>141778.86730291933</v>
+      </c>
+      <c r="AB111" s="0">
+        <v>141805.73528271471</v>
+      </c>
+      <c r="AC111" s="0">
+        <v>140000</v>
+      </c>
+      <c r="AD111" s="0">
+        <v>1.9090696100384197</v>
+      </c>
+      <c r="AE111" s="0">
+        <v>3.3322658533857266</v>
+      </c>
+      <c r="AF111" s="0">
+        <v>5.877341136671788</v>
+      </c>
+      <c r="AG111" s="0">
+        <v>6.5389885625344348</v>
+      </c>
+      <c r="AH111" s="0">
+        <v>32</v>
+      </c>
+      <c r="AI111" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ111" s="0">
+        <v>9.2096069900575142</v>
+      </c>
+      <c r="AK111" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL111" s="0">
+        <v>0.83321638133536813</v>
+      </c>
+      <c r="AM111" s="0">
+        <v>0.56653228410276446</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C112" s="0">
+        <v>90</v>
+      </c>
+      <c r="D112" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0.092194075297225134</v>
+      </c>
+      <c r="F112" s="0">
+        <v>0.095619484126984164</v>
+      </c>
+      <c r="G112" s="0">
+        <v>0.029327301587301589</v>
+      </c>
+      <c r="H112" s="0">
+        <v>0.060882693904510246</v>
+      </c>
+      <c r="I112" s="0">
+        <v>0.029370555555555553</v>
+      </c>
+      <c r="J112" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K112" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L112" s="0">
+        <v>0.41189939181966895</v>
+      </c>
+      <c r="M112" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N112" s="0">
+        <v>1.5365679216204189</v>
+      </c>
+      <c r="O112" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P112" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q112" s="0">
+        <v>0.26032041563003078</v>
+      </c>
+      <c r="R112" s="0">
+        <v>870.00251333333335</v>
+      </c>
+      <c r="S112" s="0">
+        <v>8.5347246557999998</v>
+      </c>
+      <c r="T112" s="0">
+        <v>5.3063864568278643</v>
+      </c>
+      <c r="U112" s="0">
+        <v>2.9032613997889127</v>
+      </c>
+      <c r="V112" s="0">
+        <v>0.052776401275214518</v>
+      </c>
+      <c r="W112" s="0">
+        <v>0.041693357007419468</v>
+      </c>
+      <c r="X112" s="0">
+        <v>0.43311691062185709</v>
+      </c>
+      <c r="Y112" s="0">
+        <v>1.503299801595299</v>
+      </c>
+      <c r="Z112" s="0">
+        <v>0.29899099015263697</v>
+      </c>
+      <c r="AA112" s="0">
+        <v>123154.2070034318</v>
+      </c>
+      <c r="AB112" s="0">
+        <v>130160.2078150154</v>
+      </c>
+      <c r="AC112" s="0">
+        <v>130000</v>
+      </c>
+      <c r="AD112" s="0">
+        <v>1.6083873131437967</v>
+      </c>
+      <c r="AE112" s="0">
+        <v>2.9397024520150108</v>
+      </c>
+      <c r="AF112" s="0">
+        <v>5.8219068386850052</v>
+      </c>
+      <c r="AG112" s="0">
+        <v>6.1861943110314046</v>
+      </c>
+      <c r="AH112" s="0">
+        <v>22</v>
+      </c>
+      <c r="AI112" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ112" s="0">
+        <v>8.7616092907000152</v>
+      </c>
+      <c r="AK112" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL112" s="0">
+        <v>0.81749438938239227</v>
+      </c>
+      <c r="AM112" s="0">
+        <v>0.53985313608238683</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C113" s="0">
+        <v>90</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0.085127932489450886</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0.088861354581673338</v>
+      </c>
+      <c r="G113" s="0">
+        <v>0.023593306772908391</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0.053932106481481473</v>
+      </c>
+      <c r="I113" s="0">
+        <v>0.027442390438247016</v>
+      </c>
+      <c r="J113" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K113" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L113" s="0">
+        <v>0.37174131562721441</v>
+      </c>
+      <c r="M113" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N113" s="0">
+        <v>1.4187988748241815</v>
+      </c>
+      <c r="O113" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P113" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q113" s="0">
+        <v>0.28192861377167944</v>
+      </c>
+      <c r="R113" s="0">
+        <v>804.21374333333381</v>
+      </c>
+      <c r="S113" s="0">
+        <v>7.8893368221000051</v>
+      </c>
+      <c r="T113" s="0">
+        <v>6.0221351438532587</v>
+      </c>
+      <c r="U113" s="0">
+        <v>3.1051725614191854</v>
+      </c>
+      <c r="V113" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W113" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X113" s="0">
+        <v>0.4067900157299234</v>
+      </c>
+      <c r="Y113" s="0">
+        <v>1.3870741807923601</v>
+      </c>
+      <c r="Z113" s="0">
+        <v>0.28013811368137309</v>
+      </c>
+      <c r="AA113" s="0">
+        <v>104138.91093723979</v>
+      </c>
+      <c r="AB113" s="0">
+        <v>117470.25573819976</v>
+      </c>
+      <c r="AC113" s="0">
+        <v>120000</v>
+      </c>
+      <c r="AD113" s="0">
+        <v>1.3100564224555113</v>
+      </c>
+      <c r="AE113" s="0">
+        <v>2.5407080173651511</v>
+      </c>
+      <c r="AF113" s="0">
+        <v>5.7014591652874707</v>
+      </c>
+      <c r="AG113" s="0">
+        <v>5.7894964413564676</v>
+      </c>
+      <c r="AH113" s="0">
+        <v>22</v>
+      </c>
+      <c r="AI113" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ113" s="0">
+        <v>8.2421671826526222</v>
+      </c>
+      <c r="AK113" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL113" s="0">
+        <v>0.79755536375700131</v>
+      </c>
+      <c r="AM113" s="0">
+        <v>0.50528468794128878</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B114" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C114" s="0">
+        <v>90</v>
+      </c>
+      <c r="D114" s="0">
+        <v>0.025000000000000001</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0.093865250069766842</v>
+      </c>
+      <c r="F114" s="0">
+        <v>0.095648725099601623</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0.029781349206349277</v>
+      </c>
+      <c r="H114" s="0">
+        <v>0.089937487829834448</v>
+      </c>
+      <c r="I114" s="0">
+        <v>0.07104223107569721</v>
+      </c>
+      <c r="J114" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K114" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L114" s="0">
+        <v>0.33713828703095222</v>
+      </c>
+      <c r="M114" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N114" s="0">
+        <v>1.5644208344961141</v>
+      </c>
+      <c r="O114" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P114" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q114" s="0">
+        <v>0.25568567688427418</v>
+      </c>
+      <c r="R114" s="0">
+        <v>326.29416999999984</v>
+      </c>
+      <c r="S114" s="0">
+        <v>3.2009458076999984</v>
+      </c>
+      <c r="T114" s="0">
+        <v>2.9706660467187613</v>
+      </c>
+      <c r="U114" s="0">
+        <v>1.6457603128587013</v>
+      </c>
+      <c r="V114" s="0">
+        <v>0.046736079221438992</v>
+      </c>
+      <c r="W114" s="0">
+        <v>0.036921502584936802</v>
+      </c>
+      <c r="X114" s="0">
+        <v>0.35133478566655546</v>
+      </c>
+      <c r="Y114" s="0">
+        <v>0.33301033211907416</v>
+      </c>
+      <c r="Z114" s="0">
+        <v>0.30337009040643909</v>
+      </c>
+      <c r="AA114" s="0">
+        <v>102277.67261605199</v>
+      </c>
+      <c r="AB114" s="0">
+        <v>106535.69870178092</v>
+      </c>
+      <c r="AC114" s="0">
+        <v>110000</v>
+      </c>
+      <c r="AD114" s="0">
+        <v>1.0775178890389217</v>
+      </c>
+      <c r="AE114" s="0">
+        <v>1.9449647574378102</v>
+      </c>
+      <c r="AF114" s="0">
+        <v>0.73055434999804958</v>
+      </c>
+      <c r="AG114" s="0">
+        <v>1.2300593943888498</v>
+      </c>
+      <c r="AH114" s="0">
+        <v>31</v>
+      </c>
+      <c r="AI114" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ114" s="0">
+        <v>2.6755191074358597</v>
+      </c>
+      <c r="AK114" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL114" s="0">
+        <v>0.87941444687161685</v>
+      </c>
+      <c r="AM114" s="0">
+        <v>0.8426156224386554</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B115" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C115" s="0">
+        <v>90</v>
+      </c>
+      <c r="D115" s="0">
+        <v>0.022499999999999999</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.090344405362775909</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0.092280517928286815</v>
+      </c>
+      <c r="G115" s="0">
+        <v>0.026447023809523872</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0.08660586246056752</v>
+      </c>
+      <c r="I115" s="0">
+        <v>0.069022828685258955</v>
+      </c>
+      <c r="J115" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K115" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L115" s="0">
+        <v>0.31524932334064282</v>
+      </c>
+      <c r="M115" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N115" s="0">
+        <v>1.5057400893795985</v>
+      </c>
+      <c r="O115" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P115" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q115" s="0">
+        <v>0.26565009646838167</v>
+      </c>
+      <c r="R115" s="0">
+        <v>311.7836733333333</v>
+      </c>
+      <c r="S115" s="0">
+        <v>3.0585978354000001</v>
+      </c>
+      <c r="T115" s="0">
+        <v>3.2464275360412413</v>
+      </c>
+      <c r="U115" s="0">
+        <v>1.7507002657988995</v>
+      </c>
+      <c r="V115" s="0">
+        <v>0.043565959367306985</v>
+      </c>
+      <c r="W115" s="0">
+        <v>0.034417107900172522</v>
+      </c>
+      <c r="X115" s="0">
+        <v>0.3348644370748094</v>
+      </c>
+      <c r="Y115" s="0">
+        <v>0.31295794071228528</v>
+      </c>
+      <c r="Z115" s="0">
+        <v>0.29410900567915332</v>
+      </c>
+      <c r="AA115" s="0">
+        <v>92717.665028742369</v>
+      </c>
+      <c r="AB115" s="0">
+        <v>99618.786175643138</v>
+      </c>
+      <c r="AC115" s="0">
+        <v>100000</v>
+      </c>
+      <c r="AD115" s="0">
+        <v>0.9421426480166305</v>
+      </c>
+      <c r="AE115" s="0">
+        <v>1.7470710978639543</v>
+      </c>
+      <c r="AF115" s="0">
+        <v>0.69536000730779501</v>
+      </c>
+      <c r="AG115" s="0">
+        <v>1.1429007798886639</v>
+      </c>
+      <c r="AH115" s="0">
+        <v>31</v>
+      </c>
+      <c r="AI115" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ115" s="0">
+        <v>2.4424311051717496</v>
+      </c>
+      <c r="AK115" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL115" s="0">
+        <v>0.87233687511511859</v>
+      </c>
+      <c r="AM115" s="0">
+        <v>0.83623869261338291</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B116" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C116" s="0">
+        <v>90</v>
+      </c>
+      <c r="D116" s="0">
+        <v>0.0275</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.097476089198010984</v>
+      </c>
+      <c r="F116" s="0">
+        <v>0.099159604743082969</v>
+      </c>
+      <c r="G116" s="0">
+        <v>0.03230466135458171</v>
+      </c>
+      <c r="H116" s="0">
+        <v>0.093257372258320398</v>
+      </c>
+      <c r="I116" s="0">
+        <v>0.072014563492063491</v>
+      </c>
+      <c r="J116" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K116" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L116" s="0">
+        <v>0.35711451771075758</v>
+      </c>
+      <c r="M116" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N116" s="0">
+        <v>1.6246014866335166</v>
+      </c>
+      <c r="O116" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P116" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q116" s="0">
+        <v>0.24621422748348962</v>
+      </c>
+      <c r="R116" s="0">
+        <v>344.95184333333316</v>
+      </c>
+      <c r="S116" s="0">
+        <v>3.3839775830999983</v>
+      </c>
+      <c r="T116" s="0">
+        <v>2.7990079268387036</v>
+      </c>
+      <c r="U116" s="0">
+        <v>1.5903766853586172</v>
+      </c>
+      <c r="V116" s="0">
+        <v>0.049802070556066905</v>
+      </c>
+      <c r="W116" s="0">
+        <v>0.039343635739292858</v>
+      </c>
+      <c r="X116" s="0">
+        <v>0.36519426923810838</v>
+      </c>
+      <c r="Y116" s="0">
+        <v>0.35891762269349192</v>
+      </c>
+      <c r="Z116" s="0">
+        <v>0.31273035241906599</v>
+      </c>
+      <c r="AA116" s="0">
+        <v>111680.54897765002</v>
+      </c>
+      <c r="AB116" s="0">
+        <v>112848.1875965994</v>
+      </c>
+      <c r="AC116" s="0">
+        <v>110000</v>
+      </c>
+      <c r="AD116" s="0">
+        <v>1.2089917826427807</v>
+      </c>
+      <c r="AE116" s="0">
+        <v>2.1277836969402872</v>
+      </c>
+      <c r="AF116" s="0">
+        <v>0.78467122586179383</v>
+      </c>
+      <c r="AG116" s="0">
+        <v>1.3537823753713893</v>
+      </c>
+      <c r="AH116" s="0">
+        <v>31</v>
+      </c>
+      <c r="AI116" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ116" s="0">
+        <v>2.9124549228020813</v>
+      </c>
+      <c r="AK116" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL116" s="0">
+        <v>0.88774363456322936</v>
+      </c>
+      <c r="AM116" s="0">
+        <v>0.84932252903829819</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B117" s="0">
+        <v>0.316</v>
+      </c>
+      <c r="C117" s="0">
+        <v>90</v>
+      </c>
+      <c r="D117" s="0">
+        <v>0.0275</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.088667830369185033</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0.092188412698412672</v>
+      </c>
+      <c r="G117" s="0">
+        <v>0.02632567460317459</v>
+      </c>
+      <c r="H117" s="0">
+        <v>0.057423417395941215</v>
+      </c>
+      <c r="I117" s="0">
+        <v>0.02950734126984127</v>
+      </c>
+      <c r="J117" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K117" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L117" s="0">
+        <v>0.3925902600451599</v>
+      </c>
+      <c r="M117" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N117" s="0">
+        <v>1.4777971728197505</v>
+      </c>
+      <c r="O117" s="0">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="P117" s="0">
+        <v>0.018960000000000001</v>
+      </c>
+      <c r="Q117" s="0">
+        <v>0.27067313928931752</v>
+      </c>
+      <c r="R117" s="0">
+        <v>840.81314666666651</v>
+      </c>
+      <c r="S117" s="0">
+        <v>8.2483769687999988</v>
+      </c>
+      <c r="T117" s="0">
+        <v>5.6452232566349654</v>
+      </c>
+      <c r="U117" s="0">
+        <v>3.0027939999109177</v>
+      </c>
+      <c r="V117" s="0">
+        <v>0.049802070556066905</v>
+      </c>
+      <c r="W117" s="0">
+        <v>0.039343635739292858</v>
+      </c>
+      <c r="X117" s="0">
+        <v>0.42094172477538244</v>
+      </c>
+      <c r="Y117" s="0">
+        <v>1.3684538698316666</v>
+      </c>
+      <c r="Z117" s="0">
+        <v>0.28965162284284512</v>
+      </c>
+      <c r="AA117" s="0">
+        <v>113714.40593437516</v>
+      </c>
+      <c r="AB117" s="0">
+        <v>124058.52217427053</v>
+      </c>
+      <c r="AC117" s="0">
+        <v>120000</v>
+      </c>
+      <c r="AD117" s="0">
+        <v>1.4611250244364533</v>
+      </c>
+      <c r="AE117" s="0">
+        <v>2.7469007094874636</v>
+      </c>
+      <c r="AF117" s="0">
+        <v>5.7789213274201323</v>
+      </c>
+      <c r="AG117" s="0">
+        <v>5.9812930225246053</v>
+      </c>
+      <c r="AH117" s="0">
+        <v>22</v>
+      </c>
+      <c r="AI117" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ117" s="0">
+        <v>8.525822036907595</v>
+      </c>
+      <c r="AK117" s="0">
+        <v>20220511</v>
+      </c>
+      <c r="AL117" s="0">
+        <v>0.80752421079263392</v>
+      </c>
+      <c r="AM117" s="0">
+        <v>0.52297208153847874</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="B118" s="0">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="C118" s="0">
+        <v>90</v>
+      </c>
+      <c r="D118" s="0">
+        <v>0.0091000000000000004</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0.061358216806668808</v>
+      </c>
+      <c r="F118" s="0">
+        <v>0.06293605577689243</v>
+      </c>
+      <c r="G118" s="0">
+        <v>0.00075059760956175837</v>
+      </c>
+      <c r="H118" s="0">
+        <v>0.028672807499440869</v>
+      </c>
+      <c r="I118" s="0">
+        <v>0.014862936507936507</v>
+      </c>
+      <c r="J118" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="K118" s="0">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="L118" s="0">
+        <v>0.18773341112677502</v>
+      </c>
+      <c r="M118" s="0">
+        <v>0.033333333333333333</v>
+      </c>
+      <c r="N118" s="0">
+        <v>1.0226369467778136</v>
+      </c>
+      <c r="O118" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="P118" s="0">
+        <v>0.028135794766361012</v>
+      </c>
+      <c r="Q118" s="0">
+        <v>0.58044271717052931</v>
+      </c>
+      <c r="R118" s="0">
+        <v>726.9624233333335</v>
+      </c>
+      <c r="S118" s="0">
+        <v>7.1315013729000016</v>
+      </c>
+      <c r="T118" s="0">
+        <v>14.383634397453806</v>
+      </c>
+      <c r="U118" s="0">
+        <v>2.5319269060667282</v>
+      </c>
+      <c r="V118" s="0">
+        <v>0.023826113057506142</v>
+      </c>
+      <c r="W118" s="0">
+        <v>0.018822629315429853</v>
+      </c>
+      <c r="X118" s="0">
+        <v>0.24197511384726789</v>
+      </c>
+      <c r="Y118" s="0">
+        <v>1.2667095537288013</v>
+      </c>
+      <c r="Z118" s="0">
+        <v>0.21243395864088677</v>
+      </c>
+      <c r="AA118" s="0">
+        <v>39880.951694817915</v>
+      </c>
+      <c r="AB118" s="0">
+        <v>88985.63687409136</v>
+      </c>
+      <c r="AC118" s="0">
+        <v>90000</v>
+      </c>
+      <c r="AD118" s="0">
+        <v>0.49580663522443402</v>
+      </c>
+      <c r="AE118" s="0">
+        <v>2.816630036124768</v>
+      </c>
+      <c r="AF118" s="0">
+        <v>13.07544176037395</v>
+      </c>
+      <c r="AG118" s="0">
+        <v>7.1812915260827674</v>
+      </c>
+      <c r="AH118" s="0">
+        <v>11</v>
+      </c>
+      <c r="AI118" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ118" s="0">
+        <v>15.892071796498719</v>
+      </c>
+      <c r="AK118" s="0">
+        <v>20220512</v>
+      </c>
+      <c r="AL118" s="0">
+        <v>0.73197020079621278</v>
+      </c>
+      <c r="AM118" s="0">
+        <v>0.34205102030402906</v>
       </c>
     </row>
   </sheetData>

--- a/iselUssSyncV2/OutputForces/sumDataTable.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
   <si>
     <t>D</t>
   </si>
@@ -301,25 +301,19 @@
     <t>2B</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>2A</t>
   </si>
   <si>
-    <t>2B</t>
+    <t>kA</t>
   </si>
   <si>
     <t>2A</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -532,16 +526,16 @@
         <v>37</v>
       </c>
       <c r="AK1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AN1" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="AM1" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN1" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2">
@@ -19788,14 +19782,16 @@
         <v>0.059120074401234318</v>
       </c>
       <c r="G160" s="0">
-        <v>0.063816507936507949</v>
-      </c>
-      <c r="H160" s="0"/>
+        <v>0.065296334661354594</v>
+      </c>
+      <c r="H160" s="0">
+        <v>0.0032963346613545923</v>
+      </c>
       <c r="I160" s="0">
         <v>0.028298503675599079</v>
       </c>
       <c r="J160" s="0">
-        <v>0.020922063492063488</v>
+        <v>0.01822541010560931</v>
       </c>
       <c r="K160" s="0">
         <v>0.002</v>
@@ -19843,7 +19839,7 @@
         <v>0.24741078045615406</v>
       </c>
       <c r="Z160" s="0">
-        <v>0.73344657720470918</v>
+        <v>0.90210958123211726</v>
       </c>
       <c r="AA160" s="0">
         <v>0.20569387441661249</v>
@@ -19863,21 +19859,17 @@
       <c r="AF160" s="0">
         <v>2.7205978787614713</v>
       </c>
-      <c r="AG160" s="0">
-        <v>11.955421693229521</v>
-      </c>
+      <c r="AG160" s="0"/>
       <c r="AH160" s="0">
         <v>6.5579817271383192</v>
       </c>
       <c r="AI160" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ160" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AK160" s="0">
-        <v>14.676019571990992</v>
-      </c>
+      <c r="AK160" s="0"/>
       <c r="AL160" s="0">
         <v>20220517</v>
       </c>
@@ -19908,14 +19900,16 @@
         <v>0.060523667411786296</v>
       </c>
       <c r="G161" s="0">
-        <v>0.065165595238095217</v>
-      </c>
-      <c r="H161" s="0"/>
+        <v>0.06526286852589637</v>
+      </c>
+      <c r="H161" s="0">
+        <v>0.0032628685258963659</v>
+      </c>
       <c r="I161" s="0">
         <v>0.037644301802439217</v>
       </c>
       <c r="J161" s="0">
-        <v>0.033953864541832669</v>
+        <v>0.031300239043824701</v>
       </c>
       <c r="K161" s="0">
         <v>0.002</v>
@@ -19963,7 +19957,7 @@
         <v>0.24156864180937077</v>
       </c>
       <c r="Z161" s="0">
-        <v>0.35879697814103717</v>
+        <v>0.40537887468371286</v>
       </c>
       <c r="AA161" s="0">
         <v>0.20992848747895393</v>
@@ -19983,21 +19977,17 @@
       <c r="AF161" s="0">
         <v>2.7265571245648066</v>
       </c>
-      <c r="AG161" s="0">
-        <v>10.018311522786544</v>
-      </c>
+      <c r="AG161" s="0"/>
       <c r="AH161" s="0">
         <v>5.8453297266606326</v>
       </c>
       <c r="AI161" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ161" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="AK161" s="0">
-        <v>12.74486864735135</v>
-      </c>
+      <c r="AK161" s="0"/>
       <c r="AL161" s="0">
         <v>20220517</v>
       </c>
@@ -20028,16 +20018,16 @@
         <v>0.064690700433419887</v>
       </c>
       <c r="G162" s="0">
-        <v>0.069318452380952411</v>
+        <v>0.068213705179282894</v>
       </c>
       <c r="H162" s="0">
-        <v>0.0072013095238095135</v>
+        <v>0.0053013095238095076</v>
       </c>
       <c r="I162" s="0">
         <v>0.049677868012275077</v>
       </c>
       <c r="J162" s="0">
-        <v>0.048120634920634918</v>
+        <v>0.04546700942262695</v>
       </c>
       <c r="K162" s="0">
         <v>0.002</v>
@@ -20085,7 +20075,7 @@
         <v>0.2161515215443339</v>
       </c>
       <c r="Z162" s="0">
-        <v>0.21027044622449259</v>
+        <v>0.22894474280607183</v>
       </c>
       <c r="AA162" s="0">
         <v>0.22234799744357103</v>
@@ -20150,14 +20140,16 @@
         <v>0.063925700508892361</v>
       </c>
       <c r="G163" s="0">
-        <v>0.068829043824701189</v>
-      </c>
-      <c r="H163" s="0"/>
+        <v>0.067922654145323405</v>
+      </c>
+      <c r="H163" s="0">
+        <v>0.0058688888888888185</v>
+      </c>
       <c r="I163" s="0">
         <v>0.028031506251178121</v>
       </c>
       <c r="J163" s="0">
-        <v>0.022388127490039843</v>
+        <v>0.019691474103585661</v>
       </c>
       <c r="K163" s="0">
         <v>0.002</v>
@@ -20205,7 +20197,7 @@
         <v>0.25004902261126372</v>
       </c>
       <c r="Z163" s="0">
-        <v>0.75294964103111339</v>
+        <v>0.91279918709950303</v>
       </c>
       <c r="AA163" s="0">
         <v>0.22008487799234258</v>
@@ -20225,21 +20217,17 @@
       <c r="AF163" s="0">
         <v>2.9217110403526121</v>
       </c>
-      <c r="AG163" s="0">
-        <v>7.3316644249742486</v>
-      </c>
+      <c r="AG163" s="0"/>
       <c r="AH163" s="0">
         <v>7.7883004129810889</v>
       </c>
       <c r="AI163" s="0">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="AJ163" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="AK163" s="0">
-        <v>10.253375465326862</v>
-      </c>
+      <c r="AK163" s="0"/>
       <c r="AL163" s="0">
         <v>20220517</v>
       </c>
@@ -20270,14 +20258,16 @@
         <v>0.064868136378153529</v>
       </c>
       <c r="G164" s="0">
-        <v>0.069858804780876485</v>
-      </c>
-      <c r="H164" s="0"/>
+        <v>0.068359466894327384</v>
+      </c>
+      <c r="H164" s="0">
+        <v>0.0062954581673306505</v>
+      </c>
       <c r="I164" s="0">
         <v>0.038091034493772075</v>
       </c>
       <c r="J164" s="0">
-        <v>0.033876414342629481</v>
+        <v>0.031222788844621513</v>
       </c>
       <c r="K164" s="0">
         <v>0.002</v>
@@ -20325,7 +20315,7 @@
         <v>0.24706580834249944</v>
       </c>
       <c r="Z164" s="0">
-        <v>0.40857125371997066</v>
+        <v>0.46174948889360451</v>
       </c>
       <c r="AA164" s="0">
         <v>0.22287183514102574</v>
@@ -20390,14 +20380,16 @@
         <v>0.054115128674758713</v>
       </c>
       <c r="G165" s="0">
-        <v>0.058828809523809519</v>
-      </c>
-      <c r="H165" s="0"/>
+        <v>0.06512817460317466</v>
+      </c>
+      <c r="H165" s="0">
+        <v>0.0031281746031746565</v>
+      </c>
       <c r="I165" s="0">
         <v>0.024604505944805136</v>
       </c>
       <c r="J165" s="0">
-        <v>0.020006254980079682</v>
+        <v>0.0173096015936255</v>
       </c>
       <c r="K165" s="0">
         <v>0.002</v>
@@ -20445,7 +20437,7 @@
         <v>0.25683271859678081</v>
       </c>
       <c r="Z165" s="0">
-        <v>0.71307280738826184</v>
+        <v>0.8860372214669745</v>
       </c>
       <c r="AA165" s="0">
         <v>0.19037858635138019</v>
@@ -20465,21 +20457,17 @@
       <c r="AF165" s="0">
         <v>2.4266975409188056</v>
       </c>
-      <c r="AG165" s="0">
-        <v>10.253224405790494</v>
-      </c>
+      <c r="AG165" s="0"/>
       <c r="AH165" s="0">
         <v>5.4730714406350023</v>
       </c>
       <c r="AI165" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ165" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="AK165" s="0">
-        <v>12.6799219467093</v>
-      </c>
+      <c r="AK165" s="0"/>
       <c r="AL165" s="0">
         <v>20220517</v>
       </c>
@@ -20510,14 +20498,16 @@
         <v>0.056415299050437281</v>
       </c>
       <c r="G166" s="0">
-        <v>0.06125476190476193</v>
-      </c>
-      <c r="H166" s="0"/>
+        <v>0.065250318725099635</v>
+      </c>
+      <c r="H166" s="0">
+        <v>0.0032503187250996321</v>
+      </c>
       <c r="I166" s="0">
         <v>0.038336293007769168</v>
       </c>
       <c r="J166" s="0">
-        <v>0.035252350597609561</v>
+        <v>0.032555697211155386</v>
       </c>
       <c r="K166" s="0">
         <v>0.002</v>
@@ -20565,7 +20555,7 @@
         <v>0.24430259604366594</v>
       </c>
       <c r="Z166" s="0">
-        <v>0.30867075587305071</v>
+        <v>0.34780602868555976</v>
       </c>
       <c r="AA166" s="0">
         <v>0.19745935214688326</v>
@@ -20585,21 +20575,17 @@
       <c r="AF166" s="0">
         <v>2.4003173486426586</v>
       </c>
-      <c r="AG166" s="0">
-        <v>7.6291499606747326</v>
-      </c>
+      <c r="AG166" s="0"/>
       <c r="AH166" s="0">
         <v>4.5141300616299596</v>
       </c>
       <c r="AI166" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ166" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="AK166" s="0">
-        <v>10.029467309317392</v>
-      </c>
+      <c r="AK166" s="0"/>
       <c r="AL166" s="0">
         <v>20220517</v>
       </c>
@@ -20630,16 +20616,16 @@
         <v>0.06262265649834943</v>
       </c>
       <c r="G167" s="0">
-        <v>0.067575219123505934</v>
+        <v>0.066642562132422672</v>
       </c>
       <c r="H167" s="0">
-        <v>0.0050774206349206421</v>
+        <v>0.0031774206349206367</v>
       </c>
       <c r="I167" s="0">
         <v>0.051448622386599627</v>
       </c>
       <c r="J167" s="0">
-        <v>0.050133928571428586</v>
+        <v>0.047480303073420611</v>
       </c>
       <c r="K167" s="0">
         <v>0.002</v>
@@ -20687,7 +20673,7 @@
         <v>0.20889410952927193</v>
       </c>
       <c r="Z167" s="0">
-        <v>0.18200360890448439</v>
+        <v>0.19747284485623989</v>
       </c>
       <c r="AA167" s="0">
         <v>0.21621262816070599</v>
@@ -20707,21 +20693,17 @@
       <c r="AF167" s="0">
         <v>2.1091752876420298</v>
       </c>
-      <c r="AG167" s="0">
-        <v>2.8586727314206613</v>
-      </c>
+      <c r="AG167" s="0"/>
       <c r="AH167" s="0">
         <v>3.5324928237509567</v>
       </c>
       <c r="AI167" s="0">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="AJ167" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK167" s="0">
-        <v>4.967848019062691</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AK167" s="0"/>
       <c r="AL167" s="0">
         <v>20220517</v>
       </c>
@@ -20752,14 +20734,16 @@
         <v>0.051446305083773639</v>
       </c>
       <c r="G168" s="0">
-        <v>0.056239999999999943</v>
-      </c>
-      <c r="H168" s="0"/>
+        <v>0.06522353174603171</v>
+      </c>
+      <c r="H168" s="0">
+        <v>0.0032235317460317108</v>
+      </c>
       <c r="I168" s="0">
         <v>0.022891566731695991</v>
       </c>
       <c r="J168" s="0">
-        <v>0.019628611111111111</v>
+        <v>0.016931957724656929</v>
       </c>
       <c r="K168" s="0">
         <v>0.002</v>
@@ -20807,7 +20791,7 @@
         <v>0.25629423741535123</v>
       </c>
       <c r="Z168" s="0">
-        <v>0.67871891295781261</v>
+        <v>0.84715629853633423</v>
       </c>
       <c r="AA168" s="0">
         <v>0.18207153045450686</v>
@@ -20827,21 +20811,17 @@
       <c r="AF168" s="0">
         <v>2.1678770094469324</v>
       </c>
-      <c r="AG168" s="0">
-        <v>9.3393092868155545</v>
-      </c>
+      <c r="AG168" s="0"/>
       <c r="AH168" s="0">
         <v>4.9706364045726978</v>
       </c>
       <c r="AI168" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ168" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK168" s="0">
-        <v>11.507186296262487</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AK168" s="0"/>
       <c r="AL168" s="0">
         <v>20220517</v>
       </c>
@@ -20872,14 +20852,16 @@
         <v>0.056522850950316464</v>
       </c>
       <c r="G169" s="0">
-        <v>0.061451952191235011</v>
-      </c>
-      <c r="H169" s="0"/>
+        <v>0.064921354581673266</v>
+      </c>
+      <c r="H169" s="0">
+        <v>0.0029213545816732705</v>
+      </c>
       <c r="I169" s="0">
         <v>0.044676554609112192</v>
       </c>
       <c r="J169" s="0">
-        <v>0.042794661354581674</v>
+        <v>0.040141035856573706</v>
       </c>
       <c r="K169" s="0">
         <v>0.002</v>
@@ -20927,7 +20909,7 @@
         <v>0.22255329887736047</v>
       </c>
       <c r="Z169" s="0">
-        <v>0.210833644584181</v>
+        <v>0.23208199238474519</v>
       </c>
       <c r="AA169" s="0">
         <v>0.19778867074731254</v>
@@ -20947,21 +20929,17 @@
       <c r="AF169" s="0">
         <v>2.000086268406688</v>
       </c>
-      <c r="AG169" s="0">
-        <v>5.35418718819564</v>
-      </c>
+      <c r="AG169" s="0"/>
       <c r="AH169" s="0">
         <v>3.281213418265656</v>
       </c>
       <c r="AI169" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ169" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK169" s="0">
-        <v>7.3542734566023285</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AK169" s="0"/>
       <c r="AL169" s="0">
         <v>20220517</v>
       </c>

--- a/iselUssSyncV2/OutputForces/sumDataTable.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="100">
   <si>
     <t>D</t>
   </si>
@@ -301,21 +301,6 @@
     <t>2B</t>
   </si>
   <si>
-    <t>kA</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>kA</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>kA</t>
-  </si>
-  <si>
     <t>Ftotal</t>
   </si>
   <si>
@@ -326,6 +311,9 @@
   </si>
   <si>
     <t>hDownAsterix</t>
+  </si>
+  <si>
+    <t>deltaH</t>
   </si>
 </sst>
 </file>
@@ -371,7 +359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN169"/>
+  <dimension ref="A1:AO159"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
@@ -414,6 +402,7 @@
     <col min="38" max="38" width="16.85546875" customWidth="true"/>
     <col min="39" max="39" width="12.7109375" customWidth="true"/>
     <col min="40" max="40" width="13.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,16 +515,19 @@
         <v>37</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -659,6 +651,9 @@
       <c r="AN2" s="0">
         <v>0.593516706452069</v>
       </c>
+      <c r="AO2" s="0">
+        <v>33.171541459768129</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -781,6 +776,9 @@
       <c r="AN3" s="0">
         <v>0.90188566307523477</v>
       </c>
+      <c r="AO3" s="0">
+        <v>7.611922109437522</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -903,6 +901,9 @@
       <c r="AN4" s="0">
         <v>0.6374616681449724</v>
       </c>
+      <c r="AO4" s="0">
+        <v>31.309692025405983</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -1025,6 +1026,9 @@
       <c r="AN5" s="0">
         <v>0.56527901481447862</v>
       </c>
+      <c r="AO5" s="0">
+        <v>32.676335930411874</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -1147,6 +1151,9 @@
       <c r="AN6" s="0">
         <v>0.60209340053503568</v>
       </c>
+      <c r="AO6" s="0">
+        <v>38.024748271091774</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -1269,6 +1276,9 @@
       <c r="AN7" s="0">
         <v>0.88476205527407381</v>
       </c>
+      <c r="AO7" s="0">
+        <v>7.2787233135214731</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -1391,6 +1401,9 @@
       <c r="AN8" s="0">
         <v>0.56266121923488155</v>
       </c>
+      <c r="AO8" s="0">
+        <v>33.040382635444757</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -1513,6 +1526,9 @@
       <c r="AN9" s="0">
         <v>0.73484035592458019</v>
       </c>
+      <c r="AO9" s="0">
+        <v>17.432131784149625</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -1635,6 +1651,9 @@
       <c r="AN10" s="0">
         <v>0.5162927680515792</v>
       </c>
+      <c r="AO10" s="0">
+        <v>33.167688624988315</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
@@ -1757,6 +1776,9 @@
       <c r="AN11" s="0">
         <v>0.65061916390089536</v>
       </c>
+      <c r="AO11" s="0">
+        <v>22.07272781436307</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -1879,6 +1901,9 @@
       <c r="AN12" s="0">
         <v>0.74113540285180668</v>
       </c>
+      <c r="AO12" s="0">
+        <v>14.952620332533042</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -2001,6 +2026,9 @@
       <c r="AN13" s="0">
         <v>0.47220430456470402</v>
       </c>
+      <c r="AO13" s="0">
+        <v>32.550738288884922</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -2123,6 +2151,9 @@
       <c r="AN14" s="0">
         <v>0.57387748723792154</v>
       </c>
+      <c r="AO14" s="0">
+        <v>24.350256641013694</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -2245,6 +2276,9 @@
       <c r="AN15" s="0">
         <v>0.51139188459719154</v>
       </c>
+      <c r="AO15" s="0">
+        <v>49.234428750496917</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -2367,6 +2401,9 @@
       <c r="AN16" s="0">
         <v>0.72070351541970934</v>
       </c>
+      <c r="AO16" s="0">
+        <v>23.029632727384826</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
@@ -2489,6 +2526,9 @@
       <c r="AN17" s="0">
         <v>0.55690326497964282</v>
       </c>
+      <c r="AO17" s="0">
+        <v>37.938957039665326</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
@@ -2611,6 +2651,9 @@
       <c r="AN18" s="0">
         <v>0.79770614805633389</v>
       </c>
+      <c r="AO18" s="0">
+        <v>15.043735330598038</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
@@ -2733,6 +2776,9 @@
       <c r="AN19" s="0">
         <v>0.56948505081156042</v>
       </c>
+      <c r="AO19" s="0">
+        <v>32.976769744438286</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
@@ -2855,6 +2901,9 @@
       <c r="AN20" s="0">
         <v>0.69241664214757825</v>
       </c>
+      <c r="AO20" s="0">
+        <v>21.432333611549073</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
@@ -2977,6 +3026,9 @@
       <c r="AN21" s="0">
         <v>0.62933083770848008</v>
       </c>
+      <c r="AO21" s="0">
+        <v>20.376283374642007</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
@@ -3099,6 +3151,9 @@
       <c r="AN22" s="0">
         <v>0.47658793086593038</v>
       </c>
+      <c r="AO22" s="0">
+        <v>32.338618550272336</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
@@ -3221,6 +3276,9 @@
       <c r="AN23" s="0">
         <v>0.52624284252619902</v>
       </c>
+      <c r="AO23" s="0">
+        <v>33.058747740983833</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
@@ -3343,6 +3401,9 @@
       <c r="AN24" s="0">
         <v>0.97040320689137216</v>
       </c>
+      <c r="AO24" s="0">
+        <v>2.2477372972991154</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
@@ -3465,6 +3526,9 @@
       <c r="AN25" s="0">
         <v>0.57129155508693652</v>
       </c>
+      <c r="AO25" s="0">
+        <v>32.729787433115071</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -3587,6 +3651,9 @@
       <c r="AN26" s="0">
         <v>1.017356247726336</v>
       </c>
+      <c r="AO26" s="0">
+        <v>1.7325084586174988</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
@@ -3709,6 +3776,9 @@
       <c r="AN27" s="0">
         <v>0.5510062389041086</v>
       </c>
+      <c r="AO27" s="0">
+        <v>38.055894892625147</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
@@ -3831,6 +3901,9 @@
       <c r="AN28" s="0">
         <v>0.96338184129550719</v>
       </c>
+      <c r="AO28" s="0">
+        <v>4.7401193160478972</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
@@ -3953,6 +4026,9 @@
       <c r="AN29" s="0">
         <v>0.737250747463291</v>
       </c>
+      <c r="AO29" s="0">
+        <v>20.933623974802433</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
@@ -4075,6 +4151,9 @@
       <c r="AN30" s="0">
         <v>0.97750629024725832</v>
       </c>
+      <c r="AO30" s="0">
+        <v>5.1242843574605681</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
@@ -4197,6 +4276,9 @@
       <c r="AN31" s="0">
         <v>0.53762343128306544</v>
       </c>
+      <c r="AO31" s="0">
+        <v>45.905830285982141</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
@@ -4319,6 +4401,9 @@
       <c r="AN32" s="0">
         <v>0.53916547774999557</v>
       </c>
+      <c r="AO32" s="0">
+        <v>37.754340124278585</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
@@ -4441,6 +4526,9 @@
       <c r="AN33" s="0">
         <v>0.5463857203818604</v>
       </c>
+      <c r="AO33" s="0">
+        <v>36.019265240926138</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
@@ -4563,6 +4651,9 @@
       <c r="AN34" s="0">
         <v>0.55507203637006453</v>
       </c>
+      <c r="AO34" s="0">
+        <v>34.084254108530892</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
@@ -4685,6 +4776,9 @@
       <c r="AN35" s="0">
         <v>0.52954518580378063</v>
       </c>
+      <c r="AO35" s="0">
+        <v>34.800404960636534</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
@@ -4807,6 +4901,9 @@
       <c r="AN36" s="0">
         <v>0.51889796174219349</v>
       </c>
+      <c r="AO36" s="0">
+        <v>34.650754239668707</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
@@ -4929,6 +5026,9 @@
       <c r="AN37" s="0">
         <v>0.50247083344860388</v>
       </c>
+      <c r="AO37" s="0">
+        <v>34.426966270962907</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
@@ -5051,6 +5151,9 @@
       <c r="AN38" s="0">
         <v>0.48333685053401526</v>
       </c>
+      <c r="AO38" s="0">
+        <v>34.357289056743156</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
@@ -5173,6 +5276,9 @@
       <c r="AN39" s="0">
         <v>0.4654605906038603</v>
       </c>
+      <c r="AO39" s="0">
+        <v>33.996461790873255</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
@@ -5295,6 +5401,9 @@
       <c r="AN40" s="0">
         <v>0.44074301277453914</v>
       </c>
+      <c r="AO40" s="0">
+        <v>33.523089046246575</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
@@ -5417,6 +5526,9 @@
       <c r="AN41" s="0">
         <v>0.41635576916401629</v>
       </c>
+      <c r="AO41" s="0">
+        <v>32.840175433130227</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -5537,6 +5649,9 @@
       <c r="AN42" s="0">
         <v>0.38789423064846557</v>
       </c>
+      <c r="AO42" s="0">
+        <v>31.36952657397639</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
@@ -5659,6 +5774,9 @@
       <c r="AN43" s="0">
         <v>0.58020029591337041</v>
       </c>
+      <c r="AO43" s="0">
+        <v>27.556204641350369</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -5781,6 +5899,9 @@
       <c r="AN44" s="0">
         <v>0.56669804153449721</v>
       </c>
+      <c r="AO44" s="0">
+        <v>27.662250682536317</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
@@ -5903,6 +6024,9 @@
       <c r="AN45" s="0">
         <v>0.55165778733934578</v>
       </c>
+      <c r="AO45" s="0">
+        <v>27.829316079263055</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
@@ -6025,6 +6149,9 @@
       <c r="AN46" s="0">
         <v>0.53908127507822168</v>
       </c>
+      <c r="AO46" s="0">
+        <v>27.687281012806814</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
@@ -6147,6 +6274,9 @@
       <c r="AN47" s="0">
         <v>0.52464076933706416</v>
       </c>
+      <c r="AO47" s="0">
+        <v>27.438739683739367</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
@@ -6267,6 +6397,9 @@
       <c r="AN48" s="0">
         <v>0.49194968296810782</v>
       </c>
+      <c r="AO48" s="0">
+        <v>26.791626762872909</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
@@ -6387,6 +6520,9 @@
       <c r="AN49" s="0">
         <v>0.47595816152469461</v>
       </c>
+      <c r="AO49" s="0">
+        <v>26.456951445779183</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
@@ -6507,6 +6643,9 @@
       <c r="AN50" s="0">
         <v>0.45784076080841168</v>
       </c>
+      <c r="AO50" s="0">
+        <v>25.844834309697603</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
@@ -6627,6 +6766,9 @@
       <c r="AN51" s="0">
         <v>0.44606798035628004</v>
       </c>
+      <c r="AO51" s="0">
+        <v>23.88489837014663</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
@@ -6747,6 +6889,9 @@
       <c r="AN52" s="0">
         <v>0.42689887967095863</v>
       </c>
+      <c r="AO52" s="0">
+        <v>22.156739447312475</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
@@ -6867,6 +7012,9 @@
       <c r="AN53" s="0">
         <v>0.40392012446726744</v>
       </c>
+      <c r="AO53" s="0">
+        <v>19.47986328241068</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
@@ -6989,6 +7137,9 @@
       <c r="AN54" s="0">
         <v>0.70389504216967691</v>
       </c>
+      <c r="AO54" s="0">
+        <v>14.78667961045374</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -7111,6 +7262,9 @@
       <c r="AN55" s="0">
         <v>0.60375894333415514</v>
       </c>
+      <c r="AO55" s="0">
+        <v>25.09125870836905</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
@@ -7233,6 +7387,9 @@
       <c r="AN56" s="0">
         <v>0.81528091852772455</v>
       </c>
+      <c r="AO56" s="0">
+        <v>8.3563490054752023</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
@@ -7355,6 +7512,9 @@
       <c r="AN57" s="0">
         <v>0.63777651711679151</v>
       </c>
+      <c r="AO57" s="0">
+        <v>20.674903037843862</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -7477,6 +7637,9 @@
       <c r="AN58" s="0">
         <v>0.83163831212372541</v>
       </c>
+      <c r="AO58" s="0">
+        <v>8.8487497487943081</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
@@ -7597,6 +7760,9 @@
       <c r="AN59" s="0">
         <v>0.57217475967662246</v>
       </c>
+      <c r="AO59" s="0">
+        <v>23.999010982075916</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
@@ -7719,6 +7885,9 @@
       <c r="AN60" s="0">
         <v>0.65881629505790174</v>
       </c>
+      <c r="AO60" s="0">
+        <v>17.630027694011744</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
@@ -7841,6 +8010,9 @@
       <c r="AN61" s="0">
         <v>0.84422934733194432</v>
       </c>
+      <c r="AO61" s="0">
+        <v>4.5532002119964279</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
@@ -7961,6 +8133,9 @@
       <c r="AN62" s="0">
         <v>0.53303786005560538</v>
       </c>
+      <c r="AO62" s="0">
+        <v>25.140540796365386</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
@@ -8081,6 +8256,9 @@
       <c r="AN63" s="0">
         <v>0.60774149073658712</v>
       </c>
+      <c r="AO63" s="0">
+        <v>18.333991393391056</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -8203,6 +8381,9 @@
       <c r="AN64" s="0">
         <v>0.73090000562983592</v>
       </c>
+      <c r="AO64" s="0">
+        <v>9.8012085450133046</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
@@ -8325,6 +8506,9 @@
       <c r="AN65" s="0">
         <v>0.60790884412566526</v>
       </c>
+      <c r="AO65" s="0">
+        <v>25.297894089805943</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
@@ -8447,6 +8631,9 @@
       <c r="AN66" s="0">
         <v>0.62345377512902467</v>
       </c>
+      <c r="AO66" s="0">
+        <v>24.674000374918041</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -8569,6 +8756,9 @@
       <c r="AN67" s="0">
         <v>0.63644763240230684</v>
       </c>
+      <c r="AO67" s="0">
+        <v>24.434955823524771</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
@@ -8691,6 +8881,9 @@
       <c r="AN68" s="0">
         <v>0.63976954452951662</v>
       </c>
+      <c r="AO68" s="0">
+        <v>24.696506987043204</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
@@ -8813,6 +9006,9 @@
       <c r="AN69" s="0">
         <v>0.64073988913073598</v>
       </c>
+      <c r="AO69" s="0">
+        <v>25.918298699357273</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
@@ -8933,6 +9129,9 @@
       <c r="AN70" s="0">
         <v>0.38973189494255356</v>
       </c>
+      <c r="AO70" s="0">
+        <v>18.013319721052635</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
@@ -9053,6 +9252,9 @@
       <c r="AN71" s="0">
         <v>0.38363689479597979</v>
       </c>
+      <c r="AO71" s="0">
+        <v>17.299631074955748</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -9173,6 +9375,9 @@
       <c r="AN72" s="0">
         <v>0.37519530998547695</v>
       </c>
+      <c r="AO72" s="0">
+        <v>16.50866333787436</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
@@ -9293,6 +9498,9 @@
       <c r="AN73" s="0">
         <v>0.36154012536377605</v>
       </c>
+      <c r="AO73" s="0">
+        <v>15.348945937596305</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
@@ -9413,6 +9621,9 @@
       <c r="AN74" s="0">
         <v>0.33823822750507465</v>
       </c>
+      <c r="AO74" s="0">
+        <v>27.15454731189201</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
@@ -9533,6 +9744,9 @@
       <c r="AN75" s="0">
         <v>0.3310421243034844</v>
       </c>
+      <c r="AO75" s="0">
+        <v>25.490367087417543</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
@@ -9653,6 +9867,9 @@
       <c r="AN76" s="0">
         <v>0.32347950707383855</v>
       </c>
+      <c r="AO76" s="0">
+        <v>24.113410881113989</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
@@ -9775,6 +9992,9 @@
       <c r="AN77" s="0">
         <v>0.33309256167255707</v>
       </c>
+      <c r="AO77" s="0">
+        <v>24.804860265464942</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
@@ -9897,6 +10117,9 @@
       <c r="AN78" s="0">
         <v>0.34614336438862442</v>
       </c>
+      <c r="AO78" s="0">
+        <v>28.224174395900505</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
@@ -10019,6 +10242,9 @@
       <c r="AN79" s="0">
         <v>0.33729653401037724</v>
       </c>
+      <c r="AO79" s="0">
+        <v>26.564561594203049</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
@@ -10141,6 +10367,9 @@
       <c r="AN80" s="0">
         <v>0.59501391208539711</v>
       </c>
+      <c r="AO80" s="0">
+        <v>22.296284294872333</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
@@ -10263,6 +10492,9 @@
       <c r="AN81" s="0">
         <v>0.57058582336344643</v>
       </c>
+      <c r="AO81" s="0">
+        <v>21.66452643883008</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
@@ -10385,6 +10617,9 @@
       <c r="AN82" s="0">
         <v>0.5540246350730279</v>
       </c>
+      <c r="AO82" s="0">
+        <v>19.575624215909741</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -10507,6 +10742,9 @@
       <c r="AN83" s="0">
         <v>0.57199120281202731</v>
       </c>
+      <c r="AO83" s="0">
+        <v>21.526529926024224</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
@@ -10629,6 +10867,9 @@
       <c r="AN84" s="0">
         <v>0.59320864829206776</v>
       </c>
+      <c r="AO84" s="0">
+        <v>22.106083001157003</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -10751,6 +10992,9 @@
       <c r="AN85" s="0">
         <v>0.65638866759440462</v>
       </c>
+      <c r="AO85" s="0">
+        <v>15.115459982545488</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
@@ -10873,6 +11117,9 @@
       <c r="AN86" s="0">
         <v>0.62325487849890726</v>
       </c>
+      <c r="AO86" s="0">
+        <v>12.764694018701929</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
@@ -10995,6 +11242,9 @@
       <c r="AN87" s="0">
         <v>0.72021357680686315</v>
       </c>
+      <c r="AO87" s="0">
+        <v>8.3464149379534813</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -11117,6 +11367,9 @@
       <c r="AN88" s="0">
         <v>0.66082751325041389</v>
       </c>
+      <c r="AO88" s="0">
+        <v>13.398258992805481</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
@@ -11239,6 +11492,9 @@
       <c r="AN89" s="0">
         <v>0.5771754995236591</v>
       </c>
+      <c r="AO89" s="0">
+        <v>10.214903342261952</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
@@ -11361,6 +11617,9 @@
       <c r="AN90" s="0">
         <v>0.60895178483752177</v>
       </c>
+      <c r="AO90" s="0">
+        <v>9.8730741102676305</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
@@ -11483,6 +11742,9 @@
       <c r="AN91" s="0">
         <v>0.59349935017504407</v>
       </c>
+      <c r="AO91" s="0">
+        <v>12.1845819308333</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
@@ -11605,6 +11867,9 @@
       <c r="AN92" s="0">
         <v>0.58938434727480371</v>
       </c>
+      <c r="AO92" s="0">
+        <v>13.778879711986235</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
@@ -11727,6 +11992,9 @@
       <c r="AN93" s="0">
         <v>0.58595385220199003</v>
       </c>
+      <c r="AO93" s="0">
+        <v>15.000878914337976</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
@@ -11849,6 +12117,9 @@
       <c r="AN94" s="0">
         <v>0.57974161146127934</v>
       </c>
+      <c r="AO94" s="0">
+        <v>16.472015035091701</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -11971,6 +12242,9 @@
       <c r="AN95" s="0">
         <v>0.62657448218664269</v>
       </c>
+      <c r="AO95" s="0">
+        <v>8.3041230205233152</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
@@ -12093,6 +12367,9 @@
       <c r="AN96" s="0">
         <v>0.58803247958810967</v>
       </c>
+      <c r="AO96" s="0">
+        <v>11.846465909839814</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
@@ -12215,6 +12492,9 @@
       <c r="AN97" s="0">
         <v>0.59482182057457844</v>
       </c>
+      <c r="AO97" s="0">
+        <v>12.696579688839602</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
@@ -12337,6 +12617,9 @@
       <c r="AN98" s="0">
         <v>0.57523774059671695</v>
       </c>
+      <c r="AO98" s="0">
+        <v>15.131520061968523</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
@@ -12459,6 +12742,9 @@
       <c r="AN99" s="0">
         <v>0.62583075456955184</v>
       </c>
+      <c r="AO99" s="0">
+        <v>7.9443878629605615</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
@@ -12581,6 +12867,9 @@
       <c r="AN100" s="0">
         <v>0.34412007098869896</v>
       </c>
+      <c r="AO100" s="0">
+        <v>32.84690659106991</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
@@ -12701,6 +12990,9 @@
       <c r="AN101" s="0">
         <v>0.32174504614824367</v>
       </c>
+      <c r="AO101" s="0">
+        <v>27.468440938087976</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
@@ -12823,6 +13115,9 @@
       <c r="AN102" s="0">
         <v>0.55428206211135378</v>
       </c>
+      <c r="AO102" s="0">
+        <v>14.36492990376667</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
@@ -12945,6 +13240,9 @@
       <c r="AN103" s="0">
         <v>0.33234895882578519</v>
       </c>
+      <c r="AO103" s="0">
+        <v>32.542549243594443</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
@@ -13065,6 +13363,9 @@
       <c r="AN104" s="0">
         <v>0.27874861844542514</v>
       </c>
+      <c r="AO104" s="0">
+        <v>21.308857342140605</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
@@ -13187,6 +13488,9 @@
       <c r="AN105" s="0">
         <v>0.3958826941255173</v>
       </c>
+      <c r="AO105" s="0">
+        <v>22.531102729154053</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
@@ -13307,6 +13611,9 @@
       <c r="AN106" s="0">
         <v>0.35789627223961823</v>
       </c>
+      <c r="AO106" s="0">
+        <v>18.077647889052496</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
@@ -13427,6 +13734,9 @@
       <c r="AN107" s="0">
         <v>0.60262329134909287</v>
       </c>
+      <c r="AO107" s="0">
+        <v>3.2288435120437846</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
@@ -13547,6 +13857,9 @@
       <c r="AN108" s="0">
         <v>0.33426371576454633</v>
       </c>
+      <c r="AO108" s="0">
+        <v>16.037063494584096</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
@@ -13667,6 +13980,9 @@
       <c r="AN109" s="0">
         <v>0.44269902520110732</v>
       </c>
+      <c r="AO109" s="0">
+        <v>8.0587886970177323</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
@@ -13789,6 +14105,9 @@
       <c r="AN110" s="0">
         <v>0.59101214342326647</v>
       </c>
+      <c r="AO110" s="0">
+        <v>31.439565802457896</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
@@ -13911,6 +14230,9 @@
       <c r="AN111" s="0">
         <v>0.56653228410276446</v>
       </c>
+      <c r="AO111" s="0">
+        <v>31.599015990914872</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
@@ -14033,6 +14355,9 @@
       <c r="AN112" s="0">
         <v>0.53985313608238683</v>
       </c>
+      <c r="AO112" s="0">
+        <v>31.311381392714889</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
@@ -14155,6 +14480,9 @@
       <c r="AN113" s="0">
         <v>0.50528468794128878</v>
       </c>
+      <c r="AO113" s="0">
+        <v>31.195826007969412</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
@@ -14277,6 +14605,9 @@
       <c r="AN114" s="0">
         <v>0.8426156224386554</v>
       </c>
+      <c r="AO114" s="0">
+        <v>3.9277622399323948</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
@@ -14399,6 +14730,9 @@
       <c r="AN115" s="0">
         <v>0.83623869261338291</v>
       </c>
+      <c r="AO115" s="0">
+        <v>3.7385429022083887</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
@@ -14521,6 +14855,9 @@
       <c r="AN116" s="0">
         <v>0.84932252903829819</v>
       </c>
+      <c r="AO116" s="0">
+        <v>4.2187169396905864</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
@@ -14643,6 +14980,9 @@
       <c r="AN117" s="0">
         <v>0.52297208153847874</v>
       </c>
+      <c r="AO117" s="0">
+        <v>31.244412973243818</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
@@ -14765,6 +15105,9 @@
       <c r="AN118" s="0">
         <v>0.34205102030402906</v>
       </c>
+      <c r="AO118" s="0">
+        <v>32.685409307227935</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
@@ -14887,6 +15230,9 @@
       <c r="AN119" s="0">
         <v>0.57494823465979716</v>
       </c>
+      <c r="AO119" s="0">
+        <v>42.467511716200612</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
@@ -15009,6 +15355,9 @@
       <c r="AN120" s="0">
         <v>0.58163247436781851</v>
       </c>
+      <c r="AO120" s="0">
+        <v>40.058334214043548</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
@@ -15127,6 +15476,9 @@
       <c r="AN121" s="0">
         <v>0.50140297795632749</v>
       </c>
+      <c r="AO121" s="0">
+        <v>35.134149579021809</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
@@ -15249,6 +15601,9 @@
       <c r="AN122" s="0">
         <v>0.59853956721284363</v>
       </c>
+      <c r="AO122" s="0">
+        <v>35.174980827383557</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
@@ -15371,6 +15726,9 @@
       <c r="AN123" s="0">
         <v>0.59155358304943018</v>
       </c>
+      <c r="AO123" s="0">
+        <v>34.512699446026375</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
@@ -15493,6 +15851,9 @@
       <c r="AN124" s="0">
         <v>0.59752205933396674</v>
       </c>
+      <c r="AO124" s="0">
+        <v>32.248398258553472</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
@@ -15615,6 +15976,9 @@
       <c r="AN125" s="0">
         <v>0.53534305753279265</v>
       </c>
+      <c r="AO125" s="0">
+        <v>36.537542213304853</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
@@ -15737,6 +16101,9 @@
       <c r="AN126" s="0">
         <v>0.54013131834236494</v>
       </c>
+      <c r="AO126" s="0">
+        <v>34.339303397111344</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
@@ -15859,6 +16226,9 @@
       <c r="AN127" s="0">
         <v>0.53186581181796988</v>
       </c>
+      <c r="AO127" s="0">
+        <v>33.084001056587951</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
@@ -15981,6 +16351,9 @@
       <c r="AN128" s="0">
         <v>0.4972743102303952</v>
       </c>
+      <c r="AO128" s="0">
+        <v>33.898606534313018</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
@@ -16103,6 +16476,9 @@
       <c r="AN129" s="0">
         <v>0.46449333204347937</v>
       </c>
+      <c r="AO129" s="0">
+        <v>33.871608544552345</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
@@ -16225,6 +16601,9 @@
       <c r="AN130" s="0">
         <v>0.43129574815403515</v>
       </c>
+      <c r="AO130" s="0">
+        <v>33.365721846339</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
@@ -16347,6 +16726,9 @@
       <c r="AN131" s="0">
         <v>0.39021942473148846</v>
       </c>
+      <c r="AO131" s="0">
+        <v>32.35487727558337</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
@@ -16467,6 +16849,9 @@
       <c r="AN132" s="0">
         <v>0.34695731569454002</v>
       </c>
+      <c r="AO132" s="0">
+        <v>29.776188920909622</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
@@ -16589,6 +16974,9 @@
       <c r="AN133" s="0">
         <v>0.78369952835094625</v>
       </c>
+      <c r="AO133" s="0">
+        <v>19.494221200479139</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
@@ -16711,6 +17099,9 @@
       <c r="AN134" s="0">
         <v>0.77982109386501475</v>
       </c>
+      <c r="AO134" s="0">
+        <v>18.982364302877837</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
@@ -16833,6 +17224,9 @@
       <c r="AN135" s="0">
         <v>0.7761271119221389</v>
       </c>
+      <c r="AO135" s="0">
+        <v>18.65407392223052</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
@@ -16955,6 +17349,9 @@
       <c r="AN136" s="0">
         <v>0.76989204308746328</v>
       </c>
+      <c r="AO136" s="0">
+        <v>18.452493656000406</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
@@ -17077,6 +17474,9 @@
       <c r="AN137" s="0">
         <v>0.75617413315274562</v>
       </c>
+      <c r="AO137" s="0">
+        <v>18.21400805893078</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
@@ -17199,6 +17599,9 @@
       <c r="AN138" s="0">
         <v>1.016539924993223</v>
       </c>
+      <c r="AO138" s="0">
+        <v>4.0462379381569349</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
@@ -17321,6 +17724,9 @@
       <c r="AN139" s="0">
         <v>1.0126271385462879</v>
       </c>
+      <c r="AO139" s="0">
+        <v>3.4044096460022488</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
@@ -17443,6 +17849,9 @@
       <c r="AN140" s="0">
         <v>1.0083387537404036</v>
       </c>
+      <c r="AO140" s="0">
+        <v>2.7691694158714224</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
@@ -17565,6 +17974,9 @@
       <c r="AN141" s="0">
         <v>0.99893849615474783</v>
       </c>
+      <c r="AO141" s="0">
+        <v>2.0710455232323537</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
@@ -17687,6 +18099,9 @@
       <c r="AN142" s="0">
         <v>0.98451561207003679</v>
       </c>
+      <c r="AO142" s="0">
+        <v>1.2779674771895149</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
@@ -17809,6 +18224,9 @@
       <c r="AN143" s="0">
         <v>0.95845343830324714</v>
       </c>
+      <c r="AO143" s="0">
+        <v>0.33117310976563119</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
@@ -17931,6 +18349,9 @@
       <c r="AN144" s="0">
         <v>0.84827352160027791</v>
       </c>
+      <c r="AO144" s="0">
+        <v>14.701618490310652</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
@@ -18053,6 +18474,9 @@
       <c r="AN145" s="0">
         <v>0.90655502491095996</v>
       </c>
+      <c r="AO145" s="0">
+        <v>10.093562742883977</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
@@ -18175,6 +18599,9 @@
       <c r="AN146" s="0">
         <v>0.6180963319765338</v>
       </c>
+      <c r="AO146" s="0">
+        <v>16.492177233565478</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
@@ -18297,6 +18724,9 @@
       <c r="AN147" s="0">
         <v>0.62682545971507164</v>
       </c>
+      <c r="AO147" s="0">
+        <v>16.936677679649925</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
@@ -18419,6 +18849,9 @@
       <c r="AN148" s="0">
         <v>0.53523095866735138</v>
       </c>
+      <c r="AO148" s="0">
+        <v>24.090062007417824</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
@@ -18541,6 +18974,9 @@
       <c r="AN149" s="0">
         <v>0.58068921519138728</v>
       </c>
+      <c r="AO149" s="0">
+        <v>21.971424709063978</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
@@ -18663,6 +19099,9 @@
       <c r="AN150" s="0">
         <v>0.59133094071018644</v>
       </c>
+      <c r="AO150" s="0">
+        <v>22.222847858030878</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
@@ -18785,6 +19224,9 @@
       <c r="AN151" s="0">
         <v>0.56876798771013581</v>
       </c>
+      <c r="AO151" s="0">
+        <v>24.712890699900459</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
@@ -18907,6 +19349,9 @@
       <c r="AN152" s="0">
         <v>0.58505350817332658</v>
       </c>
+      <c r="AO152" s="0">
+        <v>24.519562993148156</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
@@ -19029,6 +19474,9 @@
       <c r="AN153" s="0">
         <v>0.79512190925526416</v>
       </c>
+      <c r="AO153" s="0">
+        <v>16.404659523744229</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
@@ -19151,6 +19599,9 @@
       <c r="AN154" s="0">
         <v>0.91658019183903794</v>
       </c>
+      <c r="AO154" s="0">
+        <v>5.9243938835657897</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
@@ -19273,6 +19724,9 @@
       <c r="AN155" s="0">
         <v>0.49392649116494836</v>
       </c>
+      <c r="AO155" s="0">
+        <v>43.501608857001635</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
@@ -19395,6 +19849,9 @@
       <c r="AN156" s="0">
         <v>0.59925952244141356</v>
       </c>
+      <c r="AO156" s="0">
+        <v>26.068960067016512</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
@@ -19517,6 +19974,9 @@
       <c r="AN157" s="0">
         <v>0.61033288515354001</v>
       </c>
+      <c r="AO157" s="0">
+        <v>26.243414512921234</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
@@ -19639,6 +20099,9 @@
       <c r="AN158" s="0">
         <v>0.60543568848892038</v>
       </c>
+      <c r="AO158" s="0">
+        <v>27.390705509313459</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
@@ -19761,1193 +20224,8 @@
       <c r="AN159" s="0">
         <v>0.51201073589050861</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B160" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C160" s="0">
-        <v>90</v>
-      </c>
-      <c r="D160" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E160" s="0">
-        <v>0.0088000000000000005</v>
-      </c>
-      <c r="F160" s="0">
-        <v>0.059120074401234318</v>
-      </c>
-      <c r="G160" s="0">
-        <v>0.065296334661354594</v>
-      </c>
-      <c r="H160" s="0">
-        <v>0.0032963346613545923</v>
-      </c>
-      <c r="I160" s="0">
-        <v>0.028298503675599079</v>
-      </c>
-      <c r="J160" s="0">
-        <v>0.01822541010560931</v>
-      </c>
-      <c r="K160" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L160" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M160" s="0">
-        <v>0.18841722746709785</v>
-      </c>
-      <c r="N160" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O160" s="0">
-        <v>0.98533457335390529</v>
-      </c>
-      <c r="P160" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q160" s="0">
-        <v>0.027074915266185065</v>
-      </c>
-      <c r="R160" s="0">
-        <v>0.57970232595013538</v>
-      </c>
-      <c r="S160" s="0">
-        <v>670.4294900000001</v>
-      </c>
-      <c r="T160" s="0">
-        <v>6.5769132969000008</v>
-      </c>
-      <c r="U160" s="0">
-        <v>13.684968065605837</v>
-      </c>
-      <c r="V160" s="0">
-        <v>2.4174514536834399</v>
-      </c>
-      <c r="W160" s="0">
-        <v>0.023299542032906941</v>
-      </c>
-      <c r="X160" s="0">
-        <v>0.018406638205996483</v>
-      </c>
-      <c r="Y160" s="0">
-        <v>0.24741078045615406</v>
-      </c>
-      <c r="Z160" s="0">
-        <v>0.90210958123211726</v>
-      </c>
-      <c r="AA160" s="0">
-        <v>0.20569387441661249</v>
-      </c>
-      <c r="AB160" s="0">
-        <v>38756.269524543539</v>
-      </c>
-      <c r="AC160" s="0">
-        <v>89309.765819404376</v>
-      </c>
-      <c r="AD160" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE160" s="0">
-        <v>0.48059398205171039</v>
-      </c>
-      <c r="AF160" s="0">
-        <v>2.7205978787614713</v>
-      </c>
-      <c r="AG160" s="0"/>
-      <c r="AH160" s="0">
-        <v>6.5579817271383192</v>
-      </c>
-      <c r="AI160" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ160" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK160" s="0"/>
-      <c r="AL160" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM160" s="0">
-        <v>0.70972868467727379</v>
-      </c>
-      <c r="AN160" s="0">
-        <v>0.33971979899265164</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B161" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C161" s="0">
-        <v>90</v>
-      </c>
-      <c r="D161" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E161" s="0">
-        <v>0.0088999999999999999</v>
-      </c>
-      <c r="F161" s="0">
-        <v>0.060523667411786296</v>
-      </c>
-      <c r="G161" s="0">
-        <v>0.06526286852589637</v>
-      </c>
-      <c r="H161" s="0">
-        <v>0.0032628685258963659</v>
-      </c>
-      <c r="I161" s="0">
-        <v>0.037644301802439217</v>
-      </c>
-      <c r="J161" s="0">
-        <v>0.031300239043824701</v>
-      </c>
-      <c r="K161" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L161" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M161" s="0">
-        <v>0.18613912980785818</v>
-      </c>
-      <c r="N161" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O161" s="0">
-        <v>1.0087277901964382</v>
-      </c>
-      <c r="P161" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q161" s="0">
-        <v>0.027740218353186703</v>
-      </c>
-      <c r="R161" s="0">
-        <v>0.58017304549911797</v>
-      </c>
-      <c r="S161" s="0">
-        <v>578.85561333333362</v>
-      </c>
-      <c r="T161" s="0">
-        <v>5.6785735668000035</v>
-      </c>
-      <c r="U161" s="0">
-        <v>11.816368286613223</v>
-      </c>
-      <c r="V161" s="0">
-        <v>2.0826901133444533</v>
-      </c>
-      <c r="W161" s="0">
-        <v>0.023475721089834433</v>
-      </c>
-      <c r="X161" s="0">
-        <v>0.018545819660969205</v>
-      </c>
-      <c r="Y161" s="0">
-        <v>0.24156864180937077</v>
-      </c>
-      <c r="Z161" s="0">
-        <v>0.40537887468371286</v>
-      </c>
-      <c r="AA161" s="0">
-        <v>0.20992848747895393</v>
-      </c>
-      <c r="AB161" s="0">
-        <v>39075.905981212338</v>
-      </c>
-      <c r="AC161" s="0">
-        <v>88229.947528924778</v>
-      </c>
-      <c r="AD161" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE161" s="0">
-        <v>0.48056843093095419</v>
-      </c>
-      <c r="AF161" s="0">
-        <v>2.7265571245648066</v>
-      </c>
-      <c r="AG161" s="0"/>
-      <c r="AH161" s="0">
-        <v>5.8453297266606326</v>
-      </c>
-      <c r="AI161" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ161" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK161" s="0"/>
-      <c r="AL161" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM161" s="0">
-        <v>0.72504515830000771</v>
-      </c>
-      <c r="AN161" s="0">
-        <v>0.45096108558232617</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B162" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C162" s="0">
-        <v>90</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E162" s="0">
-        <v>0.0088000000000000005</v>
-      </c>
-      <c r="F162" s="0">
-        <v>0.064690700433419887</v>
-      </c>
-      <c r="G162" s="0">
-        <v>0.068213705179282894</v>
-      </c>
-      <c r="H162" s="0">
-        <v>0.0053013095238095076</v>
-      </c>
-      <c r="I162" s="0">
-        <v>0.049677868012275077</v>
-      </c>
-      <c r="J162" s="0">
-        <v>0.04546700942262695</v>
-      </c>
-      <c r="K162" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L162" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M162" s="0">
-        <v>0.17219230015593504</v>
-      </c>
-      <c r="N162" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O162" s="0">
-        <v>1.0781783405569982</v>
-      </c>
-      <c r="P162" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q162" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R162" s="0">
-        <v>0.55649420641304448</v>
-      </c>
-      <c r="S162" s="0">
-        <v>482.85982000000001</v>
-      </c>
-      <c r="T162" s="0">
-        <v>4.7368548342000008</v>
-      </c>
-      <c r="U162" s="0">
-        <v>11.23473995126767</v>
-      </c>
-      <c r="V162" s="0">
-        <v>2.2098440138926203</v>
-      </c>
-      <c r="W162" s="0">
-        <v>0.023299542032906934</v>
-      </c>
-      <c r="X162" s="0">
-        <v>0.01840663820599648</v>
-      </c>
-      <c r="Y162" s="0">
-        <v>0.2161515215443339</v>
-      </c>
-      <c r="Z162" s="0">
-        <v>0.22894474280607183</v>
-      </c>
-      <c r="AA162" s="0">
-        <v>0.22234799744357103</v>
-      </c>
-      <c r="AB162" s="0">
-        <v>38286.613114874461</v>
-      </c>
-      <c r="AC162" s="0">
-        <v>81619.150273913197</v>
-      </c>
-      <c r="AD162" s="0">
-        <v>80000</v>
-      </c>
-      <c r="AE162" s="0">
-        <v>0.42162567667314083</v>
-      </c>
-      <c r="AF162" s="0">
-        <v>2.1435245222833959</v>
-      </c>
-      <c r="AG162" s="0">
-        <v>3.8355145264700123</v>
-      </c>
-      <c r="AH162" s="0">
-        <v>4.7053271491745035</v>
-      </c>
-      <c r="AI162" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ162" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK162" s="0">
-        <v>5.9790390487534086</v>
-      </c>
-      <c r="AL162" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM162" s="0">
-        <v>0.77660331443195996</v>
-      </c>
-      <c r="AN162" s="0">
-        <v>0.59637624409327683</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B163" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C163" s="0">
-        <v>90</v>
-      </c>
-      <c r="D163" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E163" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="F163" s="0">
-        <v>0.063925700508892361</v>
-      </c>
-      <c r="G163" s="0">
-        <v>0.067922654145323405</v>
-      </c>
-      <c r="H163" s="0">
-        <v>0.0058688888888888185</v>
-      </c>
-      <c r="I163" s="0">
-        <v>0.028031506251178121</v>
-      </c>
-      <c r="J163" s="0">
-        <v>0.019691474103585661</v>
-      </c>
-      <c r="K163" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L163" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M163" s="0">
-        <v>0.19801469123268267</v>
-      </c>
-      <c r="N163" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O163" s="0">
-        <v>1.0654283418148727</v>
-      </c>
-      <c r="P163" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q163" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R163" s="0">
-        <v>0.56315378186574938</v>
-      </c>
-      <c r="S163" s="0">
-        <v>789.42959333333283</v>
-      </c>
-      <c r="T163" s="0">
-        <v>7.744304310599996</v>
-      </c>
-      <c r="U163" s="0">
-        <v>13.889544000983166</v>
-      </c>
-      <c r="V163" s="0">
-        <v>2.6506058277636382</v>
-      </c>
-      <c r="W163" s="0">
-        <v>0.025372247353849832</v>
-      </c>
-      <c r="X163" s="0">
-        <v>0.020044075409541368</v>
-      </c>
-      <c r="Y163" s="0">
-        <v>0.25004902261126372</v>
-      </c>
-      <c r="Z163" s="0">
-        <v>0.91279918709950303</v>
-      </c>
-      <c r="AA163" s="0">
-        <v>0.22008487799234258</v>
-      </c>
-      <c r="AB163" s="0">
-        <v>43580.039160636356</v>
-      </c>
-      <c r="AC163" s="0">
-        <v>93858.96364429158</v>
-      </c>
-      <c r="AD163" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE163" s="0">
-        <v>0.55756361116331954</v>
-      </c>
-      <c r="AF163" s="0">
-        <v>2.9217110403526121</v>
-      </c>
-      <c r="AG163" s="0"/>
-      <c r="AH163" s="0">
-        <v>7.7883004129810889</v>
-      </c>
-      <c r="AI163" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ163" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK163" s="0"/>
-      <c r="AL163" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM163" s="0">
-        <v>0.74878783785477632</v>
-      </c>
-      <c r="AN163" s="0">
-        <v>0.32834448102313019</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B164" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C164" s="0">
-        <v>90</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E164" s="0">
-        <v>0.0101</v>
-      </c>
-      <c r="F164" s="0">
-        <v>0.064868136378153529</v>
-      </c>
-      <c r="G164" s="0">
-        <v>0.068359466894327384</v>
-      </c>
-      <c r="H164" s="0">
-        <v>0.0062954581673306505</v>
-      </c>
-      <c r="I164" s="0">
-        <v>0.038091034493772075</v>
-      </c>
-      <c r="J164" s="0">
-        <v>0.031222788844621513</v>
-      </c>
-      <c r="K164" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L164" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M164" s="0">
-        <v>0.19708921575998878</v>
-      </c>
-      <c r="N164" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O164" s="0">
-        <v>1.0811356063025588</v>
-      </c>
-      <c r="P164" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q164" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R164" s="0">
-        <v>0.55497200952614656</v>
-      </c>
-      <c r="S164" s="0">
-        <v>700.78516666666701</v>
-      </c>
-      <c r="T164" s="0">
-        <v>6.8747024850000038</v>
-      </c>
-      <c r="U164" s="0">
-        <v>12.445965387076706</v>
-      </c>
-      <c r="V164" s="0">
-        <v>2.4649223534640488</v>
-      </c>
-      <c r="W164" s="0">
-        <v>0.025541115001372666</v>
-      </c>
-      <c r="X164" s="0">
-        <v>0.020177480851084405</v>
-      </c>
-      <c r="Y164" s="0">
-        <v>0.24706580834249944</v>
-      </c>
-      <c r="Z164" s="0">
-        <v>0.46174948889360451</v>
-      </c>
-      <c r="AA164" s="0">
-        <v>0.22287183514102574</v>
-      </c>
-      <c r="AB164" s="0">
-        <v>43925.635202934274</v>
-      </c>
-      <c r="AC164" s="0">
-        <v>93420.288270234683</v>
-      </c>
-      <c r="AD164" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE164" s="0">
-        <v>0.55236394053757898</v>
-      </c>
-      <c r="AF164" s="0">
-        <v>2.7890138102479067</v>
-      </c>
-      <c r="AG164" s="0">
-        <v>6.1416723589157467</v>
-      </c>
-      <c r="AH164" s="0">
-        <v>7.0509043232391457</v>
-      </c>
-      <c r="AI164" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ164" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK164" s="0">
-        <v>8.9306861691636534</v>
-      </c>
-      <c r="AL164" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM164" s="0">
-        <v>0.75832699137850379</v>
-      </c>
-      <c r="AN164" s="0">
-        <v>0.44529504312821772</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B165" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C165" s="0">
-        <v>90</v>
-      </c>
-      <c r="D165" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E165" s="0">
-        <v>0.0080000000000000002</v>
-      </c>
-      <c r="F165" s="0">
-        <v>0.054115128674758713</v>
-      </c>
-      <c r="G165" s="0">
-        <v>0.06512817460317466</v>
-      </c>
-      <c r="H165" s="0">
-        <v>0.0031281746031746565</v>
-      </c>
-      <c r="I165" s="0">
-        <v>0.024604505944805136</v>
-      </c>
-      <c r="J165" s="0">
-        <v>0.0173096015936255</v>
-      </c>
-      <c r="K165" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L165" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M165" s="0">
-        <v>0.1871303372360717</v>
-      </c>
-      <c r="N165" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O165" s="0">
-        <v>0.90191881124597861</v>
-      </c>
-      <c r="P165" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q165" s="0">
-        <v>0.024702570991835628</v>
-      </c>
-      <c r="R165" s="0">
-        <v>0.57782505503752535</v>
-      </c>
-      <c r="S165" s="0">
-        <v>556.24601666666683</v>
-      </c>
-      <c r="T165" s="0">
-        <v>5.4567734235000014</v>
-      </c>
-      <c r="U165" s="0">
-        <v>12.616397405666646</v>
-      </c>
-      <c r="V165" s="0">
-        <v>2.2486417575689868</v>
-      </c>
-      <c r="W165" s="0">
-        <v>0.021865139945281498</v>
-      </c>
-      <c r="X165" s="0">
-        <v>0.017273460556772383</v>
-      </c>
-      <c r="Y165" s="0">
-        <v>0.25683271859678081</v>
-      </c>
-      <c r="Z165" s="0">
-        <v>0.8860372214669745</v>
-      </c>
-      <c r="AA165" s="0">
-        <v>0.19037858635138019</v>
-      </c>
-      <c r="AB165" s="0">
-        <v>35625.609066460376</v>
-      </c>
-      <c r="AC165" s="0">
-        <v>88699.779849897983</v>
-      </c>
-      <c r="AD165" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE165" s="0">
-        <v>0.43251438965049527</v>
-      </c>
-      <c r="AF165" s="0">
-        <v>2.4266975409188056</v>
-      </c>
-      <c r="AG165" s="0"/>
-      <c r="AH165" s="0">
-        <v>5.4730714406350023</v>
-      </c>
-      <c r="AI165" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ165" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK165" s="0"/>
-      <c r="AL165" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM165" s="0">
-        <v>0.66102774283326415</v>
-      </c>
-      <c r="AN165" s="0">
-        <v>0.30054924429678787</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B166" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C166" s="0">
-        <v>90</v>
-      </c>
-      <c r="D166" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E166" s="0">
-        <v>0.0080999999999999996</v>
-      </c>
-      <c r="F166" s="0">
-        <v>0.056415299050437281</v>
-      </c>
-      <c r="G166" s="0">
-        <v>0.065250318725099635</v>
-      </c>
-      <c r="H166" s="0">
-        <v>0.0032503187250996321</v>
-      </c>
-      <c r="I166" s="0">
-        <v>0.038336293007769168</v>
-      </c>
-      <c r="J166" s="0">
-        <v>0.032555697211155386</v>
-      </c>
-      <c r="K166" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L166" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M166" s="0">
-        <v>0.18174439787681229</v>
-      </c>
-      <c r="N166" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O166" s="0">
-        <v>0.9402549841739547</v>
-      </c>
-      <c r="P166" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q166" s="0">
-        <v>0.02579285174990727</v>
-      </c>
-      <c r="R166" s="0">
-        <v>0.57872917417441749</v>
-      </c>
-      <c r="S166" s="0">
-        <v>448.86849333333333</v>
-      </c>
-      <c r="T166" s="0">
-        <v>4.4033999196</v>
-      </c>
-      <c r="U166" s="0">
-        <v>10.337051927950014</v>
-      </c>
-      <c r="V166" s="0">
-        <v>1.834507392153814</v>
-      </c>
-      <c r="W166" s="0">
-        <v>0.022046971935357262</v>
-      </c>
-      <c r="X166" s="0">
-        <v>0.017417107828932236</v>
-      </c>
-      <c r="Y166" s="0">
-        <v>0.24430259604366594</v>
-      </c>
-      <c r="Z166" s="0">
-        <v>0.34780602868555976</v>
-      </c>
-      <c r="AA166" s="0">
-        <v>0.19745935214688326</v>
-      </c>
-      <c r="AB166" s="0">
-        <v>35887.131061080741</v>
-      </c>
-      <c r="AC166" s="0">
-        <v>86146.844593609028</v>
-      </c>
-      <c r="AD166" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE166" s="0">
-        <v>0.425982180441001</v>
-      </c>
-      <c r="AF166" s="0">
-        <v>2.4003173486426586</v>
-      </c>
-      <c r="AG166" s="0"/>
-      <c r="AH166" s="0">
-        <v>4.5141300616299596</v>
-      </c>
-      <c r="AI166" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ166" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK166" s="0"/>
-      <c r="AL166" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM166" s="0">
-        <v>0.68759757636010588</v>
-      </c>
-      <c r="AN166" s="0">
-        <v>0.46724811535974009</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B167" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C167" s="0">
-        <v>90</v>
-      </c>
-      <c r="D167" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E167" s="0">
-        <v>0.0080999999999999996</v>
-      </c>
-      <c r="F167" s="0">
-        <v>0.06262265649834943</v>
-      </c>
-      <c r="G167" s="0">
-        <v>0.066642562132422672</v>
-      </c>
-      <c r="H167" s="0">
-        <v>0.0031774206349206367</v>
-      </c>
-      <c r="I167" s="0">
-        <v>0.051448622386599627</v>
-      </c>
-      <c r="J167" s="0">
-        <v>0.047480303073420611</v>
-      </c>
-      <c r="K167" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L167" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M167" s="0">
-        <v>0.1637293134830885</v>
-      </c>
-      <c r="N167" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O167" s="0">
-        <v>1.0437109416391572</v>
-      </c>
-      <c r="P167" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q167" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R167" s="0">
-        <v>0.5748718117850663</v>
-      </c>
-      <c r="S167" s="0">
-        <v>385.06045999999981</v>
-      </c>
-      <c r="T167" s="0">
-        <v>3.7774431125999981</v>
-      </c>
-      <c r="U167" s="0">
-        <v>9.9093565392244702</v>
-      </c>
-      <c r="V167" s="0">
-        <v>1.7909574110471502</v>
-      </c>
-      <c r="W167" s="0">
-        <v>0.022046971935357262</v>
-      </c>
-      <c r="X167" s="0">
-        <v>0.017417107828932236</v>
-      </c>
-      <c r="Y167" s="0">
-        <v>0.20889410952927193</v>
-      </c>
-      <c r="Z167" s="0">
-        <v>0.19747284485623989</v>
-      </c>
-      <c r="AA167" s="0">
-        <v>0.21621262816070599</v>
-      </c>
-      <c r="AB167" s="0">
-        <v>35400.345175126684</v>
-      </c>
-      <c r="AC167" s="0">
-        <v>77607.694590983956</v>
-      </c>
-      <c r="AD167" s="0">
-        <v>80000</v>
-      </c>
-      <c r="AE167" s="0">
-        <v>0.38119963669161006</v>
-      </c>
-      <c r="AF167" s="0">
-        <v>2.1091752876420298</v>
-      </c>
-      <c r="AG167" s="0"/>
-      <c r="AH167" s="0">
-        <v>3.5324928237509567</v>
-      </c>
-      <c r="AI167" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ167" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK167" s="0"/>
-      <c r="AL167" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM167" s="0">
-        <v>0.76325371943876541</v>
-      </c>
-      <c r="AN167" s="0">
-        <v>0.62706302466756114</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B168" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C168" s="0">
-        <v>90</v>
-      </c>
-      <c r="D168" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="0">
-        <v>0.0074000000000000003</v>
-      </c>
-      <c r="F168" s="0">
-        <v>0.051446305083773639</v>
-      </c>
-      <c r="G168" s="0">
-        <v>0.06522353174603171</v>
-      </c>
-      <c r="H168" s="0">
-        <v>0.0032235317460317108</v>
-      </c>
-      <c r="I168" s="0">
-        <v>0.022891566731695991</v>
-      </c>
-      <c r="J168" s="0">
-        <v>0.016931957724656929</v>
-      </c>
-      <c r="K168" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L168" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M168" s="0">
-        <v>0.18207505072214314</v>
-      </c>
-      <c r="N168" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O168" s="0">
-        <v>0.857438418062894</v>
-      </c>
-      <c r="P168" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q168" s="0">
-        <v>0.023437548609708703</v>
-      </c>
-      <c r="R168" s="0">
-        <v>0.57667470971829826</v>
-      </c>
-      <c r="S168" s="0">
-        <v>515.06922999999983</v>
-      </c>
-      <c r="T168" s="0">
-        <v>5.0528291462999988</v>
-      </c>
-      <c r="U168" s="0">
-        <v>13.006233425704448</v>
-      </c>
-      <c r="V168" s="0">
-        <v>2.3307729747957766</v>
-      </c>
-      <c r="W168" s="0">
-        <v>0.020757740728926388</v>
-      </c>
-      <c r="X168" s="0">
-        <v>0.016398615175851849</v>
-      </c>
-      <c r="Y168" s="0">
-        <v>0.25629423741535123</v>
-      </c>
-      <c r="Z168" s="0">
-        <v>0.84715629853633423</v>
-      </c>
-      <c r="AA168" s="0">
-        <v>0.18207153045450686</v>
-      </c>
-      <c r="AB168" s="0">
-        <v>33150.683142562564</v>
-      </c>
-      <c r="AC168" s="0">
-        <v>86303.574042295848</v>
-      </c>
-      <c r="AD168" s="0">
-        <v>90000</v>
-      </c>
-      <c r="AE168" s="0">
-        <v>0.38849288498190443</v>
-      </c>
-      <c r="AF168" s="0">
-        <v>2.1678770094469324</v>
-      </c>
-      <c r="AG168" s="0"/>
-      <c r="AH168" s="0">
-        <v>4.9706364045726978</v>
-      </c>
-      <c r="AI168" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ168" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK168" s="0"/>
-      <c r="AL168" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM168" s="0">
-        <v>0.63704487792024411</v>
-      </c>
-      <c r="AN168" s="0">
-        <v>0.28345972194212865</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B169" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C169" s="0">
-        <v>90</v>
-      </c>
-      <c r="D169" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="0">
-        <v>0.0074000000000000003</v>
-      </c>
-      <c r="F169" s="0">
-        <v>0.056522850950316464</v>
-      </c>
-      <c r="G169" s="0">
-        <v>0.064921354581673266</v>
-      </c>
-      <c r="H169" s="0">
-        <v>0.0029213545816732705</v>
-      </c>
-      <c r="I169" s="0">
-        <v>0.044676554609112192</v>
-      </c>
-      <c r="J169" s="0">
-        <v>0.040141035856573706</v>
-      </c>
-      <c r="K169" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L169" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M169" s="0">
-        <v>0.16572215396262654</v>
-      </c>
-      <c r="N169" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O169" s="0">
-        <v>0.9420475158386078</v>
-      </c>
-      <c r="P169" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q169" s="0">
-        <v>0.025843831350450003</v>
-      </c>
-      <c r="R169" s="0">
-        <v>0.57876964838424727</v>
-      </c>
-      <c r="S169" s="0">
-        <v>357.01681333333323</v>
-      </c>
-      <c r="T169" s="0">
-        <v>3.5023349387999994</v>
-      </c>
-      <c r="U169" s="0">
-        <v>9.8689201533899329</v>
-      </c>
-      <c r="V169" s="0">
-        <v>1.7510919374442959</v>
-      </c>
-      <c r="W169" s="0">
-        <v>0.020757740728926392</v>
-      </c>
-      <c r="X169" s="0">
-        <v>0.016398615175851849</v>
-      </c>
-      <c r="Y169" s="0">
-        <v>0.22255329887736047</v>
-      </c>
-      <c r="Z169" s="0">
-        <v>0.23208199238474519</v>
-      </c>
-      <c r="AA169" s="0">
-        <v>0.19778867074731254</v>
-      </c>
-      <c r="AB169" s="0">
-        <v>32777.964545649382</v>
-      </c>
-      <c r="AC169" s="0">
-        <v>78552.300978284969</v>
-      </c>
-      <c r="AD169" s="0">
-        <v>80000</v>
-      </c>
-      <c r="AE169" s="0">
-        <v>0.35488532528018901</v>
-      </c>
-      <c r="AF169" s="0">
-        <v>2.000086268406688</v>
-      </c>
-      <c r="AG169" s="0"/>
-      <c r="AH169" s="0">
-        <v>3.281213418265656</v>
-      </c>
-      <c r="AI169" s="0">
-        <v>99</v>
-      </c>
-      <c r="AJ169" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK169" s="0"/>
-      <c r="AL169" s="0">
-        <v>20220517</v>
-      </c>
-      <c r="AM169" s="0">
-        <v>0.69990629307031493</v>
-      </c>
-      <c r="AN169" s="0">
-        <v>0.55321699450551398</v>
+      <c r="AO159" s="0">
+        <v>44.979625576756121</v>
       </c>
     </row>
   </sheetData>

--- a/iselUssSyncV2/OutputForces/sumDataTable.xlsx
+++ b/iselUssSyncV2/OutputForces/sumDataTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="90">
   <si>
     <t>D</t>
   </si>
@@ -253,27 +253,6 @@
     <t>2A</t>
   </si>
   <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
@@ -290,15 +269,6 @@
   </si>
   <si>
     <t>3A</t>
-  </si>
-  <si>
-    <t>2B</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>2B</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -359,7 +329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO159"/>
+  <dimension ref="A1:AO135"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
@@ -375,7 +345,7 @@
     <col min="11" max="11" width="5.7109375" customWidth="true"/>
     <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="13.7109375" customWidth="true"/>
+    <col min="14" max="14" width="6.42578125" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="5.85546875" customWidth="true"/>
     <col min="17" max="17" width="13.7109375" customWidth="true"/>
@@ -515,19 +485,19 @@
         <v>37</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2">
@@ -12748,7 +12718,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B100" s="0">
         <v>0.47399999999999998</v>
@@ -12757,123 +12727,123 @@
         <v>90</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100" s="0">
-        <v>0.010500000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F100" s="0">
-        <v>0.062513874131821134</v>
+        <v>0.10797369668386994</v>
       </c>
       <c r="G100" s="0">
-        <v>0.064903650793650777</v>
+        <v>0.11271448412698412</v>
       </c>
       <c r="H100" s="0">
-        <v>0.0020757768924302695</v>
+        <v>0.053651792828685256</v>
       </c>
       <c r="I100" s="0">
-        <v>0.029666967540751224</v>
+        <v>0.065506184967669329</v>
       </c>
       <c r="J100" s="0">
-        <v>0.014675714285714285</v>
+        <v>0.037253174603174601</v>
       </c>
       <c r="K100" s="0">
         <v>0.002</v>
       </c>
       <c r="L100" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M100" s="0">
-        <v>0.21261103115253585</v>
+        <v>0.46893746298832661</v>
       </c>
       <c r="N100" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O100" s="0">
-        <v>1.0418979021970189</v>
+        <v>2.1594739336773987</v>
       </c>
       <c r="P100" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="Q100" s="0">
-        <v>0.028439999999999997</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R100" s="0">
-        <v>0.57587216437886846</v>
+        <v>0.27784544682058349</v>
       </c>
       <c r="S100" s="0">
-        <v>742.84653333333324</v>
+        <v>1055.2653</v>
       </c>
       <c r="T100" s="0">
-        <v>7.2873244919999998</v>
+        <v>10.352152593000001</v>
       </c>
       <c r="U100" s="0">
-        <v>11.336968093292588</v>
+        <v>3.9726696781653965</v>
       </c>
       <c r="V100" s="0">
-        <v>2.0393439407754346</v>
+        <v>2.0717758351321245</v>
       </c>
       <c r="W100" s="0">
-        <v>0.026211093283557706</v>
+        <v>0.063934057048509796</v>
       </c>
       <c r="X100" s="0">
-        <v>0.020706763694010588</v>
+        <v>0.050507905068322742</v>
       </c>
       <c r="Y100" s="0">
-        <v>0.27149577974742062</v>
+        <v>0.45563957759050733</v>
       </c>
       <c r="Z100" s="0">
-        <v>1.489645793309138</v>
+        <v>1.4031614581316256</v>
       </c>
       <c r="AA100" s="0">
-        <v>0.21588836254574162</v>
+        <v>0.33917964673953793</v>
       </c>
       <c r="AB100" s="0">
-        <v>45900.247374682629</v>
+        <v>159054.04303931576</v>
       </c>
       <c r="AC100" s="0">
-        <v>100777.62876630199</v>
+        <v>222276.35745646682</v>
       </c>
       <c r="AD100" s="0">
-        <v>100000</v>
+        <v>220000</v>
       </c>
       <c r="AE100" s="0">
-        <v>0.64279306707332773</v>
+        <v>2.6058427786980491</v>
       </c>
       <c r="AF100" s="0">
-        <v>3.5733670747216317</v>
+        <v>4.996753228536333</v>
       </c>
       <c r="AG100" s="0">
-        <v>6.7335869556692254</v>
+        <v>9.8735690714814925</v>
       </c>
       <c r="AH100" s="0">
-        <v>7.033735389894165</v>
+        <v>12.446062776187354</v>
       </c>
       <c r="AI100" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AJ100" s="0" t="s">
         <v>79</v>
       </c>
       <c r="AK100" s="0">
-        <v>10.306954030390857</v>
+        <v>14.870322300017826</v>
       </c>
       <c r="AL100" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM100" s="0">
-        <v>0.72512563929802132</v>
+        <v>0.94768587620730371</v>
       </c>
       <c r="AN100" s="0">
-        <v>0.34412007098869896</v>
+        <v>0.57494823465979716</v>
       </c>
       <c r="AO100" s="0">
-        <v>32.84690659106991</v>
+        <v>42.467511716200612</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B101" s="0">
         <v>0.47399999999999998</v>
@@ -12882,121 +12852,123 @@
         <v>90</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" s="0">
-        <v>0.0086</v>
+        <v>0.037499999999999999</v>
       </c>
       <c r="F101" s="0">
-        <v>0.054155637770039643</v>
+        <v>0.10476005470765586</v>
       </c>
       <c r="G101" s="0">
-        <v>0.055912460317460326</v>
-      </c>
-      <c r="H101" s="0"/>
+        <v>0.1093461904761905</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0.050949166666666656</v>
+      </c>
       <c r="I101" s="0">
-        <v>0.026687196831951667</v>
+        <v>0.064701720493612308</v>
       </c>
       <c r="J101" s="0">
-        <v>0.014128884462151395</v>
+        <v>0.034616666666666671</v>
       </c>
       <c r="K101" s="0">
         <v>0.002</v>
       </c>
       <c r="L101" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M101" s="0">
-        <v>0.20101463850527412</v>
+        <v>0.45311502139670762</v>
       </c>
       <c r="N101" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O101" s="0">
-        <v>0.90259396283399407</v>
+        <v>2.0952010941531172</v>
       </c>
       <c r="P101" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.024721772302998789</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R101" s="0">
-        <v>0.57784164217406975</v>
+        <v>0.28636869352271921</v>
       </c>
       <c r="S101" s="0">
-        <v>552.75664333333373</v>
+        <v>1040.5159000000001</v>
       </c>
       <c r="T101" s="0">
-        <v>5.4225426711000049</v>
+        <v>10.207460979000002</v>
       </c>
       <c r="U101" s="0">
-        <v>10.85670410215811</v>
+        <v>4.1954877585538677</v>
       </c>
       <c r="V101" s="0">
-        <v>1.934856607569754</v>
+        <v>2.1366345470707624</v>
       </c>
       <c r="W101" s="0">
-        <v>0.022945167770059685</v>
+        <v>0.06124158870932573</v>
       </c>
       <c r="X101" s="0">
-        <v>0.018126682538347153</v>
+        <v>0.048380855080367331</v>
       </c>
       <c r="Y101" s="0">
-        <v>0.27578544645920083</v>
+        <v>0.44696765659927834</v>
       </c>
       <c r="Z101" s="0">
-        <v>1.2916035447312759</v>
+        <v>1.4685745106728696</v>
       </c>
       <c r="AA101" s="0">
-        <v>0.19050391552798673</v>
+        <v>0.33120071297999365</v>
       </c>
       <c r="AB101" s="0">
-        <v>38294.07571369753</v>
+        <v>150072.01814853464</v>
       </c>
       <c r="AC101" s="0">
-        <v>95280.938651499935</v>
+        <v>214776.52014203943</v>
       </c>
       <c r="AD101" s="0">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="AE101" s="0">
-        <v>0.49946490390413273</v>
+        <v>2.4329616879917646</v>
       </c>
       <c r="AF101" s="0">
-        <v>2.802555315926436</v>
+        <v>4.7773546454137463</v>
       </c>
       <c r="AG101" s="0">
-        <v>9.8148741714054566</v>
+        <v>9.313442529762483</v>
       </c>
       <c r="AH101" s="0">
-        <v>5.1839121541294872</v>
+        <v>11.988240337699203</v>
       </c>
       <c r="AI101" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AJ101" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK101" s="0">
-        <v>12.617429487331894</v>
+        <v>14.090797175176229</v>
       </c>
       <c r="AL101" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM101" s="0">
-        <v>0.65290889422479348</v>
+        <v>0.941734614932495</v>
       </c>
       <c r="AN101" s="0">
-        <v>0.32174504614824367</v>
+        <v>0.58163247436781851</v>
       </c>
       <c r="AO101" s="0">
-        <v>27.468440938087976</v>
+        <v>40.058334214043548</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B102" s="0">
         <v>0.47399999999999998</v>
@@ -13005,123 +12977,119 @@
         <v>90</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102" s="0">
-        <v>0.0094999999999999998</v>
+        <v>0.035000000000000003</v>
       </c>
       <c r="F102" s="0">
-        <v>0.061212459902578627</v>
-      </c>
-      <c r="G102" s="0">
-        <v>0.062713864541832642</v>
-      </c>
-      <c r="H102" s="0">
-        <v>0.0013446031746031579</v>
-      </c>
+        <v>0.089530639147056612</v>
+      </c>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
       <c r="I102" s="0">
-        <v>0.046847529998811956</v>
+        <v>0.054396489568034806</v>
       </c>
       <c r="J102" s="0">
-        <v>0.035083545816733071</v>
+        <v>0.032194262948207174</v>
       </c>
       <c r="K102" s="0">
         <v>0.002</v>
       </c>
       <c r="L102" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M102" s="0">
-        <v>0.19645210264110993</v>
+        <v>0.49484509314832648</v>
       </c>
       <c r="N102" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O102" s="0">
-        <v>1.0202076650429772</v>
+        <v>1.7906127829411322</v>
       </c>
       <c r="P102" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.028066705993822268</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R102" s="0">
-        <v>0.5803961480732871</v>
+        <v>0.33508082021758101</v>
       </c>
       <c r="S102" s="0">
-        <v>513.77080999999953</v>
+        <v>1027.456313333334</v>
       </c>
       <c r="T102" s="0">
-        <v>5.040091646099996</v>
+        <v>10.079346433800007</v>
       </c>
       <c r="U102" s="0">
-        <v>9.3060122719869653</v>
+        <v>3.4735654446308915</v>
       </c>
       <c r="V102" s="0">
-        <v>1.6384853157831907</v>
+        <v>1.5357241248019318</v>
       </c>
       <c r="W102" s="0">
-        <v>0.024519296584056539</v>
+        <v>0.058488565005636588</v>
       </c>
       <c r="X102" s="0">
-        <v>0.019370244301404667</v>
+        <v>0.046205966354452906</v>
       </c>
       <c r="Y102" s="0">
-        <v>0.25351418316856994</v>
+        <v>0.5280182362128466</v>
       </c>
       <c r="Z102" s="0">
-        <v>0.36463719981534681</v>
+        <v>1.5282447117981781</v>
       </c>
       <c r="AA102" s="0">
-        <v>0.21199703021422797</v>
+        <v>0.29194935969656266</v>
       </c>
       <c r="AB102" s="0">
-        <v>41647.262339255998</v>
+        <v>144469.70809363981</v>
       </c>
       <c r="AC102" s="0">
-        <v>93118.296651886107</v>
+        <v>234556.57415230674</v>
       </c>
       <c r="AD102" s="0">
-        <v>90000</v>
+        <v>230000</v>
       </c>
       <c r="AE102" s="0">
-        <v>0.54159520735554167</v>
+        <v>2.9017292446237644</v>
       </c>
       <c r="AF102" s="0">
-        <v>3.0760676324345626</v>
+        <v>6.5632533024770829</v>
       </c>
       <c r="AG102" s="0">
-        <v>6.9507975534810216</v>
+        <v>8.1685843746738325</v>
       </c>
       <c r="AH102" s="0">
-        <v>4.1337113523972153</v>
+        <v>6.3859282628109124</v>
       </c>
       <c r="AI102" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AJ102" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK102" s="0">
-        <v>10.026865185915584</v>
+        <v>14.731837677150915</v>
       </c>
       <c r="AL102" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM102" s="0">
-        <v>0.72424242009280471</v>
+        <v>0.82525415597860474</v>
       </c>
       <c r="AN102" s="0">
-        <v>0.55428206211135378</v>
+        <v>0.50140297795632749</v>
       </c>
       <c r="AO102" s="0">
-        <v>14.36492990376667</v>
+        <v>35.134149579021809</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B103" s="0">
         <v>0.47399999999999998</v>
@@ -13130,123 +13098,123 @@
         <v>90</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E103" s="0">
-        <v>0.0098000000000000014</v>
+        <v>0.032500000000000001</v>
       </c>
       <c r="F103" s="0">
-        <v>0.060803116085212452</v>
+        <v>0.098422142033231991</v>
       </c>
       <c r="G103" s="0">
-        <v>0.062359007936507921</v>
+        <v>0.10312690476190474</v>
       </c>
       <c r="H103" s="0">
-        <v>0.0013790836653386335</v>
+        <v>0.045464701195219122</v>
       </c>
       <c r="I103" s="0">
-        <v>0.028260566841618016</v>
+        <v>0.063247161205848432</v>
       </c>
       <c r="J103" s="0">
-        <v>0.014087768924302791</v>
+        <v>0.029893373015873012</v>
       </c>
       <c r="K103" s="0">
         <v>0.002</v>
       </c>
       <c r="L103" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M103" s="0">
-        <v>0.20402018991517115</v>
+        <v>0.41798765660311027</v>
       </c>
       <c r="N103" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O103" s="0">
-        <v>1.0133852680868742</v>
+        <v>1.9684428406646397</v>
       </c>
       <c r="P103" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.0278726770243907</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R103" s="0">
-        <v>0.58026416938371606</v>
+        <v>0.30480946035365269</v>
       </c>
       <c r="S103" s="0">
-        <v>703.10466000000019</v>
+        <v>1012.0617933333333</v>
       </c>
       <c r="T103" s="0">
-        <v>6.8974567146000023</v>
+        <v>9.9283261926000002</v>
       </c>
       <c r="U103" s="0">
-        <v>11.890332571427709</v>
+        <v>4.7954655229702725</v>
       </c>
       <c r="V103" s="0">
-        <v>2.0948170034370537</v>
+        <v>2.3175999878974998</v>
       </c>
       <c r="W103" s="0">
-        <v>0.025032812924899187</v>
+        <v>0.055669139803680566</v>
       </c>
       <c r="X103" s="0">
-        <v>0.019775922210670357</v>
+        <v>0.043978620444907648</v>
       </c>
       <c r="Y103" s="0">
-        <v>0.26416527324621131</v>
+        <v>0.42538536762472068</v>
       </c>
       <c r="Z103" s="0">
-        <v>1.478275346306728</v>
+        <v>1.586037920056256</v>
       </c>
       <c r="AA103" s="0">
-        <v>0.21076846564751342</v>
+        <v>0.31516012591512998</v>
       </c>
       <c r="AB103" s="0">
-        <v>43001.022389534919</v>
+        <v>131733.04248600634</v>
       </c>
       <c r="AC103" s="0">
-        <v>96705.570019791121</v>
+        <v>198126.14922987428</v>
       </c>
       <c r="AD103" s="0">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="AE103" s="0">
-        <v>0.58008946958931062</v>
+        <v>2.0703571207098315</v>
       </c>
       <c r="AF103" s="0">
-        <v>3.2926297157618345</v>
+        <v>4.283882570092203</v>
       </c>
       <c r="AG103" s="0">
-        <v>12.871913179423228</v>
+        <v>8.1780775174241942</v>
       </c>
       <c r="AH103" s="0">
-        <v>6.7812568464353786</v>
+        <v>10.997958049892205</v>
       </c>
       <c r="AI103" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AJ103" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK103" s="0">
-        <v>16.164542895185061</v>
+        <v>12.461960087516397</v>
       </c>
       <c r="AL103" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM103" s="0">
-        <v>0.71505474173732964</v>
+        <v>0.93141803005198542</v>
       </c>
       <c r="AN103" s="0">
-        <v>0.33234895882578519</v>
+        <v>0.59853956721284363</v>
       </c>
       <c r="AO103" s="0">
-        <v>32.542549243594443</v>
+        <v>35.174980827383557</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B104" s="0">
         <v>0.47399999999999998</v>
@@ -13255,1738 +13223,1746 @@
         <v>90</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E104" s="0">
-        <v>0.0067000000000000002</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F104" s="0">
-        <v>0.043449062076888423</v>
+        <v>0.095310447873305545</v>
       </c>
       <c r="G104" s="0">
-        <v>0.045006626984127003</v>
-      </c>
-      <c r="H104" s="0"/>
+        <v>0.10004031746031747</v>
+      </c>
+      <c r="H104" s="0">
+        <v>0.04281773809523811</v>
+      </c>
       <c r="I104" s="0">
-        <v>0.022140204734747818</v>
+        <v>0.060797748427279169</v>
       </c>
       <c r="J104" s="0">
-        <v>0.013627968127490042</v>
+        <v>0.027523055555555554</v>
       </c>
       <c r="K104" s="0">
         <v>0.002</v>
       </c>
       <c r="L104" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M104" s="0">
-        <v>0.19519437826344005</v>
+        <v>0.39843148775025017</v>
       </c>
       <c r="N104" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O104" s="0">
-        <v>0.72415103461480712</v>
+        <v>1.9062089574661107</v>
       </c>
       <c r="P104" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="Q104" s="0">
-        <v>0.019646855424445112</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R104" s="0">
-        <v>0.57238145215018776</v>
+        <v>0.31476087532269764</v>
       </c>
       <c r="S104" s="0">
-        <v>337.44995666666654</v>
+        <v>999.39778333333322</v>
       </c>
       <c r="T104" s="0">
-        <v>3.3103840748999986</v>
+        <v>9.8040922544999987</v>
       </c>
       <c r="U104" s="0">
-        <v>8.8446513785007905</v>
+        <v>5.2117278907508524</v>
       </c>
       <c r="V104" s="0">
-        <v>1.6173119226060506</v>
+        <v>2.4471806838149428</v>
       </c>
       <c r="W104" s="0">
-        <v>0.019427137103757684</v>
+        <v>0.052776401275214518</v>
       </c>
       <c r="X104" s="0">
-        <v>0.01534743831196857</v>
+        <v>0.041693357007419468</v>
       </c>
       <c r="Y104" s="0">
-        <v>0.29898031759392368</v>
+        <v>0.4120490282091806</v>
       </c>
       <c r="Z104" s="0">
-        <v>1.0622352921875455</v>
+        <v>1.6571769049696126</v>
       </c>
       <c r="AA104" s="0">
-        <v>0.1565735316123108</v>
+        <v>0.30713297726573185</v>
       </c>
       <c r="AB104" s="0">
-        <v>30562.273155576084</v>
+        <v>122371.44906914931</v>
       </c>
       <c r="AC104" s="0">
-        <v>92522.135296870576</v>
+        <v>188856.52519361858</v>
       </c>
       <c r="AD104" s="0">
-        <v>90000</v>
+        <v>190000</v>
       </c>
       <c r="AE104" s="0">
-        <v>0.37428089963463584</v>
+        <v>1.8811596576059011</v>
       </c>
       <c r="AF104" s="0">
-        <v>2.0468433013007297</v>
+        <v>4.0062805003904609</v>
       </c>
       <c r="AG104" s="0">
-        <v>6.1025668425632711</v>
+        <v>8.0240990831027936</v>
       </c>
       <c r="AH104" s="0">
-        <v>3.1572607727951709</v>
+        <v>10.702685794886886</v>
       </c>
       <c r="AI104" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AJ104" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK104" s="0">
-        <v>8.1494101438640012</v>
+        <v>12.030379583493254</v>
       </c>
       <c r="AL104" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM104" s="0">
-        <v>0.54703044401726098</v>
+        <v>0.92735731832138535</v>
       </c>
       <c r="AN104" s="0">
-        <v>0.27874861844542514</v>
+        <v>0.59155358304943018</v>
       </c>
       <c r="AO104" s="0">
-        <v>21.308857342140605</v>
+        <v>34.512699446026375</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B105" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C105" s="0">
         <v>90</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E105" s="0">
-        <v>0.013699999999999999</v>
+        <v>0.0275</v>
       </c>
       <c r="F105" s="0">
-        <v>0.058674098389306033</v>
+        <v>0.091882336983008434</v>
       </c>
       <c r="G105" s="0">
-        <v>0.062040952380952356</v>
+        <v>0.096766135458167313</v>
       </c>
       <c r="H105" s="0">
-        <v>0.00098553784860558845</v>
+        <v>0.03981693227091631</v>
       </c>
       <c r="I105" s="0">
-        <v>0.036142995660151979</v>
+        <v>0.059633938724454959</v>
       </c>
       <c r="J105" s="0">
-        <v>0.019807450199203186</v>
+        <v>0.025531468253968254</v>
       </c>
       <c r="K105" s="0">
         <v>0.002</v>
       </c>
       <c r="L105" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M105" s="0">
-        <v>0.29556094815185863</v>
+        <v>0.37885547674648101</v>
       </c>
       <c r="N105" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O105" s="0">
-        <v>0.97790163982176725</v>
+        <v>1.8376467396601686</v>
       </c>
       <c r="P105" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q105" s="0">
-        <v>0.017909015091020705</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R105" s="0">
-        <v>0.38636536355970985</v>
+        <v>0.3265045381415127</v>
       </c>
       <c r="S105" s="0">
-        <v>437.50507333333326</v>
+        <v>990.45257333333404</v>
       </c>
       <c r="T105" s="0">
-        <v>4.2919247693999996</v>
+        <v>9.7163397444000079</v>
       </c>
       <c r="U105" s="0">
-        <v>5.4867641448912909</v>
+        <v>5.7126445462634949</v>
       </c>
       <c r="V105" s="0">
-        <v>2.0660271410003563</v>
+        <v>2.5912334990617292</v>
       </c>
       <c r="W105" s="0">
-        <v>0.031297235763209683</v>
+        <v>0.049802070556066919</v>
       </c>
       <c r="X105" s="0">
-        <v>0.024724816252935652</v>
+        <v>0.039343635739292865</v>
       </c>
       <c r="Y105" s="0">
-        <v>0.38957343529526045</v>
+        <v>0.39904608077429909</v>
       </c>
       <c r="Z105" s="0">
-        <v>1.2395678274200383</v>
+        <v>1.7002453481055477</v>
       </c>
       <c r="AA105" s="0">
-        <v>0.20434288795467359</v>
+        <v>0.2981707928300133</v>
       </c>
       <c r="AB105" s="0">
-        <v>60395.77771197234</v>
+        <v>112963.63786949092</v>
       </c>
       <c r="AC105" s="0">
-        <v>93397.259615987336</v>
+        <v>179577.495977832</v>
       </c>
       <c r="AD105" s="0">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="AE105" s="0">
-        <v>0.78223241532920595</v>
+        <v>1.7008479462905206</v>
       </c>
       <c r="AF105" s="0">
-        <v>2.0773806327258018</v>
+        <v>3.7496967169952993</v>
       </c>
       <c r="AG105" s="0">
-        <v>6.3431669059628852</v>
+        <v>7.4976558499189068</v>
       </c>
       <c r="AH105" s="0">
-        <v>2.9134043928876157</v>
+        <v>10.100933154221618</v>
       </c>
       <c r="AI105" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AJ105" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK105" s="0">
-        <v>8.4205475386886874</v>
+        <v>11.247352566914206</v>
       </c>
       <c r="AL105" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM105" s="0">
-        <v>0.64267113783690377</v>
+        <v>0.92064559854387662</v>
       </c>
       <c r="AN105" s="0">
-        <v>0.3958826941255173</v>
+        <v>0.59752205933396674</v>
       </c>
       <c r="AO105" s="0">
-        <v>22.531102729154053</v>
+        <v>32.248398258553472</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B106" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C106" s="0">
         <v>90</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" s="0">
-        <v>0.0104</v>
+        <v>0.025000000000000001</v>
       </c>
       <c r="F106" s="0">
-        <v>0.048872620888561577</v>
+        <v>0.088324530637444457</v>
       </c>
       <c r="G106" s="0">
-        <v>0.051562301587301636</v>
-      </c>
-      <c r="H106" s="0"/>
+        <v>0.092997808764940293</v>
+      </c>
+      <c r="H106" s="0">
+        <v>0.036750398406374472</v>
+      </c>
       <c r="I106" s="0">
-        <v>0.03079497299950908</v>
+        <v>0.051786988424139604</v>
       </c>
       <c r="J106" s="0">
-        <v>0.019089007936507935</v>
+        <v>0.022467689243027892</v>
       </c>
       <c r="K106" s="0">
         <v>0.002</v>
       </c>
       <c r="L106" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M106" s="0">
-        <v>0.26936466108586415</v>
+        <v>0.35828743602558455</v>
       </c>
       <c r="N106" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O106" s="0">
-        <v>0.81454368147602629</v>
+        <v>1.7664906127488891</v>
       </c>
       <c r="P106" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q106" s="0">
-        <v>0.014811748200785457</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R106" s="0">
-        <v>0.38363091674939742</v>
+        <v>0.33965648935225412</v>
       </c>
       <c r="S106" s="0">
-        <v>283.97206999999997</v>
+        <v>977.5472566666665</v>
       </c>
       <c r="T106" s="0">
-        <v>2.7857660066999999</v>
+        <v>9.5897385878999994</v>
       </c>
       <c r="U106" s="0">
-        <v>5.1842635669139803</v>
+        <v>6.3041314471440106</v>
       </c>
       <c r="V106" s="0">
-        <v>1.9695579616742591</v>
+        <v>2.7489389101461863</v>
       </c>
       <c r="W106" s="0">
-        <v>0.026044408361122217</v>
+        <v>0.046736079221438992</v>
       </c>
       <c r="X106" s="0">
-        <v>0.020575082605286552</v>
+        <v>0.036921502584936802</v>
       </c>
       <c r="Y106" s="0">
-        <v>0.38902122763279229</v>
+        <v>0.38490752910139864</v>
       </c>
       <c r="Z106" s="0">
-        <v>0.99460557475562539</v>
+        <v>1.872384268876137</v>
       </c>
       <c r="AA106" s="0">
-        <v>0.1739659924267187</v>
+        <v>0.2887351035609752</v>
       </c>
       <c r="AB106" s="0">
-        <v>46860.290590489094</v>
+        <v>103450.15994544343</v>
       </c>
       <c r="AC106" s="0">
-        <v>85119.232903133074</v>
+        <v>169828.24467612707</v>
       </c>
       <c r="AD106" s="0">
-        <v>90000</v>
+        <v>170000</v>
       </c>
       <c r="AE106" s="0">
-        <v>0.53735038173575611</v>
+        <v>1.5211831587433797</v>
       </c>
       <c r="AF106" s="0">
-        <v>1.4144117923454804</v>
+        <v>3.4885237181898758</v>
       </c>
       <c r="AG106" s="0">
-        <v>4.2404108529683642</v>
+        <v>8.4947634589373333</v>
       </c>
       <c r="AH106" s="0">
-        <v>1.9930153192848978</v>
+        <v>10.266486163843485</v>
       </c>
       <c r="AI106" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AJ106" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AK106" s="0">
-        <v>5.6548226453138444</v>
+        <v>11.98328717712721</v>
       </c>
       <c r="AL106" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM106" s="0">
-        <v>0.56799299128708847</v>
+        <v>0.91304641813382137</v>
       </c>
       <c r="AN106" s="0">
-        <v>0.35789627223961823</v>
+        <v>0.53534305753279265</v>
       </c>
       <c r="AO106" s="0">
-        <v>18.077647889052496</v>
+        <v>36.537542213304853</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B107" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C107" s="0">
         <v>90</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E107" s="0">
-        <v>0.0104</v>
+        <v>0.022499999999999999</v>
       </c>
       <c r="F107" s="0">
-        <v>0.055081208080808658</v>
+        <v>0.084877208382143021</v>
       </c>
       <c r="G107" s="0">
-        <v>0.057524501992031914</v>
-      </c>
-      <c r="H107" s="0"/>
+        <v>0.089823412698412708</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0.033987091633466096</v>
+      </c>
       <c r="I107" s="0">
-        <v>0.051852364568764873</v>
+        <v>0.050537904985031676</v>
       </c>
       <c r="J107" s="0">
-        <v>0.042444462151394441</v>
+        <v>0.019133027888446209</v>
       </c>
       <c r="K107" s="0">
         <v>0.002</v>
       </c>
       <c r="L107" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M107" s="0">
-        <v>0.23900269113037298</v>
+        <v>0.3355554830455505</v>
       </c>
       <c r="N107" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O107" s="0">
-        <v>0.91802013468014432</v>
+        <v>1.6975441676428604</v>
       </c>
       <c r="P107" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q107" s="0">
-        <v>0.016773661753535535</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R107" s="0">
-        <v>0.38547599030823115</v>
+        <v>0.35345177547464651</v>
       </c>
       <c r="S107" s="0">
-        <v>181.93077000000002</v>
+        <v>958.70120666666685</v>
       </c>
       <c r="T107" s="0">
-        <v>1.7847408537000002</v>
+        <v>9.4048588374000026</v>
       </c>
       <c r="U107" s="0">
-        <v>3.7253895968744661</v>
+        <v>7.0486387270800837</v>
       </c>
       <c r="V107" s="0">
-        <v>1.406855227636074</v>
+        <v>2.9465044312131794</v>
       </c>
       <c r="W107" s="0">
-        <v>0.02604440836112222</v>
+        <v>0.043565959367306992</v>
       </c>
       <c r="X107" s="0">
-        <v>0.020575082605286555</v>
+        <v>0.034417107900172522</v>
       </c>
       <c r="Y107" s="0">
-        <v>0.3251371232757243</v>
+        <v>0.36773442897787634</v>
       </c>
       <c r="Z107" s="0">
-        <v>0.29998143266861421</v>
+        <v>2.1443691415624633</v>
       </c>
       <c r="AA107" s="0">
-        <v>0.19336134725281046</v>
+        <v>0.27945896763030403</v>
       </c>
       <c r="AB107" s="0">
-        <v>46213.882354016256</v>
+        <v>93773.988874597533</v>
       </c>
       <c r="AC107" s="0">
-        <v>75524.850397197864</v>
+        <v>159053.29896359093</v>
       </c>
       <c r="AD107" s="0">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="AE107" s="0">
-        <v>0.47907495505902664</v>
+        <v>1.3342801640929027</v>
       </c>
       <c r="AF107" s="0">
-        <v>1.268603064935746</v>
+        <v>3.191869911265564</v>
       </c>
       <c r="AG107" s="0">
-        <v>1.0302915402293669</v>
+        <v>7.9788148827886021</v>
       </c>
       <c r="AH107" s="0">
-        <v>0.59905364758270374</v>
+        <v>9.7888924542930607</v>
       </c>
       <c r="AI107" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AJ107" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AK107" s="0">
-        <v>2.2988946051651129</v>
+        <v>11.170684794054166</v>
       </c>
       <c r="AL107" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM107" s="0">
-        <v>0.6401486061666759</v>
+        <v>0.90713769148612056</v>
       </c>
       <c r="AN107" s="0">
-        <v>0.60262329134909287</v>
+        <v>0.54013131834236494</v>
       </c>
       <c r="AO107" s="0">
-        <v>3.2288435120437846</v>
+        <v>34.339303397111344</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B108" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C108" s="0">
         <v>90</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108" s="0">
-        <v>0.0089999999999999993</v>
+        <v>0.02</v>
       </c>
       <c r="F108" s="0">
-        <v>0.043998638312740083</v>
+        <v>0.081098682992011825</v>
       </c>
       <c r="G108" s="0">
-        <v>0.046683346613545812</v>
-      </c>
-      <c r="H108" s="0"/>
+        <v>0.08588345238095231</v>
+      </c>
+      <c r="H108" s="0">
+        <v>0.030483769841269832</v>
+      </c>
       <c r="I108" s="0">
-        <v>0.027961574818155987</v>
+        <v>0.048014681935423874</v>
       </c>
       <c r="J108" s="0">
-        <v>0.018995219123505977</v>
+        <v>0.016600199203187248</v>
       </c>
       <c r="K108" s="0">
         <v>0.002</v>
       </c>
       <c r="L108" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M108" s="0">
-        <v>0.25892630999883459</v>
+        <v>0.31216851818291785</v>
       </c>
       <c r="N108" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O108" s="0">
-        <v>0.73331063854566814</v>
+        <v>1.6219736598402363</v>
       </c>
       <c r="P108" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q108" s="0">
-        <v>0.013271569706825866</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R108" s="0">
-        <v>0.38181761912008183</v>
+        <v>0.36991969404675762</v>
       </c>
       <c r="S108" s="0">
-        <v>220.56758666666664</v>
+        <v>939.75361333333296</v>
       </c>
       <c r="T108" s="0">
-        <v>2.1637680252</v>
+        <v>9.2189829467999971</v>
       </c>
       <c r="U108" s="0">
-        <v>4.8636916952006484</v>
+        <v>7.9833736370260269</v>
       </c>
       <c r="V108" s="0">
-        <v>1.8586571356203279</v>
+        <v>3.1694088496825894</v>
       </c>
       <c r="W108" s="0">
-        <v>0.023651241518095195</v>
+        <v>0.040275932140298593</v>
       </c>
       <c r="X108" s="0">
-        <v>0.018684480799295206</v>
+        <v>0.031817986390835891</v>
       </c>
       <c r="Y108" s="0">
-        <v>0.39411417971235813</v>
+        <v>0.34998360349865287</v>
       </c>
       <c r="Z108" s="0">
-        <v>0.86709890006635126</v>
+        <v>2.358590982707045</v>
       </c>
       <c r="AA108" s="0">
-        <v>0.15835549923643547</v>
+        <v>0.26913731061408669</v>
       </c>
       <c r="AB108" s="0">
-        <v>41002.405085313505</v>
+        <v>84016.19544213514</v>
       </c>
       <c r="AC108" s="0">
-        <v>81820.713959631743</v>
+        <v>147967.87761870306</v>
       </c>
       <c r="AD108" s="0">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="AE108" s="0">
-        <v>0.44488182245086461</v>
+        <v>1.1547728273725468</v>
       </c>
       <c r="AF108" s="0">
-        <v>1.1641566288544341</v>
+        <v>2.9087389428231267</v>
       </c>
       <c r="AG108" s="0">
-        <v>3.3785913892753849</v>
+        <v>7.6550040529600114</v>
       </c>
       <c r="AH108" s="0">
-        <v>1.5874788159503879</v>
+        <v>9.303993095178436</v>
       </c>
       <c r="AI108" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AJ108" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AK108" s="0">
-        <v>4.542748018129819</v>
+        <v>10.563742995783137</v>
       </c>
       <c r="AL108" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM108" s="0">
-        <v>0.52597711061135211</v>
+        <v>0.89834223883698783</v>
       </c>
       <c r="AN108" s="0">
-        <v>0.33426371576454633</v>
+        <v>0.53186581181796988</v>
       </c>
       <c r="AO108" s="0">
-        <v>16.037063494584096</v>
+        <v>33.084001056587951</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B109" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C109" s="0">
         <v>90</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E109" s="0">
-        <v>0.0089999999999999993</v>
+        <v>0.017500000000000002</v>
       </c>
       <c r="F109" s="0">
-        <v>0.045091111773940873</v>
+        <v>0.077084636235735568</v>
       </c>
       <c r="G109" s="0">
-        <v>0.047616626984126977</v>
-      </c>
-      <c r="H109" s="0"/>
+        <v>0.081875674603174617</v>
+      </c>
+      <c r="H109" s="0">
+        <v>0.027313625498007994</v>
+      </c>
       <c r="I109" s="0">
-        <v>0.03703232307692314</v>
+        <v>0.043186029701422553</v>
       </c>
       <c r="J109" s="0">
-        <v>0.026593492063492069</v>
+        <v>0.016256547619047615</v>
       </c>
       <c r="K109" s="0">
         <v>0.002</v>
       </c>
       <c r="L109" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M109" s="0">
-        <v>0.25265300887690811</v>
+        <v>0.28737112628298095</v>
       </c>
       <c r="N109" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O109" s="0">
-        <v>0.75151852956568121</v>
+        <v>1.5416927247147112</v>
       </c>
       <c r="P109" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q109" s="0">
-        <v>0.013616791320565315</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R109" s="0">
-        <v>0.38225814426553267</v>
+        <v>0.38918261102323698</v>
       </c>
       <c r="S109" s="0">
-        <v>183.16765333333339</v>
+        <v>914.90111000000002</v>
       </c>
       <c r="T109" s="0">
-        <v>1.7968746792000005</v>
+        <v>8.9751798890999996</v>
       </c>
       <c r="U109" s="0">
-        <v>4.1345100627141482</v>
+        <v>9.1714615849886698</v>
       </c>
       <c r="V109" s="0">
-        <v>1.577749713830972</v>
+        <v>3.4218528984071219</v>
       </c>
       <c r="W109" s="0">
-        <v>0.023651241518095195</v>
+        <v>0.036845487114373091</v>
       </c>
       <c r="X109" s="0">
-        <v>0.018684480799295206</v>
+        <v>0.029107934820354744</v>
       </c>
       <c r="Y109" s="0">
-        <v>0.37987831174581821</v>
+        <v>0.33046442414991406</v>
       </c>
       <c r="Z109" s="0">
-        <v>0.52344618974522894</v>
+        <v>2.1295515402598717</v>
       </c>
       <c r="AA109" s="0">
-        <v>0.1618845613937826</v>
+        <v>0.25799129203527921</v>
       </c>
       <c r="AB109" s="0">
-        <v>40900.621526857729</v>
+        <v>74139.248163379641</v>
       </c>
       <c r="AC109" s="0">
-        <v>79838.350805102964</v>
+        <v>136213.91385813299</v>
       </c>
       <c r="AD109" s="0">
-        <v>80000</v>
+        <v>140000</v>
       </c>
       <c r="AE109" s="0">
-        <v>0.43460401642375518</v>
+        <v>0.97859864602061553</v>
       </c>
       <c r="AF109" s="0">
-        <v>1.1388844906439348</v>
+        <v>2.6229005616454057</v>
       </c>
       <c r="AG109" s="0">
-        <v>1.9516736034097171</v>
+        <v>7.700706535604068</v>
       </c>
       <c r="AH109" s="0">
-        <v>1.0479351262457191</v>
+        <v>9.0005497451018055</v>
       </c>
       <c r="AI109" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AJ109" s="0" t="s">
         <v>80</v>
       </c>
       <c r="AK109" s="0">
-        <v>3.0905580940536517</v>
+        <v>10.323607097249473</v>
       </c>
       <c r="AL109" s="0">
-        <v>20220510</v>
+        <v>20220513</v>
       </c>
       <c r="AM109" s="0">
-        <v>0.53903697011104013</v>
+        <v>0.88760670009504627</v>
       </c>
       <c r="AN109" s="0">
-        <v>0.44269902520110732</v>
+        <v>0.4972743102303952</v>
       </c>
       <c r="AO109" s="0">
-        <v>8.0587886970177323</v>
+        <v>33.898606534313018</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B110" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C110" s="0">
         <v>90</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E110" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="F110" s="0">
-        <v>0.10468609850183905</v>
+        <v>0.072539307927379421</v>
       </c>
       <c r="G110" s="0">
-        <v>0.10719565737051796</v>
+        <v>0.077388968253968252</v>
       </c>
       <c r="H110" s="0">
-        <v>0.039118525896414354</v>
+        <v>0.023462669322709174</v>
       </c>
       <c r="I110" s="0">
-        <v>0.073246532699381153</v>
+        <v>0.038667699382827075</v>
       </c>
       <c r="J110" s="0">
-        <v>0.024948486055776889</v>
+        <v>0.017576349206349207</v>
       </c>
       <c r="K110" s="0">
         <v>0.002</v>
       </c>
       <c r="L110" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M110" s="0">
-        <v>0.48366413608885789</v>
+        <v>0.26175245276892511</v>
       </c>
       <c r="N110" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O110" s="0">
-        <v>1.7447683083639842</v>
+        <v>1.4507861585475883</v>
       </c>
       <c r="P110" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q110" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R110" s="0">
-        <v>0.22925680050611863</v>
+        <v>0.41356887537490167</v>
       </c>
       <c r="S110" s="0">
-        <v>927.65143000000069</v>
+        <v>868.31389333333334</v>
       </c>
       <c r="T110" s="0">
-        <v>9.1002605283000069</v>
+        <v>8.5181592936000001</v>
       </c>
       <c r="U110" s="0">
-        <v>4.1035309895078953</v>
+        <v>10.491700560527567</v>
       </c>
       <c r="V110" s="0">
-        <v>2.4376823931640312</v>
+        <v>3.6081111818707452</v>
       </c>
       <c r="W110" s="0">
-        <v>0.063934057048509796</v>
+        <v>0.033247049452170697</v>
       </c>
       <c r="X110" s="0">
-        <v>0.050507905068322742</v>
+        <v>0.026265169067214853</v>
       </c>
       <c r="Y110" s="0">
-        <v>0.47727081093364804</v>
+        <v>0.31029126672563928</v>
       </c>
       <c r="Z110" s="0">
-        <v>2.5602730461376333</v>
+        <v>1.6236440966476897</v>
       </c>
       <c r="AA110" s="0">
-        <v>0.33101588402963533</v>
+        <v>0.24513897458876682</v>
       </c>
       <c r="AB110" s="0">
-        <v>160100.51158088315</v>
+        <v>64165.727867868925</v>
       </c>
       <c r="AC110" s="0">
-        <v>152837.8670040791</v>
+        <v>124070.66261247051</v>
       </c>
       <c r="AD110" s="0">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="AE110" s="0">
-        <v>2.2176658471857502</v>
+        <v>0.81189500638699819</v>
       </c>
       <c r="AF110" s="0">
-        <v>3.7331608719084066</v>
+        <v>2.360836145072303</v>
       </c>
       <c r="AG110" s="0">
-        <v>5.8476837842992424</v>
+        <v>7.4617833968789711</v>
       </c>
       <c r="AH110" s="0">
-        <v>6.7710575007128107</v>
+        <v>8.4734520666547493</v>
       </c>
       <c r="AI110" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AJ110" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK110" s="0">
-        <v>9.580844656207649</v>
+        <v>9.8226195419512745</v>
       </c>
       <c r="AL110" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM110" s="0">
-        <v>0.84469193533189357</v>
+        <v>0.87137392141515624</v>
       </c>
       <c r="AN110" s="0">
-        <v>0.59101214342326647</v>
+        <v>0.46449333204347937</v>
       </c>
       <c r="AO110" s="0">
-        <v>31.439565802457896</v>
+        <v>33.871608544552345</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B111" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C111" s="0">
         <v>90</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E111" s="0">
-        <v>0.035000000000000003</v>
+        <v>0.012500000000000001</v>
       </c>
       <c r="F111" s="0">
-        <v>0.098726613363617044</v>
+        <v>0.06762866907232</v>
       </c>
       <c r="G111" s="0">
-        <v>0.10164329365079362</v>
+        <v>0.072217131474103552</v>
       </c>
       <c r="H111" s="0">
-        <v>0.034323134920634928</v>
+        <v>0.019149641434262947</v>
       </c>
       <c r="I111" s="0">
-        <v>0.067127597372702172</v>
+        <v>0.034262947225981</v>
       </c>
       <c r="J111" s="0">
-        <v>0.02508147410358566</v>
+        <v>0.021698015873015876</v>
       </c>
       <c r="K111" s="0">
         <v>0.002</v>
       </c>
       <c r="L111" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M111" s="0">
-        <v>0.44875232684403382</v>
+        <v>0.23396563953086505</v>
       </c>
       <c r="N111" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O111" s="0">
-        <v>1.645443556060284</v>
+        <v>1.3525733814463998</v>
       </c>
       <c r="P111" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q111" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R111" s="0">
-        <v>0.24309554619893944</v>
+        <v>0.44359885255052012</v>
       </c>
       <c r="S111" s="0">
-        <v>910.32197333333329</v>
+        <v>799.90543333333346</v>
       </c>
       <c r="T111" s="0">
-        <v>8.9302585584000003</v>
+        <v>7.8470723010000016</v>
       </c>
       <c r="U111" s="0">
-        <v>4.6778066716070557</v>
+        <v>12.097207821228269</v>
       </c>
       <c r="V111" s="0">
-        <v>2.6799358008384808</v>
+        <v>3.7450806573355537</v>
       </c>
       <c r="W111" s="0">
-        <v>0.058488565005636581</v>
+        <v>0.029441885000322691</v>
       </c>
       <c r="X111" s="0">
-        <v>0.046205966354452899</v>
+        <v>0.023259089150254927</v>
       </c>
       <c r="Y111" s="0">
-        <v>0.4559897600088661</v>
+        <v>0.287244787900021</v>
       </c>
       <c r="Z111" s="0">
-        <v>2.2224451207486329</v>
+        <v>0.98644429795725141</v>
       </c>
       <c r="AA111" s="0">
-        <v>0.31594012737497246</v>
+        <v>0.23096989935477139</v>
       </c>
       <c r="AB111" s="0">
-        <v>141778.86730291933</v>
+        <v>54039.02021491863</v>
       </c>
       <c r="AC111" s="0">
-        <v>141805.73528271471</v>
+        <v>110899.71313763004</v>
       </c>
       <c r="AD111" s="0">
-        <v>140000</v>
+        <v>110000</v>
       </c>
       <c r="AE111" s="0">
-        <v>1.9090696100384197</v>
+        <v>0.64866805770087721</v>
       </c>
       <c r="AF111" s="0">
-        <v>3.3322658533857266</v>
+        <v>2.0953012815971817</v>
       </c>
       <c r="AG111" s="0">
-        <v>5.877341136671788</v>
+        <v>7.0259875996226322</v>
       </c>
       <c r="AH111" s="0">
-        <v>6.5389885625344348</v>
+        <v>7.8422522068549947</v>
       </c>
       <c r="AI111" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AJ111" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK111" s="0">
-        <v>9.2096069900575142</v>
+        <v>9.1212888812198134</v>
       </c>
       <c r="AL111" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM111" s="0">
-        <v>0.83321638133536813</v>
+        <v>0.85129738641077435</v>
       </c>
       <c r="AN111" s="0">
-        <v>0.56653228410276446</v>
+        <v>0.43129574815403515</v>
       </c>
       <c r="AO111" s="0">
-        <v>31.599015990914872</v>
+        <v>33.365721846339</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B112" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C112" s="0">
         <v>90</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E112" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="F112" s="0">
-        <v>0.092194075297225134</v>
+        <v>0.06176659227872211</v>
       </c>
       <c r="G112" s="0">
-        <v>0.095619484126984164</v>
+        <v>0.066397976190476229</v>
       </c>
       <c r="H112" s="0">
-        <v>0.029327301587301589</v>
+        <v>0.014304422310756976</v>
       </c>
       <c r="I112" s="0">
-        <v>0.060882693904510246</v>
+        <v>0.029411715003138737</v>
       </c>
       <c r="J112" s="0">
-        <v>0.029370555555555553</v>
+        <v>0.021029841269841268</v>
       </c>
       <c r="K112" s="0">
         <v>0.002</v>
       </c>
       <c r="L112" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M112" s="0">
-        <v>0.41189939181966895</v>
+        <v>0.20493647748901117</v>
       </c>
       <c r="N112" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O112" s="0">
-        <v>1.5365679216204189</v>
+        <v>1.2353318455744422</v>
       </c>
       <c r="P112" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q112" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R112" s="0">
-        <v>0.26032041563003078</v>
+        <v>0.48569945164895645</v>
       </c>
       <c r="S112" s="0">
-        <v>870.00251333333335</v>
+        <v>710.81846666666661</v>
       </c>
       <c r="T112" s="0">
-        <v>8.5347246557999998</v>
+        <v>6.9731291579999999</v>
       </c>
       <c r="U112" s="0">
-        <v>5.3063864568278643</v>
+        <v>14.011054576074665</v>
       </c>
       <c r="V112" s="0">
-        <v>2.9032613997889127</v>
+        <v>3.7059947477205317</v>
       </c>
       <c r="W112" s="0">
-        <v>0.052776401275214518</v>
+        <v>0.025372247353849832</v>
       </c>
       <c r="X112" s="0">
-        <v>0.041693357007419468</v>
+        <v>0.020044075409541368</v>
       </c>
       <c r="Y112" s="0">
-        <v>0.43311691062185709</v>
+        <v>0.26327398231411936</v>
       </c>
       <c r="Z112" s="0">
-        <v>1.503299801595299</v>
+        <v>0.82706300598849281</v>
       </c>
       <c r="AA112" s="0">
-        <v>0.29899099015263697</v>
+        <v>0.21365664094109166</v>
       </c>
       <c r="AB112" s="0">
-        <v>123154.2070034318</v>
+        <v>43786.039386601769</v>
       </c>
       <c r="AC112" s="0">
-        <v>130160.2078150154</v>
+        <v>97139.890329791291</v>
       </c>
       <c r="AD112" s="0">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="AE112" s="0">
-        <v>1.6083873131437967</v>
+        <v>0.49768767369640715</v>
       </c>
       <c r="AF112" s="0">
-        <v>2.9397024520150108</v>
+        <v>1.8815809607633698</v>
       </c>
       <c r="AG112" s="0">
-        <v>5.8219068386850052</v>
+        <v>6.3361410194537102</v>
       </c>
       <c r="AH112" s="0">
-        <v>6.1861943110314046</v>
+        <v>6.969802353288979</v>
       </c>
       <c r="AI112" s="0">
         <v>22</v>
       </c>
       <c r="AJ112" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK112" s="0">
-        <v>8.7616092907000152</v>
+        <v>8.21772198021708</v>
       </c>
       <c r="AL112" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM112" s="0">
-        <v>0.81749438938239227</v>
+        <v>0.81948720447125178</v>
       </c>
       <c r="AN112" s="0">
-        <v>0.53985313608238683</v>
+        <v>0.39021942473148846</v>
       </c>
       <c r="AO112" s="0">
-        <v>31.311381392714889</v>
+        <v>32.35487727558337</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B113" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C113" s="0">
         <v>90</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E113" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.0074999999999999997</v>
       </c>
       <c r="F113" s="0">
-        <v>0.085127932489450886</v>
+        <v>0.054390842779379098</v>
       </c>
       <c r="G113" s="0">
-        <v>0.088861354581673338</v>
-      </c>
-      <c r="H113" s="0">
-        <v>0.023593306772908391</v>
-      </c>
+        <v>0.05895555555555549</v>
+      </c>
+      <c r="H113" s="0"/>
       <c r="I113" s="0">
-        <v>0.053932106481481473</v>
+        <v>0.024614653858469476</v>
       </c>
       <c r="J113" s="0">
-        <v>0.027442390438247016</v>
+        <v>0.019403625498007965</v>
       </c>
       <c r="K113" s="0">
         <v>0.002</v>
       </c>
       <c r="L113" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M113" s="0">
-        <v>0.37174131562721441</v>
+        <v>0.1745453903809564</v>
       </c>
       <c r="N113" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O113" s="0">
-        <v>1.4187988748241815</v>
+        <v>1.0878168555875818</v>
       </c>
       <c r="P113" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q113" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R113" s="0">
-        <v>0.28192861377167944</v>
+        <v>0.55156343360382221</v>
       </c>
       <c r="S113" s="0">
-        <v>804.21374333333381</v>
+        <v>568.00182666666694</v>
       </c>
       <c r="T113" s="0">
-        <v>7.8893368221000051</v>
+        <v>5.5720979196000027</v>
       </c>
       <c r="U113" s="0">
-        <v>6.0221351438532587</v>
+        <v>15.434182159204026</v>
       </c>
       <c r="V113" s="0">
-        <v>3.1051725614191854</v>
+        <v>3.1037423262587747</v>
       </c>
       <c r="W113" s="0">
-        <v>0.046736079221438992</v>
+        <v>0.020944328725842835</v>
       </c>
       <c r="X113" s="0">
-        <v>0.036921502584936802</v>
+        <v>0.016546019693415841</v>
       </c>
       <c r="Y113" s="0">
-        <v>0.4067900157299234</v>
+        <v>0.23895217399537852</v>
       </c>
       <c r="Z113" s="0">
-        <v>1.3870741807923601</v>
+        <v>0.69988957582696476</v>
       </c>
       <c r="AA113" s="0">
-        <v>0.28013811368137309</v>
+        <v>0.19123115873905017</v>
       </c>
       <c r="AB113" s="0">
-        <v>104138.91093723979</v>
+        <v>33378.51725511015</v>
       </c>
       <c r="AC113" s="0">
-        <v>117470.25573819976</v>
+        <v>82734.515040573329</v>
       </c>
       <c r="AD113" s="0">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="AE113" s="0">
-        <v>1.3100564224555113</v>
+        <v>0.36102320564339951</v>
       </c>
       <c r="AF113" s="0">
-        <v>2.5407080173651511</v>
+        <v>1.7952836717333309</v>
       </c>
       <c r="AG113" s="0">
-        <v>5.7014591652874707</v>
+        <v>5.1792466431076232</v>
       </c>
       <c r="AH113" s="0">
-        <v>5.7894964413564676</v>
+        <v>5.7206233905437802</v>
       </c>
       <c r="AI113" s="0">
         <v>22</v>
       </c>
       <c r="AJ113" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK113" s="0">
-        <v>8.2421671826526222</v>
+        <v>6.9745303148409539</v>
       </c>
       <c r="AL113" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM113" s="0">
-        <v>0.79755536375700131</v>
+        <v>0.76666935548247972</v>
       </c>
       <c r="AN113" s="0">
-        <v>0.50528468794128878</v>
+        <v>0.34695731569454002</v>
       </c>
       <c r="AO113" s="0">
-        <v>31.195826007969412</v>
+        <v>29.776188920909622</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B114" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C114" s="0">
         <v>90</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.037999999999999999</v>
       </c>
       <c r="F114" s="0">
-        <v>0.093865250069766842</v>
+        <v>0.1070998815897214</v>
       </c>
       <c r="G114" s="0">
-        <v>0.095648725099601623</v>
+        <v>0.11209653386454181</v>
       </c>
       <c r="H114" s="0">
-        <v>0.029781349206349277</v>
+        <v>0.053078167330677301</v>
       </c>
       <c r="I114" s="0">
-        <v>0.089937487829834448</v>
+        <v>0.087605660389242265</v>
       </c>
       <c r="J114" s="0">
-        <v>0.07104223107569721</v>
+        <v>0.057185577689243032</v>
       </c>
       <c r="K114" s="0">
         <v>0.002</v>
       </c>
       <c r="L114" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M114" s="0">
-        <v>0.33713828703095222</v>
+        <v>0.44912529415346414</v>
       </c>
       <c r="N114" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O114" s="0">
-        <v>1.5644208344961141</v>
+        <v>2.1419976317944278</v>
       </c>
       <c r="P114" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q114" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R114" s="0">
-        <v>0.25568567688427418</v>
+        <v>0.28011235451150263</v>
       </c>
       <c r="S114" s="0">
-        <v>326.29416999999984</v>
+        <v>912.13429666666627</v>
       </c>
       <c r="T114" s="0">
-        <v>3.2009458076999984</v>
+        <v>8.9480374502999958</v>
       </c>
       <c r="U114" s="0">
-        <v>2.9706660467187613</v>
+        <v>3.7434704859030177</v>
       </c>
       <c r="V114" s="0">
-        <v>1.6457603128587013</v>
+        <v>1.9400094891991735</v>
       </c>
       <c r="W114" s="0">
-        <v>0.046736079221438992</v>
+        <v>0.061784755789736578</v>
       </c>
       <c r="X114" s="0">
-        <v>0.036921502584936802</v>
+        <v>0.048809957073891901</v>
       </c>
       <c r="Y114" s="0">
-        <v>0.35133478566655546</v>
+        <v>0.43816583925885128</v>
       </c>
       <c r="Z114" s="0">
-        <v>0.33301033211907416</v>
+        <v>0.70088443454583338</v>
       </c>
       <c r="AA114" s="0">
-        <v>0.30337009040643909</v>
+        <v>0.33702022070985471</v>
       </c>
       <c r="AB114" s="0">
-        <v>102277.67261605199</v>
+        <v>151364.3057619789</v>
       </c>
       <c r="AC114" s="0">
-        <v>106535.69870178092</v>
+        <v>212885.389428742</v>
       </c>
       <c r="AD114" s="0">
-        <v>110000</v>
+        <v>210000</v>
       </c>
       <c r="AE114" s="0">
-        <v>1.0775178890389217</v>
+        <v>2.3903053287039628</v>
       </c>
       <c r="AF114" s="0">
-        <v>1.9449647574378102</v>
+        <v>4.6123678776404864</v>
       </c>
       <c r="AG114" s="0">
-        <v>0.73055434999804958</v>
+        <v>4.532347946447798</v>
       </c>
       <c r="AH114" s="0">
-        <v>1.2300593943888498</v>
+        <v>8.2861907714772318</v>
       </c>
       <c r="AI114" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ114" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AK114" s="0">
-        <v>2.6755191074358597</v>
+        <v>9.1447158240882835</v>
       </c>
       <c r="AL114" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM114" s="0">
-        <v>0.87941444687161685</v>
+        <v>0.95809022288488721</v>
       </c>
       <c r="AN114" s="0">
-        <v>0.8426156224386554</v>
+        <v>0.78369952835094625</v>
       </c>
       <c r="AO114" s="0">
-        <v>3.9277622399323948</v>
+        <v>19.494221200479139</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B115" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C115" s="0">
         <v>90</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" s="0">
-        <v>0.022499999999999999</v>
+        <v>0.035999999999999997</v>
       </c>
       <c r="F115" s="0">
-        <v>0.090344405362775909</v>
+        <v>0.10444872404657812</v>
       </c>
       <c r="G115" s="0">
-        <v>0.092280517928286815</v>
+        <v>0.10934650793650794</v>
       </c>
       <c r="H115" s="0">
-        <v>0.026447023809523872</v>
+        <v>0.05065382470119522</v>
       </c>
       <c r="I115" s="0">
-        <v>0.08660586246056752</v>
+        <v>0.085466359743700288</v>
       </c>
       <c r="J115" s="0">
-        <v>0.069022828685258955</v>
+        <v>0.054698964143426287</v>
       </c>
       <c r="K115" s="0">
         <v>0.002</v>
       </c>
       <c r="L115" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M115" s="0">
-        <v>0.31524932334064282</v>
+        <v>0.43628699794210141</v>
       </c>
       <c r="N115" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O115" s="0">
-        <v>1.5057400893795985</v>
+        <v>2.0889744809315625</v>
       </c>
       <c r="P115" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q115" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R115" s="0">
-        <v>0.26565009646838167</v>
+        <v>0.2872222736452168</v>
       </c>
       <c r="S115" s="0">
-        <v>311.7836733333333</v>
+        <v>893.49332999999979</v>
       </c>
       <c r="T115" s="0">
-        <v>3.0585978354000001</v>
+        <v>8.7651695672999974</v>
       </c>
       <c r="U115" s="0">
-        <v>3.2464275360412413</v>
+        <v>3.8859519913145255</v>
       </c>
       <c r="V115" s="0">
-        <v>1.7507002657988995</v>
+        <v>1.9742660198977442</v>
       </c>
       <c r="W115" s="0">
-        <v>0.043565959367306985</v>
+        <v>0.059597394089591416</v>
       </c>
       <c r="X115" s="0">
-        <v>0.034417107900172522</v>
+        <v>0.04708194133077722</v>
       </c>
       <c r="Y115" s="0">
-        <v>0.3348644370748094</v>
+        <v>0.43100885953498547</v>
       </c>
       <c r="Z115" s="0">
-        <v>0.31295794071228528</v>
+        <v>0.70978437613072487</v>
       </c>
       <c r="AA115" s="0">
-        <v>0.29410900567915332</v>
+        <v>0.33042227569732063</v>
       </c>
       <c r="AB115" s="0">
-        <v>92717.665028742369</v>
+        <v>144158.9427171814</v>
       </c>
       <c r="AC115" s="0">
-        <v>99618.786175643138</v>
+        <v>206800.03702455605</v>
       </c>
       <c r="AD115" s="0">
-        <v>100000</v>
+        <v>210000</v>
       </c>
       <c r="AE115" s="0">
-        <v>0.9421426480166305</v>
+        <v>2.2556041831939746</v>
       </c>
       <c r="AF115" s="0">
-        <v>1.7470710978639543</v>
+        <v>4.4397104944114805</v>
       </c>
       <c r="AG115" s="0">
-        <v>0.69536000730779501</v>
+        <v>4.4133427533261882</v>
       </c>
       <c r="AH115" s="0">
-        <v>1.1429007798886639</v>
+        <v>7.9601851668685173</v>
       </c>
       <c r="AI115" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ115" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AK115" s="0">
-        <v>2.4424311051717496</v>
+        <v>8.8530532477376696</v>
       </c>
       <c r="AL115" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM115" s="0">
-        <v>0.87233687511511859</v>
+        <v>0.95302196657336158</v>
       </c>
       <c r="AN115" s="0">
-        <v>0.83623869261338291</v>
+        <v>0.77982109386501475</v>
       </c>
       <c r="AO115" s="0">
-        <v>3.7385429022083887</v>
+        <v>18.982364302877837</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B116" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C116" s="0">
         <v>90</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" s="0">
-        <v>0.0275</v>
+        <v>0.034000000000000002</v>
       </c>
       <c r="F116" s="0">
-        <v>0.097476089198010984</v>
+        <v>0.10198616165757381</v>
       </c>
       <c r="G116" s="0">
-        <v>0.099159604743082969</v>
+        <v>0.10664362549800797</v>
       </c>
       <c r="H116" s="0">
-        <v>0.03230466135458171</v>
+        <v>0.048537171314741057</v>
       </c>
       <c r="I116" s="0">
-        <v>0.093257372258320398</v>
+        <v>0.083332087735343285</v>
       </c>
       <c r="J116" s="0">
-        <v>0.072014563492063491</v>
+        <v>0.056251872509960159</v>
       </c>
       <c r="K116" s="0">
         <v>0.002</v>
       </c>
       <c r="L116" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M116" s="0">
-        <v>0.35711451771075758</v>
+        <v>0.42199818077326545</v>
       </c>
       <c r="N116" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O116" s="0">
-        <v>1.6246014866335166</v>
+        <v>2.0397232331514759</v>
       </c>
       <c r="P116" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q116" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R116" s="0">
-        <v>0.24621422748348962</v>
+        <v>0.2941575554213644</v>
       </c>
       <c r="S116" s="0">
-        <v>344.95184333333316</v>
+        <v>869.13908333333268</v>
       </c>
       <c r="T116" s="0">
-        <v>3.3839775830999983</v>
+        <v>8.5262544074999926</v>
       </c>
       <c r="U116" s="0">
-        <v>2.7990079268387036</v>
+        <v>4.0403480577761801</v>
       </c>
       <c r="V116" s="0">
-        <v>1.5903766853586172</v>
+        <v>2.0129561756402885</v>
       </c>
       <c r="W116" s="0">
-        <v>0.049802070556066905</v>
+        <v>0.057369123504737406</v>
       </c>
       <c r="X116" s="0">
-        <v>0.039343635739292858</v>
+        <v>0.045321607568742553</v>
       </c>
       <c r="Y116" s="0">
-        <v>0.36519426923810838</v>
+        <v>0.42189604243066903</v>
       </c>
       <c r="Z116" s="0">
-        <v>0.35891762269349192</v>
+        <v>0.64278543722349657</v>
       </c>
       <c r="AA116" s="0">
-        <v>0.31273035241906599</v>
+        <v>0.32423062823626803</v>
       </c>
       <c r="AB116" s="0">
-        <v>111680.54897765002</v>
+        <v>136824.73526667806</v>
       </c>
       <c r="AC116" s="0">
-        <v>112848.1875965994</v>
+        <v>200027.13768652783</v>
       </c>
       <c r="AD116" s="0">
-        <v>110000</v>
+        <v>200000</v>
       </c>
       <c r="AE116" s="0">
-        <v>1.2089917826427807</v>
+        <v>2.1102772052249557</v>
       </c>
       <c r="AF116" s="0">
-        <v>2.1277836969402872</v>
+        <v>4.2356880446182252</v>
       </c>
       <c r="AG116" s="0">
-        <v>0.78467122586179383</v>
+        <v>4.3370162246968293</v>
       </c>
       <c r="AH116" s="0">
-        <v>1.3537823753713893</v>
+        <v>7.7344199335188026</v>
       </c>
       <c r="AI116" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AJ116" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AK116" s="0">
-        <v>2.9124549228020813</v>
+        <v>8.5727042693150537</v>
       </c>
       <c r="AL116" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM116" s="0">
-        <v>0.88774363456322936</v>
+        <v>0.94986489903751437</v>
       </c>
       <c r="AN116" s="0">
-        <v>0.84932252903829819</v>
+        <v>0.7761271119221389</v>
       </c>
       <c r="AO116" s="0">
-        <v>4.2187169396905864</v>
+        <v>18.65407392223052</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B117" s="0">
-        <v>0.316</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="C117" s="0">
         <v>90</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E117" s="0">
-        <v>0.0275</v>
+        <v>0.032000000000000001</v>
       </c>
       <c r="F117" s="0">
-        <v>0.088667830369185033</v>
+        <v>0.099365606857708608</v>
       </c>
       <c r="G117" s="0">
-        <v>0.092188412698412672</v>
+        <v>0.10416059760956171</v>
       </c>
       <c r="H117" s="0">
-        <v>0.02632567460317459</v>
+        <v>0.046397529880478121</v>
       </c>
       <c r="I117" s="0">
-        <v>0.057423417395941215</v>
+        <v>0.080913113201708201</v>
       </c>
       <c r="J117" s="0">
-        <v>0.02950734126984127</v>
+        <v>0.055461904761904747</v>
       </c>
       <c r="K117" s="0">
         <v>0.002</v>
       </c>
       <c r="L117" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M117" s="0">
-        <v>0.3925902600451599</v>
+        <v>0.40764939091982855</v>
       </c>
       <c r="N117" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O117" s="0">
-        <v>1.4777971728197505</v>
+        <v>1.987312137154172</v>
       </c>
       <c r="P117" s="0">
-        <v>0.39999999999999997</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="Q117" s="0">
-        <v>0.018960000000000001</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R117" s="0">
-        <v>0.27067313928931752</v>
+        <v>0.301915330149998</v>
       </c>
       <c r="S117" s="0">
-        <v>840.81314666666651</v>
+        <v>849.29769333333331</v>
       </c>
       <c r="T117" s="0">
-        <v>8.2483769687999988</v>
+        <v>8.3316103716000001</v>
       </c>
       <c r="U117" s="0">
-        <v>5.6452232566349654</v>
+        <v>4.2309413591500444</v>
       </c>
       <c r="V117" s="0">
-        <v>3.0027939999109177</v>
+        <v>2.0618316777805519</v>
       </c>
       <c r="W117" s="0">
-        <v>0.049802070556066905</v>
+        <v>0.055096700151914792</v>
       </c>
       <c r="X117" s="0">
-        <v>0.039343635739292858</v>
+        <v>0.043526393120012691</v>
       </c>
       <c r="Y117" s="0">
-        <v>0.42094172477538244</v>
+        <v>0.4128898905285055</v>
       </c>
       <c r="Z117" s="0">
-        <v>1.3684538698316666</v>
+        <v>0.61794581423697836</v>
       </c>
       <c r="AA117" s="0">
-        <v>0.28965162284284512</v>
+        <v>0.31757399110567097</v>
       </c>
       <c r="AB117" s="0">
-        <v>113714.40593437516</v>
+        <v>129458.84404620581</v>
       </c>
       <c r="AC117" s="0">
-        <v>124058.52217427053</v>
+        <v>193225.81129599872</v>
       </c>
       <c r="AD117" s="0">
-        <v>120000</v>
+        <v>190000</v>
       </c>
       <c r="AE117" s="0">
-        <v>1.4611250244364533</v>
+        <v>1.96920960712009</v>
       </c>
       <c r="AF117" s="0">
-        <v>2.7469007094874636</v>
+        <v>4.0408780510000311</v>
       </c>
       <c r="AG117" s="0">
-        <v>5.7789213274201323</v>
+        <v>4.2901494175391264</v>
       </c>
       <c r="AH117" s="0">
-        <v>5.9812930225246053</v>
+        <v>7.5307394509640746</v>
       </c>
       <c r="AI117" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AJ117" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK117" s="0">
-        <v>8.525822036907595</v>
+        <v>8.3310274685391583</v>
       </c>
       <c r="AL117" s="0">
-        <v>20220511</v>
+        <v>20220513</v>
       </c>
       <c r="AM117" s="0">
-        <v>0.80752421079263392</v>
+        <v>0.9454683802067807</v>
       </c>
       <c r="AN117" s="0">
-        <v>0.52297208153847874</v>
+        <v>0.76989204308746328</v>
       </c>
       <c r="AO117" s="0">
-        <v>31.244412973243818</v>
+        <v>18.452493656000406</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="B118" s="0">
         <v>0.47399999999999998</v>
@@ -14995,118 +14971,118 @@
         <v>90</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118" s="0">
-        <v>0.0091000000000000004</v>
+        <v>0.028000000000000001</v>
       </c>
       <c r="F118" s="0">
-        <v>0.061358216806668808</v>
+        <v>0.094136853239312451</v>
       </c>
       <c r="G118" s="0">
-        <v>0.06293605577689243</v>
+        <v>0.099096507936507927</v>
       </c>
       <c r="H118" s="0">
-        <v>0.00075059760956175837</v>
+        <v>0.042082222222222201</v>
       </c>
       <c r="I118" s="0">
-        <v>0.028672807499440869</v>
+        <v>0.075922845180381671</v>
       </c>
       <c r="J118" s="0">
-        <v>0.014862936507936507</v>
+        <v>0.056466230158730153</v>
       </c>
       <c r="K118" s="0">
         <v>0.002</v>
       </c>
       <c r="L118" s="0">
-        <v>0.032000000000000001</v>
+        <v>0.027000000000000003</v>
       </c>
       <c r="M118" s="0">
-        <v>0.18773341112677502</v>
+        <v>0.37650544664565216</v>
       </c>
       <c r="N118" s="0">
-        <v>0.033333333333333333</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="O118" s="0">
-        <v>1.0226369467778136</v>
+        <v>1.8827370647862489</v>
       </c>
       <c r="P118" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="Q118" s="0">
-        <v>0.028135794766361012</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="R118" s="0">
-        <v>0.58044271717052931</v>
+        <v>0.31868496733935558</v>
       </c>
       <c r="S118" s="0">
-        <v>726.9624233333335</v>
+        <v>805.57335999999998</v>
       </c>
       <c r="T118" s="0">
-        <v>7.1315013729000016</v>
+        <v>7.9026746615999999</v>
       </c>
       <c r="U118" s="0">
-        <v>14.383634397453806</v>
+        <v>4.7044973303642692</v>
       </c>
       <c r="V118" s="0">
-        <v>2.5319269060667282</v>
+        <v>2.1837814330911707</v>
       </c>
       <c r="W118" s="0">
-        <v>0.023826113057506142</v>
+        <v>0.050403917367331325</v>
       </c>
       <c r="X118" s="0">
-        <v>0.018822629315429853</v>
+        <v>0.039819094720191746</v>
       </c>
       <c r="Y118" s="0">
-        <v>0.24197511384726789</v>
+        <v>0.39179322440229614</v>
       </c>
       <c r="Z118" s="0">
-        <v>1.2667095537288013</v>
+        <v>0.52634127472033154</v>
       </c>
       <c r="AA118" s="0">
-        <v>0.21243395864088677</v>
+        <v>0.3040789650853476</v>
       </c>
       <c r="AB118" s="0">
-        <v>39880.951694817915</v>
+        <v>114487.38656500647</v>
       </c>
       <c r="AC118" s="0">
-        <v>88985.63687409136</v>
+        <v>178463.58171003914</v>
       </c>
       <c r="AD118" s="0">
-        <v>90000</v>
+        <v>180000</v>
       </c>
       <c r="AE118" s="0">
-        <v>0.49580663522443402</v>
+        <v>1.6798127635430282</v>
       </c>
       <c r="AF118" s="0">
-        <v>2.816630036124768</v>
+        <v>3.6188029359759062</v>
       </c>
       <c r="AG118" s="0">
-        <v>13.07544176037395</v>
+        <v>4.2347022316772298</v>
       </c>
       <c r="AH118" s="0">
-        <v>7.1812915260827674</v>
+        <v>7.1950311686745048</v>
       </c>
       <c r="AI118" s="0">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AJ118" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AK118" s="0">
-        <v>15.892071796498719</v>
+        <v>7.853505167653136</v>
       </c>
       <c r="AL118" s="0">
-        <v>20220512</v>
+        <v>20220513</v>
       </c>
       <c r="AM118" s="0">
-        <v>0.73197020079621278</v>
+        <v>0.937581477970719</v>
       </c>
       <c r="AN118" s="0">
-        <v>0.34205102030402906</v>
+        <v>0.75617413315274562</v>
       </c>
       <c r="AO118" s="0">
-        <v>32.685409307227935</v>
+        <v>18.21400805893078</v>
       </c>
     </row>
     <row r="119">
@@ -15123,22 +15099,22 @@
         <v>5</v>
       </c>
       <c r="E119" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.035000000000000003</v>
       </c>
       <c r="F119" s="0">
-        <v>0.10797369668386994</v>
+        <v>0.11432919567160915</v>
       </c>
       <c r="G119" s="0">
-        <v>0.11271448412698412</v>
+        <v>0.1189615873015873</v>
       </c>
       <c r="H119" s="0">
-        <v>0.053651792828685256</v>
+        <v>0.061472310756972133</v>
       </c>
       <c r="I119" s="0">
-        <v>0.065506184967669329</v>
+        <v>0.11028295773345222</v>
       </c>
       <c r="J119" s="0">
-        <v>0.037253174603174601</v>
+        <v>0.090853293650793657</v>
       </c>
       <c r="K119" s="0">
         <v>0.002</v>
@@ -15147,13 +15123,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M119" s="0">
-        <v>0.46893746298832661</v>
+        <v>0.38751079466708949</v>
       </c>
       <c r="N119" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O119" s="0">
-        <v>2.1594739336773987</v>
+        <v>2.286583913432183</v>
       </c>
       <c r="P119" s="0">
         <v>0.59999999999999998</v>
@@ -15162,76 +15138,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R119" s="0">
-        <v>0.27784544682058349</v>
+        <v>0.262400166674572</v>
       </c>
       <c r="S119" s="0">
-        <v>1055.2653</v>
+        <v>448.21691333333331</v>
       </c>
       <c r="T119" s="0">
-        <v>10.352152593000001</v>
+        <v>4.3970079198000001</v>
       </c>
       <c r="U119" s="0">
-        <v>3.9726696781653965</v>
+        <v>2.4709917061883062</v>
       </c>
       <c r="V119" s="0">
-        <v>2.0717758351321245</v>
+        <v>1.3443517211173213</v>
       </c>
       <c r="W119" s="0">
-        <v>0.063934057048509796</v>
+        <v>0.058488565005636581</v>
       </c>
       <c r="X119" s="0">
-        <v>0.050507905068322742</v>
+        <v>0.046205966354452899</v>
       </c>
       <c r="Y119" s="0">
-        <v>0.45563957759050733</v>
+        <v>0.36590700781945229</v>
       </c>
       <c r="Z119" s="0">
-        <v>1.4031614581316256</v>
+        <v>0.32236628747828994</v>
       </c>
       <c r="AA119" s="0">
-        <v>0.33917964673953793</v>
+        <v>0.35466282062026244</v>
       </c>
       <c r="AB119" s="0">
-        <v>159054.04303931576</v>
+        <v>137435.6714574293</v>
       </c>
       <c r="AC119" s="0">
-        <v>222276.35745646682</v>
+        <v>183680.11667220041</v>
       </c>
       <c r="AD119" s="0">
-        <v>220000</v>
+        <v>180000</v>
       </c>
       <c r="AE119" s="0">
-        <v>2.6058427786980491</v>
+        <v>1.7794506994047024</v>
       </c>
       <c r="AF119" s="0">
-        <v>4.996753228536333</v>
+        <v>3.2707273332796771</v>
       </c>
       <c r="AG119" s="0">
-        <v>9.8735690714814925</v>
+        <v>0.94073818190767289</v>
       </c>
       <c r="AH119" s="0">
-        <v>12.446062776187354</v>
+        <v>2.2967624388463332</v>
       </c>
       <c r="AI119" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ119" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AK119" s="0">
-        <v>14.870322300017826</v>
+        <v>4.2114655151873501</v>
       </c>
       <c r="AL119" s="0">
         <v>20220513</v>
       </c>
       <c r="AM119" s="0">
-        <v>0.94768587620730371</v>
+        <v>1.0538363712864034</v>
       </c>
       <c r="AN119" s="0">
-        <v>0.57494823465979716</v>
+        <v>1.016539924993223</v>
       </c>
       <c r="AO119" s="0">
-        <v>42.467511716200612</v>
+        <v>4.0462379381569349</v>
       </c>
     </row>
     <row r="120">
@@ -15248,22 +15224,22 @@
         <v>5</v>
       </c>
       <c r="E120" s="0">
-        <v>0.037499999999999999</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F120" s="0">
-        <v>0.10476005470765586</v>
+        <v>0.10747858277940778</v>
       </c>
       <c r="G120" s="0">
-        <v>0.1093461904761905</v>
+        <v>0.11237179282868531</v>
       </c>
       <c r="H120" s="0">
-        <v>0.050949166666666656</v>
+        <v>0.054657968127490068</v>
       </c>
       <c r="I120" s="0">
-        <v>0.064701720493612308</v>
+        <v>0.10407417313340553</v>
       </c>
       <c r="J120" s="0">
-        <v>0.034616666666666671</v>
+        <v>0.085989083665338653</v>
       </c>
       <c r="K120" s="0">
         <v>0.002</v>
@@ -15272,13 +15248,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M120" s="0">
-        <v>0.45311502139670762</v>
+        <v>0.35332326275872239</v>
       </c>
       <c r="N120" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O120" s="0">
-        <v>2.0952010941531172</v>
+        <v>2.1495716555881552</v>
       </c>
       <c r="P120" s="0">
         <v>0.59999999999999998</v>
@@ -15287,76 +15263,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R120" s="0">
-        <v>0.28636869352271921</v>
+        <v>0.27912537757939071</v>
       </c>
       <c r="S120" s="0">
-        <v>1040.5159000000001</v>
+        <v>400.43339333333324</v>
       </c>
       <c r="T120" s="0">
-        <v>10.207460979000002</v>
+        <v>3.9282515885999993</v>
       </c>
       <c r="U120" s="0">
-        <v>4.1954877585538677</v>
+        <v>2.655439920479969</v>
       </c>
       <c r="V120" s="0">
-        <v>2.1366345470707624</v>
+        <v>1.3799264965928517</v>
       </c>
       <c r="W120" s="0">
-        <v>0.06124158870932573</v>
+        <v>0.052776401275214511</v>
       </c>
       <c r="X120" s="0">
-        <v>0.048380855080367331</v>
+        <v>0.041693357007419468</v>
       </c>
       <c r="Y120" s="0">
-        <v>0.44696765659927834</v>
+        <v>0.34409373310989616</v>
       </c>
       <c r="Z120" s="0">
-        <v>1.4685745106728696</v>
+        <v>0.30008816016926709</v>
       </c>
       <c r="AA120" s="0">
-        <v>0.33120071297999365</v>
+        <v>0.33795701271911716</v>
       </c>
       <c r="AB120" s="0">
-        <v>150072.01814853464</v>
+        <v>119408.07440610952</v>
       </c>
       <c r="AC120" s="0">
-        <v>214776.52014203943</v>
+        <v>167475.22654763443</v>
       </c>
       <c r="AD120" s="0">
-        <v>210000</v>
+        <v>170000</v>
       </c>
       <c r="AE120" s="0">
-        <v>2.4329616879917646</v>
+        <v>1.4793223368766597</v>
       </c>
       <c r="AF120" s="0">
-        <v>4.7773546454137463</v>
+        <v>2.8467107474921054</v>
       </c>
       <c r="AG120" s="0">
-        <v>9.313442529762483</v>
+        <v>0.79151502946658481</v>
       </c>
       <c r="AH120" s="0">
-        <v>11.988240337699203</v>
+        <v>1.856244838070638</v>
       </c>
       <c r="AI120" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ120" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AK120" s="0">
-        <v>14.090797175176229</v>
+        <v>3.6382257769586901</v>
       </c>
       <c r="AL120" s="0">
         <v>20220513</v>
       </c>
       <c r="AM120" s="0">
-        <v>0.941734614932495</v>
+        <v>1.0457515679265883</v>
       </c>
       <c r="AN120" s="0">
-        <v>0.58163247436781851</v>
+        <v>1.0126271385462879</v>
       </c>
       <c r="AO120" s="0">
-        <v>40.058334214043548</v>
+        <v>3.4044096460022488</v>
       </c>
     </row>
     <row r="121">
@@ -15373,18 +15349,22 @@
         <v>5</v>
       </c>
       <c r="E121" s="0">
-        <v>0.035000000000000003</v>
+        <v>0.025000000000000001</v>
       </c>
       <c r="F121" s="0">
-        <v>0.089530639147056612</v>
-      </c>
-      <c r="G121" s="0"/>
-      <c r="H121" s="0"/>
+        <v>0.10031190697975018</v>
+      </c>
+      <c r="G121" s="0">
+        <v>0.10523773809523805</v>
+      </c>
+      <c r="H121" s="0">
+        <v>0.047841587301587364</v>
+      </c>
       <c r="I121" s="0">
-        <v>0.054396489568034806</v>
+        <v>0.097542737563878754</v>
       </c>
       <c r="J121" s="0">
-        <v>0.032194262948207174</v>
+        <v>0.080067689243027887</v>
       </c>
       <c r="K121" s="0">
         <v>0.002</v>
@@ -15393,13 +15373,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M121" s="0">
-        <v>0.49484509314832648</v>
+        <v>0.3154717178952785</v>
       </c>
       <c r="N121" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O121" s="0">
-        <v>1.7906127829411322</v>
+        <v>2.0062381395950033</v>
       </c>
       <c r="P121" s="0">
         <v>0.59999999999999998</v>
@@ -15408,76 +15388,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R121" s="0">
-        <v>0.33508082021758101</v>
+        <v>0.29906718856472397</v>
       </c>
       <c r="S121" s="0">
-        <v>1027.456313333334</v>
+        <v>350.37636333333336</v>
       </c>
       <c r="T121" s="0">
-        <v>10.079346433800007</v>
+        <v>3.4371921243000005</v>
       </c>
       <c r="U121" s="0">
-        <v>3.4735654446308915</v>
+        <v>2.9145036006789535</v>
       </c>
       <c r="V121" s="0">
-        <v>1.5357241248019318</v>
+        <v>1.4319154555522262</v>
       </c>
       <c r="W121" s="0">
-        <v>0.058488565005636588</v>
+        <v>0.046736079221438992</v>
       </c>
       <c r="X121" s="0">
-        <v>0.046205966354452906</v>
+        <v>0.036921502584936802</v>
       </c>
       <c r="Y121" s="0">
-        <v>0.5280182362128466</v>
+        <v>0.31801652209563247</v>
       </c>
       <c r="Z121" s="0">
-        <v>1.5282447117981781</v>
+        <v>0.27832143432619622</v>
       </c>
       <c r="AA121" s="0">
-        <v>0.29194935969656266</v>
+        <v>0.31998587313283572</v>
       </c>
       <c r="AB121" s="0">
-        <v>144469.70809363981</v>
+        <v>100946.49309943634</v>
       </c>
       <c r="AC121" s="0">
-        <v>234556.57415230674</v>
+        <v>149533.59428236203</v>
       </c>
       <c r="AD121" s="0">
-        <v>230000</v>
+        <v>150000</v>
       </c>
       <c r="AE121" s="0">
-        <v>2.9017292446237644</v>
+        <v>1.1793404967828083</v>
       </c>
       <c r="AF121" s="0">
-        <v>6.5632533024770829</v>
+        <v>2.4004155489574126</v>
       </c>
       <c r="AG121" s="0">
-        <v>8.1685843746738325</v>
+        <v>0.64382358168185805</v>
       </c>
       <c r="AH121" s="0">
-        <v>6.3859282628109124</v>
+        <v>1.4423981907178622</v>
       </c>
       <c r="AI121" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ121" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AK121" s="0">
-        <v>14.731837677150915</v>
+        <v>3.0442391306392707</v>
       </c>
       <c r="AL121" s="0">
         <v>20220513</v>
       </c>
       <c r="AM121" s="0">
-        <v>0.82525415597860474</v>
+        <v>1.0369647786750353</v>
       </c>
       <c r="AN121" s="0">
-        <v>0.50140297795632749</v>
+        <v>1.0083387537404036</v>
       </c>
       <c r="AO121" s="0">
-        <v>35.134149579021809</v>
+        <v>2.7691694158714224</v>
       </c>
     </row>
     <row r="122">
@@ -15494,22 +15474,22 @@
         <v>5</v>
       </c>
       <c r="E122" s="0">
-        <v>0.032500000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F122" s="0">
-        <v>0.098422142033231991</v>
+        <v>0.0922511494144303</v>
       </c>
       <c r="G122" s="0">
-        <v>0.10312690476190474</v>
+        <v>0.097113545816733149</v>
       </c>
       <c r="H122" s="0">
-        <v>0.045464701195219122</v>
+        <v>0.040524999999999992</v>
       </c>
       <c r="I122" s="0">
-        <v>0.063247161205848432</v>
+        <v>0.090180103891197946</v>
       </c>
       <c r="J122" s="0">
-        <v>0.029893373015873012</v>
+        <v>0.075222063492063493</v>
       </c>
       <c r="K122" s="0">
         <v>0.002</v>
@@ -15518,13 +15498,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M122" s="0">
-        <v>0.41798765660311027</v>
+        <v>0.27442970474514683</v>
       </c>
       <c r="N122" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O122" s="0">
-        <v>1.9684428406646397</v>
+        <v>1.845022988288606</v>
       </c>
       <c r="P122" s="0">
         <v>0.59999999999999998</v>
@@ -15533,76 +15513,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R122" s="0">
-        <v>0.30480946035365269</v>
+        <v>0.32519920012299897</v>
       </c>
       <c r="S122" s="0">
-        <v>1012.0617933333333</v>
+        <v>297.97217999999992</v>
       </c>
       <c r="T122" s="0">
-        <v>9.9283261926000002</v>
+        <v>2.9231070857999994</v>
       </c>
       <c r="U122" s="0">
-        <v>4.7954655229702725</v>
+        <v>3.2753984458659993</v>
       </c>
       <c r="V122" s="0">
-        <v>2.3175999878974998</v>
+        <v>1.4914727261738254</v>
       </c>
       <c r="W122" s="0">
-        <v>0.055669139803680566</v>
+        <v>0.040275932140298593</v>
       </c>
       <c r="X122" s="0">
-        <v>0.043978620444907648</v>
+        <v>0.031817986390835891</v>
       </c>
       <c r="Y122" s="0">
-        <v>0.42538536762472068</v>
+        <v>0.2884766869342803</v>
       </c>
       <c r="Z122" s="0">
-        <v>1.586037920056256</v>
+        <v>0.2445145566592804</v>
       </c>
       <c r="AA122" s="0">
-        <v>0.31516012591512998</v>
+        <v>0.29914104102159184</v>
       </c>
       <c r="AB122" s="0">
-        <v>131733.04248600634</v>
+        <v>82093.187564711305</v>
       </c>
       <c r="AC122" s="0">
-        <v>198126.14922987428</v>
+        <v>130079.6800491996</v>
       </c>
       <c r="AD122" s="0">
-        <v>200000</v>
+        <v>130000</v>
       </c>
       <c r="AE122" s="0">
-        <v>2.0703571207098315</v>
+        <v>0.89244320473112526</v>
       </c>
       <c r="AF122" s="0">
-        <v>4.283882570092203</v>
+        <v>1.9598796776517942</v>
       </c>
       <c r="AG122" s="0">
-        <v>8.1780775174241942</v>
+        <v>0.48151187101495252</v>
       </c>
       <c r="AH122" s="0">
-        <v>10.997958049892205</v>
+        <v>1.016200800717874</v>
       </c>
       <c r="AI122" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ122" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AK122" s="0">
-        <v>12.461960087516397</v>
+        <v>2.4413915486667466</v>
       </c>
       <c r="AL122" s="0">
         <v>20220513</v>
       </c>
       <c r="AM122" s="0">
-        <v>0.93141803005198542</v>
+        <v>1.0218797771155883</v>
       </c>
       <c r="AN122" s="0">
-        <v>0.59853956721284363</v>
+        <v>0.99893849615474783</v>
       </c>
       <c r="AO122" s="0">
-        <v>35.174980827383557</v>
+        <v>2.0710455232323537</v>
       </c>
     </row>
     <row r="123">
@@ -15619,22 +15599,22 @@
         <v>5</v>
       </c>
       <c r="E123" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="F123" s="0">
-        <v>0.095310447873305545</v>
+        <v>0.08323598732161798</v>
       </c>
       <c r="G123" s="0">
-        <v>0.10004031746031747</v>
+        <v>0.088056626984126959</v>
       </c>
       <c r="H123" s="0">
-        <v>0.04281773809523811</v>
+        <v>0.032300318725099614</v>
       </c>
       <c r="I123" s="0">
-        <v>0.060797748427279169</v>
+        <v>0.081958019844428465</v>
       </c>
       <c r="J123" s="0">
-        <v>0.027523055555555554</v>
+        <v>0.068387450199203184</v>
       </c>
       <c r="K123" s="0">
         <v>0.002</v>
@@ -15643,13 +15623,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M123" s="0">
-        <v>0.39843148775025017</v>
+        <v>0.22811457379349809</v>
       </c>
       <c r="N123" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O123" s="0">
-        <v>1.9062089574661107</v>
+        <v>1.6647197464323595</v>
       </c>
       <c r="P123" s="0">
         <v>0.59999999999999998</v>
@@ -15658,76 +15638,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R123" s="0">
-        <v>0.31476087532269764</v>
+        <v>0.36042102659372699</v>
       </c>
       <c r="S123" s="0">
-        <v>999.39778333333322</v>
+        <v>236.8099866666667</v>
       </c>
       <c r="T123" s="0">
-        <v>9.8040922544999987</v>
+        <v>2.3231059692000002</v>
       </c>
       <c r="U123" s="0">
-        <v>5.2117278907508524</v>
+        <v>3.7674249154413841</v>
       </c>
       <c r="V123" s="0">
-        <v>2.4471806838149428</v>
+        <v>1.541107595009847</v>
       </c>
       <c r="W123" s="0">
-        <v>0.052776401275214518</v>
+        <v>0.033247049452170697</v>
       </c>
       <c r="X123" s="0">
-        <v>0.041693357007419468</v>
+        <v>0.026265169067214853</v>
       </c>
       <c r="Y123" s="0">
-        <v>0.4120490282091806</v>
+        <v>0.2524427839852077</v>
       </c>
       <c r="Z123" s="0">
-        <v>1.6571769049696126</v>
+        <v>0.21155301996919773</v>
       </c>
       <c r="AA123" s="0">
-        <v>0.30713297726573185</v>
+        <v>0.27499574154738976</v>
       </c>
       <c r="AB123" s="0">
-        <v>122371.44906914931</v>
+        <v>62730.536378109769</v>
       </c>
       <c r="AC123" s="0">
-        <v>188856.52519361858</v>
+        <v>108126.3079781181</v>
       </c>
       <c r="AD123" s="0">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="AE123" s="0">
-        <v>1.8811596576059011</v>
+        <v>0.61662966650732298</v>
       </c>
       <c r="AF123" s="0">
-        <v>4.0062805003904609</v>
+        <v>1.507426202247194</v>
       </c>
       <c r="AG123" s="0">
-        <v>8.0240990831027936</v>
+        <v>0.29712360454413067</v>
       </c>
       <c r="AH123" s="0">
-        <v>10.702685794886886</v>
+        <v>0.58078173669846844</v>
       </c>
       <c r="AI123" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ123" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AK123" s="0">
-        <v>12.030379583493254</v>
+        <v>1.8045498067913246</v>
       </c>
       <c r="AL123" s="0">
         <v>20220513</v>
       </c>
       <c r="AM123" s="0">
-        <v>0.92735731832138535</v>
+        <v>0.99986711684527529</v>
       </c>
       <c r="AN123" s="0">
-        <v>0.59155358304943018</v>
+        <v>0.98451561207003679</v>
       </c>
       <c r="AO123" s="0">
-        <v>34.512699446026375</v>
+        <v>1.2779674771895149</v>
       </c>
     </row>
     <row r="124">
@@ -15744,22 +15724,22 @@
         <v>5</v>
       </c>
       <c r="E124" s="0">
-        <v>0.0275</v>
+        <v>0.01</v>
       </c>
       <c r="F124" s="0">
-        <v>0.091882336983008434</v>
+        <v>0.072571962738705836</v>
       </c>
       <c r="G124" s="0">
-        <v>0.096766135458167313</v>
+        <v>0.07726912698412694</v>
       </c>
       <c r="H124" s="0">
-        <v>0.03981693227091631</v>
+        <v>0.022562738095238059</v>
       </c>
       <c r="I124" s="0">
-        <v>0.059633938724454959</v>
+        <v>0.072240789628940205</v>
       </c>
       <c r="J124" s="0">
-        <v>0.025531468253968254</v>
+        <v>0.067074801587301613</v>
       </c>
       <c r="K124" s="0">
         <v>0.002</v>
@@ -15768,13 +15748,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M124" s="0">
-        <v>0.37885547674648101</v>
+        <v>0.17442311562768403</v>
       </c>
       <c r="N124" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O124" s="0">
-        <v>1.8376467396601686</v>
+        <v>1.4514392547741166</v>
       </c>
       <c r="P124" s="0">
         <v>0.59999999999999998</v>
@@ -15783,76 +15763,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R124" s="0">
-        <v>0.3265045381415127</v>
+        <v>0.41338278403761114</v>
       </c>
       <c r="S124" s="0">
-        <v>990.45257333333404</v>
+        <v>173.49796000000001</v>
       </c>
       <c r="T124" s="0">
-        <v>9.7163397444000079</v>
+        <v>1.7020149876000001</v>
       </c>
       <c r="U124" s="0">
-        <v>5.7126445462634949</v>
+        <v>4.7210320649044952</v>
       </c>
       <c r="V124" s="0">
-        <v>2.5912334990617292</v>
+        <v>1.6246004119847903</v>
       </c>
       <c r="W124" s="0">
-        <v>0.049802070556066919</v>
+        <v>0.025372247353849832</v>
       </c>
       <c r="X124" s="0">
-        <v>0.039343635739292865</v>
+        <v>0.020044075409541368</v>
       </c>
       <c r="Y124" s="0">
-        <v>0.39904608077429909</v>
+        <v>0.20672124011746512</v>
       </c>
       <c r="Z124" s="0">
-        <v>1.7002453481055477</v>
+        <v>0.1451956123276521</v>
       </c>
       <c r="AA124" s="0">
-        <v>0.2981707928300133</v>
+        <v>0.24523220009928817</v>
       </c>
       <c r="AB124" s="0">
-        <v>112963.63786949092</v>
+        <v>42774.164393549487</v>
       </c>
       <c r="AC124" s="0">
-        <v>179577.495977832</v>
+        <v>82676.556807522225</v>
       </c>
       <c r="AD124" s="0">
-        <v>180000</v>
+        <v>80000</v>
       </c>
       <c r="AE124" s="0">
-        <v>1.7008479462905206</v>
+        <v>0.36051756569343091</v>
       </c>
       <c r="AF124" s="0">
-        <v>3.7496967169952993</v>
+        <v>1.0476514563483532</v>
       </c>
       <c r="AG124" s="0">
-        <v>7.4976558499189068</v>
+        <v>0.076996754501179945</v>
       </c>
       <c r="AH124" s="0">
-        <v>10.100933154221618</v>
+        <v>0.13506769246767775</v>
       </c>
       <c r="AI124" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ124" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AK124" s="0">
-        <v>11.247352566914206</v>
+        <v>1.1246482108495333</v>
       </c>
       <c r="AL124" s="0">
         <v>20220513</v>
       </c>
       <c r="AM124" s="0">
-        <v>0.92064559854387662</v>
+        <v>0.96284727186125263</v>
       </c>
       <c r="AN124" s="0">
-        <v>0.59752205933396674</v>
+        <v>0.95845343830324714</v>
       </c>
       <c r="AO124" s="0">
-        <v>32.248398258553472</v>
+        <v>0.33117310976563119</v>
       </c>
     </row>
     <row r="125">
@@ -15869,22 +15849,22 @@
         <v>5</v>
       </c>
       <c r="E125" s="0">
-        <v>0.025000000000000001</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F125" s="0">
-        <v>0.088324530637444457</v>
+        <v>0.11134886229305703</v>
       </c>
       <c r="G125" s="0">
-        <v>0.092997808764940293</v>
+        <v>0.11616860557768925</v>
       </c>
       <c r="H125" s="0">
-        <v>0.036750398406374472</v>
+        <v>0.057173067729083656</v>
       </c>
       <c r="I125" s="0">
-        <v>0.051786988424139604</v>
+        <v>0.096647243802746377</v>
       </c>
       <c r="J125" s="0">
-        <v>0.022467689243027892</v>
+        <v>0.068269442231075686</v>
       </c>
       <c r="K125" s="0">
         <v>0.002</v>
@@ -15893,13 +15873,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M125" s="0">
-        <v>0.35828743602558455</v>
+        <v>0.45472320371936292</v>
       </c>
       <c r="N125" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O125" s="0">
-        <v>1.7664906127488891</v>
+        <v>2.2269772458611405</v>
       </c>
       <c r="P125" s="0">
         <v>0.59999999999999998</v>
@@ -15908,76 +15888,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R125" s="0">
-        <v>0.33965648935225412</v>
+        <v>0.26942349820372252</v>
       </c>
       <c r="S125" s="0">
-        <v>977.5472566666665</v>
+        <v>820.59162666666714</v>
       </c>
       <c r="T125" s="0">
-        <v>9.5897385878999994</v>
+        <v>8.0500038576000055</v>
       </c>
       <c r="U125" s="0">
-        <v>6.3041314471440106</v>
+        <v>3.285364091337339</v>
       </c>
       <c r="V125" s="0">
-        <v>2.7489389101461863</v>
+        <v>1.7535368828967393</v>
       </c>
       <c r="W125" s="0">
-        <v>0.046736079221438992</v>
+        <v>0.063934057048509796</v>
       </c>
       <c r="X125" s="0">
-        <v>0.036921502584936802</v>
+        <v>0.050507905068322742</v>
       </c>
       <c r="Y125" s="0">
-        <v>0.38490752910139864</v>
+        <v>0.43508060158979095</v>
       </c>
       <c r="Z125" s="0">
-        <v>1.872384268876137</v>
+        <v>0.56560474860879384</v>
       </c>
       <c r="AA125" s="0">
-        <v>0.2887351035609752</v>
+        <v>0.34745057316077715</v>
       </c>
       <c r="AB125" s="0">
-        <v>103450.15994544343</v>
+        <v>157993.83776179751</v>
       </c>
       <c r="AC125" s="0">
-        <v>169828.24467612707</v>
+        <v>215538.79856297802</v>
       </c>
       <c r="AD125" s="0">
-        <v>170000</v>
+        <v>220000</v>
       </c>
       <c r="AE125" s="0">
-        <v>1.5211831587433797</v>
+        <v>2.4502623252094948</v>
       </c>
       <c r="AF125" s="0">
-        <v>3.4885237181898758</v>
+        <v>4.5907240025096456</v>
       </c>
       <c r="AG125" s="0">
-        <v>8.4947634589373333</v>
+        <v>3.4180821941417556</v>
       </c>
       <c r="AH125" s="0">
-        <v>10.266486163843485</v>
+        <v>6.8979477148681712</v>
       </c>
       <c r="AI125" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AJ125" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AK125" s="0">
-        <v>11.98328717712721</v>
+        <v>8.0088061966514008</v>
       </c>
       <c r="AL125" s="0">
         <v>20220513</v>
       </c>
       <c r="AM125" s="0">
-        <v>0.91304641813382137</v>
+        <v>0.97730972790381665</v>
       </c>
       <c r="AN125" s="0">
-        <v>0.53534305753279265</v>
+        <v>0.84827352160027791</v>
       </c>
       <c r="AO125" s="0">
-        <v>36.537542213304853</v>
+        <v>14.701618490310652</v>
       </c>
     </row>
     <row r="126">
@@ -15994,22 +15974,22 @@
         <v>5</v>
       </c>
       <c r="E126" s="0">
-        <v>0.022499999999999999</v>
+        <v>0.037499999999999999</v>
       </c>
       <c r="F126" s="0">
-        <v>0.084877208382143021</v>
+        <v>0.11094018396640153</v>
       </c>
       <c r="G126" s="0">
-        <v>0.089823412698412708</v>
+        <v>0.11571742063492069</v>
       </c>
       <c r="H126" s="0">
-        <v>0.033987091633466096</v>
+        <v>0.057250039840637472</v>
       </c>
       <c r="I126" s="0">
-        <v>0.050537904985031676</v>
+        <v>0.10084662122351755</v>
       </c>
       <c r="J126" s="0">
-        <v>0.019133027888446209</v>
+        <v>0.075148055555555537</v>
       </c>
       <c r="K126" s="0">
         <v>0.002</v>
@@ -16018,13 +15998,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M126" s="0">
-        <v>0.3355554830455505</v>
+        <v>0.42787340649043482</v>
       </c>
       <c r="N126" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O126" s="0">
-        <v>1.6975441676428604</v>
+        <v>2.2188036793280306</v>
       </c>
       <c r="P126" s="0">
         <v>0.59999999999999998</v>
@@ -16033,76 +16013,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R126" s="0">
-        <v>0.35345177547464651</v>
+        <v>0.27041599290195478</v>
       </c>
       <c r="S126" s="0">
-        <v>958.70120666666685</v>
+        <v>670.06474000000003</v>
       </c>
       <c r="T126" s="0">
-        <v>9.4048588374000026</v>
+        <v>6.5733350994000004</v>
       </c>
       <c r="U126" s="0">
-        <v>7.0486387270800837</v>
+        <v>3.029959564418419</v>
       </c>
       <c r="V126" s="0">
-        <v>2.9465044312131794</v>
+        <v>1.612825731372233</v>
       </c>
       <c r="W126" s="0">
-        <v>0.043565959367306992</v>
+        <v>0.061241588709325723</v>
       </c>
       <c r="X126" s="0">
-        <v>0.034417107900172522</v>
+        <v>0.048380855080367324</v>
       </c>
       <c r="Y126" s="0">
-        <v>0.36773442897787634</v>
+        <v>0.4101439882366763</v>
       </c>
       <c r="Z126" s="0">
-        <v>2.1443691415624633</v>
+        <v>0.4591422241541272</v>
       </c>
       <c r="AA126" s="0">
-        <v>0.27945896763030403</v>
+        <v>0.34645496883195742</v>
       </c>
       <c r="AB126" s="0">
-        <v>93773.988874597533</v>
+        <v>148238.86770966704</v>
       </c>
       <c r="AC126" s="0">
-        <v>159053.29896359093</v>
+        <v>202811.9946764661</v>
       </c>
       <c r="AD126" s="0">
-        <v>160000</v>
+        <v>200000</v>
       </c>
       <c r="AE126" s="0">
-        <v>1.3342801640929027</v>
+        <v>2.1694464759834871</v>
       </c>
       <c r="AF126" s="0">
-        <v>3.191869911265564</v>
+        <v>4.0756635831989367</v>
       </c>
       <c r="AG126" s="0">
-        <v>7.9788148827886021</v>
+        <v>2.3467230570322957</v>
       </c>
       <c r="AH126" s="0">
-        <v>9.7888924542930607</v>
+        <v>5.0714999264530674</v>
       </c>
       <c r="AI126" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AJ126" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AK126" s="0">
-        <v>11.170684794054166</v>
+        <v>6.4223866402312328</v>
       </c>
       <c r="AL126" s="0">
         <v>20220513</v>
       </c>
       <c r="AM126" s="0">
-        <v>0.90713769148612056</v>
+        <v>0.99729053902932141</v>
       </c>
       <c r="AN126" s="0">
-        <v>0.54013131834236494</v>
+        <v>0.90655502491095996</v>
       </c>
       <c r="AO126" s="0">
-        <v>34.339303397111344</v>
+        <v>10.093562742883977</v>
       </c>
     </row>
     <row r="127">
@@ -16119,22 +16099,22 @@
         <v>5</v>
       </c>
       <c r="E127" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F127" s="0">
-        <v>0.081098682992011825</v>
+        <v>0.063079486855808067</v>
       </c>
       <c r="G127" s="0">
-        <v>0.08588345238095231</v>
+        <v>0.068059721115537888</v>
       </c>
       <c r="H127" s="0">
-        <v>0.030483769841269832</v>
+        <v>0.015041872509960115</v>
       </c>
       <c r="I127" s="0">
-        <v>0.048014681935423874</v>
+        <v>0.046587309622242591</v>
       </c>
       <c r="J127" s="0">
-        <v>0.016600199203187248</v>
+        <v>0.042144661354581683</v>
       </c>
       <c r="K127" s="0">
         <v>0.002</v>
@@ -16143,13 +16123,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M127" s="0">
-        <v>0.31216851818291785</v>
+        <v>0.2006710656514441</v>
       </c>
       <c r="N127" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O127" s="0">
-        <v>1.6219736598402363</v>
+        <v>1.2615897371161613</v>
       </c>
       <c r="P127" s="0">
         <v>0.59999999999999998</v>
@@ -16158,76 +16138,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R127" s="0">
-        <v>0.36991969404675762</v>
+        <v>0.47559042559392251</v>
       </c>
       <c r="S127" s="0">
-        <v>939.75361333333296</v>
+        <v>525.02435666666645</v>
       </c>
       <c r="T127" s="0">
-        <v>9.2189829467999971</v>
+        <v>5.1504889388999979</v>
       </c>
       <c r="U127" s="0">
-        <v>7.9833736370260269</v>
+        <v>10.793457717073032</v>
       </c>
       <c r="V127" s="0">
-        <v>3.1694088496825894</v>
+        <v>2.9682591755260899</v>
       </c>
       <c r="W127" s="0">
-        <v>0.040275932140298593</v>
+        <v>0.025372247353849832</v>
       </c>
       <c r="X127" s="0">
-        <v>0.031817986390835891</v>
+        <v>0.020044075409541368</v>
       </c>
       <c r="Y127" s="0">
-        <v>0.34998360349865287</v>
+        <v>0.25509748528334514</v>
       </c>
       <c r="Z127" s="0">
-        <v>2.358590982707045</v>
+        <v>0.29152696736121708</v>
       </c>
       <c r="AA127" s="0">
-        <v>0.26913731061408669</v>
+        <v>0.21757269664325524</v>
       </c>
       <c r="AB127" s="0">
-        <v>84016.19544213514</v>
+        <v>43660.544892060403</v>
       </c>
       <c r="AC127" s="0">
-        <v>147967.87761870306</v>
+        <v>95118.085118784511</v>
       </c>
       <c r="AD127" s="0">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="AE127" s="0">
-        <v>1.1547728273725468</v>
+        <v>0.47718618758778136</v>
       </c>
       <c r="AF127" s="0">
-        <v>2.9087389428231267</v>
+        <v>1.735188416620369</v>
       </c>
       <c r="AG127" s="0">
-        <v>7.6550040529600114</v>
+        <v>3.7662665793720738</v>
       </c>
       <c r="AH127" s="0">
-        <v>9.303993095178436</v>
+        <v>4.783305438606539</v>
       </c>
       <c r="AI127" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ127" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK127" s="0">
-        <v>10.563742995783137</v>
+        <v>5.501454995992443</v>
       </c>
       <c r="AL127" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM127" s="0">
-        <v>0.89834223883698783</v>
+        <v>0.83690601077169702</v>
       </c>
       <c r="AN127" s="0">
-        <v>0.53186581181796988</v>
+        <v>0.6180963319765338</v>
       </c>
       <c r="AO127" s="0">
-        <v>33.084001056587951</v>
+        <v>16.492177233565478</v>
       </c>
     </row>
     <row r="128">
@@ -16244,22 +16224,22 @@
         <v>5</v>
       </c>
       <c r="E128" s="0">
-        <v>0.017500000000000002</v>
+        <v>0.010999999999999999</v>
       </c>
       <c r="F128" s="0">
-        <v>0.077084636235735568</v>
+        <v>0.065225257322575128</v>
       </c>
       <c r="G128" s="0">
-        <v>0.081875674603174617</v>
+        <v>0.069961474103585664</v>
       </c>
       <c r="H128" s="0">
-        <v>0.027313625498007994</v>
+        <v>0.016833466135458153</v>
       </c>
       <c r="I128" s="0">
-        <v>0.043186029701422553</v>
+        <v>0.048288579642925204</v>
       </c>
       <c r="J128" s="0">
-        <v>0.016256547619047615</v>
+        <v>0.043287222222222227</v>
       </c>
       <c r="K128" s="0">
         <v>0.002</v>
@@ -16268,13 +16248,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M128" s="0">
-        <v>0.28737112628298095</v>
+        <v>0.2134763618340243</v>
       </c>
       <c r="N128" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O128" s="0">
-        <v>1.5416927247147112</v>
+        <v>1.3045051464515025</v>
       </c>
       <c r="P128" s="0">
         <v>0.59999999999999998</v>
@@ -16283,76 +16263,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R128" s="0">
-        <v>0.38918261102323698</v>
+        <v>0.4599445250423978</v>
       </c>
       <c r="S128" s="0">
-        <v>914.90111000000002</v>
+        <v>547.43092666666644</v>
       </c>
       <c r="T128" s="0">
-        <v>8.9751798890999996</v>
+        <v>5.3702973905999976</v>
       </c>
       <c r="U128" s="0">
-        <v>9.1714615849886698</v>
+        <v>9.9444415720703248</v>
       </c>
       <c r="V128" s="0">
-        <v>3.4218528984071219</v>
+        <v>2.9003949938919913</v>
       </c>
       <c r="W128" s="0">
-        <v>0.036845487114373091</v>
+        <v>0.027036723532058101</v>
       </c>
       <c r="X128" s="0">
-        <v>0.029107934820354744</v>
+        <v>0.0213590115903259</v>
       </c>
       <c r="Y128" s="0">
-        <v>0.33046442414991406</v>
+        <v>0.26687469036373956</v>
       </c>
       <c r="Z128" s="0">
-        <v>2.1295515402598717</v>
+        <v>0.3080673666557377</v>
       </c>
       <c r="AA128" s="0">
-        <v>0.25799129203527921</v>
+        <v>0.22392492574008405</v>
       </c>
       <c r="AB128" s="0">
-        <v>74139.248163379641</v>
+        <v>47802.678470947205</v>
       </c>
       <c r="AC128" s="0">
-        <v>136213.91385813299</v>
+        <v>101187.79550932751</v>
       </c>
       <c r="AD128" s="0">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="AE128" s="0">
-        <v>0.97859864602061553</v>
+        <v>0.54003006118341146</v>
       </c>
       <c r="AF128" s="0">
-        <v>2.6229005616454057</v>
+        <v>1.8515744930981575</v>
       </c>
       <c r="AG128" s="0">
-        <v>7.700706535604068</v>
+        <v>3.9057011232442362</v>
       </c>
       <c r="AH128" s="0">
-        <v>9.0005497451018055</v>
+        <v>5.0325233206610056</v>
       </c>
       <c r="AI128" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ128" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK128" s="0">
-        <v>10.323607097249473</v>
+        <v>5.7572756163423939</v>
       </c>
       <c r="AL128" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM128" s="0">
-        <v>0.88760670009504627</v>
+        <v>0.84667745890610535</v>
       </c>
       <c r="AN128" s="0">
-        <v>0.4972743102303952</v>
+        <v>0.62682545971507164</v>
       </c>
       <c r="AO128" s="0">
-        <v>33.898606534313018</v>
+        <v>16.936677679649925</v>
       </c>
     </row>
     <row r="129">
@@ -16369,22 +16349,22 @@
         <v>5</v>
       </c>
       <c r="E129" s="0">
-        <v>0.014999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="F129" s="0">
-        <v>0.072539307927379421</v>
+        <v>0.066186746928604753</v>
       </c>
       <c r="G129" s="0">
-        <v>0.077388968253968252</v>
+        <v>0.070924701195219125</v>
       </c>
       <c r="H129" s="0">
-        <v>0.023462669322709174</v>
+        <v>0.018071230158730116</v>
       </c>
       <c r="I129" s="0">
-        <v>0.038667699382827075</v>
+        <v>0.042096684921186928</v>
       </c>
       <c r="J129" s="0">
-        <v>0.017576349206349207</v>
+        <v>0.034548486055776893</v>
       </c>
       <c r="K129" s="0">
         <v>0.002</v>
@@ -16393,13 +16373,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M129" s="0">
-        <v>0.26175245276892511</v>
+        <v>0.22950022659531438</v>
       </c>
       <c r="N129" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O129" s="0">
-        <v>1.4507861585475883</v>
+        <v>1.3237349385720949</v>
       </c>
       <c r="P129" s="0">
         <v>0.59999999999999998</v>
@@ -16408,76 +16388,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R129" s="0">
-        <v>0.41356887537490167</v>
+        <v>0.45326294752574586</v>
       </c>
       <c r="S129" s="0">
-        <v>868.31389333333334</v>
+        <v>679.43345333333309</v>
       </c>
       <c r="T129" s="0">
-        <v>8.5181592936000001</v>
+        <v>6.6652421771999979</v>
       </c>
       <c r="U129" s="0">
-        <v>10.491700560527567</v>
+        <v>10.679018679094449</v>
       </c>
       <c r="V129" s="0">
-        <v>3.6081111818707452</v>
+        <v>3.1921872627517529</v>
       </c>
       <c r="W129" s="0">
-        <v>0.033247049452170697</v>
+        <v>0.028651438672384837</v>
       </c>
       <c r="X129" s="0">
-        <v>0.026265169067214853</v>
+        <v>0.022634636551184022</v>
       </c>
       <c r="Y129" s="0">
-        <v>0.31029126672563928</v>
+        <v>0.28481515668586493</v>
       </c>
       <c r="Z129" s="0">
-        <v>1.6236440966476897</v>
+        <v>0.47133566393443405</v>
       </c>
       <c r="AA129" s="0">
-        <v>0.24513897458876682</v>
+        <v>0.2267520930374535</v>
       </c>
       <c r="AB129" s="0">
-        <v>64165.727867868925</v>
+        <v>52039.656733057389</v>
       </c>
       <c r="AC129" s="0">
-        <v>124070.66261247051</v>
+        <v>108783.10740617901</v>
       </c>
       <c r="AD129" s="0">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="AE129" s="0">
-        <v>0.81189500638699819</v>
+        <v>0.62414369498651268</v>
       </c>
       <c r="AF129" s="0">
-        <v>2.360836145072303</v>
+        <v>2.0879859571441233</v>
       </c>
       <c r="AG129" s="0">
-        <v>7.4617833968789711</v>
+        <v>5.3728442036037851</v>
       </c>
       <c r="AH129" s="0">
-        <v>8.4734520666547493</v>
+        <v>6.4800191626622574</v>
       </c>
       <c r="AI129" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ129" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK129" s="0">
-        <v>9.8226195419512745</v>
+        <v>7.4608301607479088</v>
       </c>
       <c r="AL129" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM129" s="0">
-        <v>0.87137392141515624</v>
+        <v>0.84151985069592206</v>
       </c>
       <c r="AN129" s="0">
-        <v>0.46449333204347937</v>
+        <v>0.53523095866735138</v>
       </c>
       <c r="AO129" s="0">
-        <v>33.871608544552345</v>
+        <v>24.090062007417824</v>
       </c>
     </row>
     <row r="130">
@@ -16494,22 +16474,22 @@
         <v>5</v>
       </c>
       <c r="E130" s="0">
-        <v>0.012500000000000001</v>
+        <v>0.012999999999999999</v>
       </c>
       <c r="F130" s="0">
-        <v>0.06762866907232</v>
+        <v>0.068555392911720706</v>
       </c>
       <c r="G130" s="0">
-        <v>0.072217131474103552</v>
+        <v>0.073181309523809523</v>
       </c>
       <c r="H130" s="0">
-        <v>0.019149641434262947</v>
+        <v>0.019907490039840665</v>
       </c>
       <c r="I130" s="0">
-        <v>0.034262947225981</v>
+        <v>0.046583968202656728</v>
       </c>
       <c r="J130" s="0">
-        <v>0.021698015873015876</v>
+        <v>0.037285816733067731</v>
       </c>
       <c r="K130" s="0">
         <v>0.002</v>
@@ -16518,13 +16498,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M130" s="0">
-        <v>0.23396563953086505</v>
+        <v>0.24003503595584039</v>
       </c>
       <c r="N130" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O130" s="0">
-        <v>1.3525733814463998</v>
+        <v>1.3711078582344141</v>
       </c>
       <c r="P130" s="0">
         <v>0.59999999999999998</v>
@@ -16533,76 +16513,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R130" s="0">
-        <v>0.44359885255052012</v>
+        <v>0.43760233478103205</v>
       </c>
       <c r="S130" s="0">
-        <v>799.90543333333346</v>
+        <v>673.91387000000032</v>
       </c>
       <c r="T130" s="0">
-        <v>7.8470723010000016</v>
+        <v>6.6110950647000033</v>
       </c>
       <c r="U130" s="0">
-        <v>12.097207821228269</v>
+        <v>9.6829073932405638</v>
       </c>
       <c r="V130" s="0">
-        <v>3.7450806573355537</v>
+        <v>3.0626177583120526</v>
       </c>
       <c r="W130" s="0">
-        <v>0.029441885000322691</v>
+        <v>0.030221858756759045</v>
       </c>
       <c r="X130" s="0">
-        <v>0.023259089150254927</v>
+        <v>0.023875268417839646</v>
       </c>
       <c r="Y130" s="0">
-        <v>0.287244787900021</v>
+        <v>0.2926977075174389</v>
       </c>
       <c r="Z130" s="0">
-        <v>0.98644429795725141</v>
+        <v>0.45542875630053881</v>
       </c>
       <c r="AA130" s="0">
-        <v>0.23096989935477139</v>
+        <v>0.23366683347193129</v>
       </c>
       <c r="AB130" s="0">
-        <v>54039.02021491863</v>
+        <v>56088.226774122399</v>
       </c>
       <c r="AC130" s="0">
-        <v>110899.71313763004</v>
+        <v>113776.60704306835</v>
       </c>
       <c r="AD130" s="0">
         <v>110000</v>
       </c>
       <c r="AE130" s="0">
-        <v>0.64866805770087721</v>
+        <v>0.68275929906291077</v>
       </c>
       <c r="AF130" s="0">
-        <v>2.0953012815971817</v>
+        <v>2.1586419156478991</v>
       </c>
       <c r="AG130" s="0">
-        <v>7.0259875996226322</v>
+        <v>5.0400910545858979</v>
       </c>
       <c r="AH130" s="0">
-        <v>7.8422522068549947</v>
+        <v>6.3273307533310996</v>
       </c>
       <c r="AI130" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ130" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK130" s="0">
-        <v>9.1212888812198134</v>
+        <v>7.198732970233797</v>
       </c>
       <c r="AL130" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM130" s="0">
-        <v>0.85129738641077435</v>
+        <v>0.85457248154256471</v>
       </c>
       <c r="AN130" s="0">
-        <v>0.43129574815403515</v>
+        <v>0.58068921519138728</v>
       </c>
       <c r="AO130" s="0">
-        <v>33.365721846339</v>
+        <v>21.971424709063978</v>
       </c>
     </row>
     <row r="131">
@@ -16619,22 +16599,22 @@
         <v>5</v>
       </c>
       <c r="E131" s="0">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="F131" s="0">
-        <v>0.06176659227872211</v>
+        <v>0.070565617723522073</v>
       </c>
       <c r="G131" s="0">
-        <v>0.066397976190476229</v>
+        <v>0.07516398406374504</v>
       </c>
       <c r="H131" s="0">
-        <v>0.014304422310756976</v>
+        <v>0.021518525896414332</v>
       </c>
       <c r="I131" s="0">
-        <v>0.029411715003138737</v>
+        <v>0.048342769865491193</v>
       </c>
       <c r="J131" s="0">
-        <v>0.021029841269841268</v>
+        <v>0.036521115537848613</v>
       </c>
       <c r="K131" s="0">
         <v>0.002</v>
@@ -16643,13 +16623,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M131" s="0">
-        <v>0.20493647748901117</v>
+        <v>0.25113531999075162</v>
       </c>
       <c r="N131" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O131" s="0">
-        <v>1.2353318455744422</v>
+        <v>1.4113123544704413</v>
       </c>
       <c r="P131" s="0">
         <v>0.59999999999999998</v>
@@ -16658,76 +16638,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R131" s="0">
-        <v>0.48569945164895645</v>
+        <v>0.4251362202700581</v>
       </c>
       <c r="S131" s="0">
-        <v>710.81846666666661</v>
+        <v>698.01237333333324</v>
       </c>
       <c r="T131" s="0">
-        <v>6.9731291579999999</v>
+        <v>6.8475013823999999</v>
       </c>
       <c r="U131" s="0">
-        <v>14.011054576074665</v>
+        <v>9.1621666061210849</v>
       </c>
       <c r="V131" s="0">
-        <v>3.7059947477205317</v>
+        <v>3.0278062204307847</v>
       </c>
       <c r="W131" s="0">
-        <v>0.025372247353849832</v>
+        <v>0.031752478244131258</v>
       </c>
       <c r="X131" s="0">
-        <v>0.020044075409541368</v>
+        <v>0.025084457812863694</v>
       </c>
       <c r="Y131" s="0">
-        <v>0.26327398231411936</v>
+        <v>0.30183994928371466</v>
       </c>
       <c r="Z131" s="0">
-        <v>0.82706300598849281</v>
+        <v>0.50594647141464766</v>
       </c>
       <c r="AA131" s="0">
-        <v>0.21365664094109166</v>
+        <v>0.23948004697669883</v>
       </c>
       <c r="AB131" s="0">
-        <v>43786.039386601769</v>
+        <v>60141.898228893493</v>
       </c>
       <c r="AC131" s="0">
-        <v>97139.890329791291</v>
+        <v>119038.14167561627</v>
       </c>
       <c r="AD131" s="0">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="AE131" s="0">
-        <v>0.49768767369640715</v>
+        <v>0.74736704502025786</v>
       </c>
       <c r="AF131" s="0">
-        <v>1.8815809607633698</v>
+        <v>2.2615388449217741</v>
       </c>
       <c r="AG131" s="0">
-        <v>6.3361410194537102</v>
+        <v>5.1356482122116089</v>
       </c>
       <c r="AH131" s="0">
-        <v>6.969802353288979</v>
+        <v>6.5493086258272335</v>
       </c>
       <c r="AI131" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ131" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK131" s="0">
-        <v>8.21772198021708</v>
+        <v>7.3971870571333831</v>
       </c>
       <c r="AL131" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM131" s="0">
-        <v>0.81948720447125178</v>
+        <v>0.8631618177102508</v>
       </c>
       <c r="AN131" s="0">
-        <v>0.39021942473148846</v>
+        <v>0.59133094071018644</v>
       </c>
       <c r="AO131" s="0">
-        <v>32.35487727558337</v>
+        <v>22.222847858030878</v>
       </c>
     </row>
     <row r="132">
@@ -16744,20 +16724,22 @@
         <v>5</v>
       </c>
       <c r="E132" s="0">
-        <v>0.0074999999999999997</v>
+        <v>0.014999999999999999</v>
       </c>
       <c r="F132" s="0">
-        <v>0.054390842779379098</v>
+        <v>0.072061147499617756</v>
       </c>
       <c r="G132" s="0">
-        <v>0.05895555555555549</v>
-      </c>
-      <c r="H132" s="0"/>
+        <v>0.076687649402390382</v>
+      </c>
+      <c r="H132" s="0">
+        <v>0.022732182539682583</v>
+      </c>
       <c r="I132" s="0">
-        <v>0.024614653858469476</v>
+        <v>0.047348256799717298</v>
       </c>
       <c r="J132" s="0">
-        <v>0.019403625498007965</v>
+        <v>0.036763174603174603</v>
       </c>
       <c r="K132" s="0">
         <v>0.002</v>
@@ -16766,13 +16748,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M132" s="0">
-        <v>0.1745453903809564</v>
+        <v>0.26348930638736517</v>
       </c>
       <c r="N132" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O132" s="0">
-        <v>1.0878168555875818</v>
+        <v>1.441222949992355</v>
       </c>
       <c r="P132" s="0">
         <v>0.59999999999999998</v>
@@ -16781,76 +16763,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R132" s="0">
-        <v>0.55156343360382221</v>
+        <v>0.41631310409203698</v>
       </c>
       <c r="S132" s="0">
-        <v>568.00182666666694</v>
+        <v>753.7104899999996</v>
       </c>
       <c r="T132" s="0">
-        <v>5.5720979196000027</v>
+        <v>7.3938999068999962</v>
       </c>
       <c r="U132" s="0">
-        <v>15.434182159204026</v>
+        <v>8.9872997815153699</v>
       </c>
       <c r="V132" s="0">
-        <v>3.1037423262587747</v>
+        <v>3.0618866896722712</v>
       </c>
       <c r="W132" s="0">
-        <v>0.020944328725842835</v>
+        <v>0.033247049452170697</v>
       </c>
       <c r="X132" s="0">
-        <v>0.016546019693415841</v>
+        <v>0.026265169067214853</v>
       </c>
       <c r="Y132" s="0">
-        <v>0.23895217399537852</v>
+        <v>0.31338478237357703</v>
       </c>
       <c r="Z132" s="0">
-        <v>0.69988957582696476</v>
+        <v>0.53674046283062526</v>
       </c>
       <c r="AA132" s="0">
-        <v>0.19123115873905017</v>
+        <v>0.24377239181404881</v>
       </c>
       <c r="AB132" s="0">
-        <v>33378.51725511015</v>
+        <v>64231.41843547274</v>
       </c>
       <c r="AC132" s="0">
-        <v>82734.515040573329</v>
+        <v>124893.93122761109</v>
       </c>
       <c r="AD132" s="0">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="AE132" s="0">
-        <v>0.36102320564339951</v>
+        <v>0.8227053827788634</v>
       </c>
       <c r="AF132" s="0">
-        <v>1.7952836717333309</v>
+        <v>2.4148182660839752</v>
       </c>
       <c r="AG132" s="0">
-        <v>5.1792466431076232</v>
+        <v>5.6953635863029994</v>
       </c>
       <c r="AH132" s="0">
-        <v>5.7206233905437802</v>
+        <v>7.1179066986153741</v>
       </c>
       <c r="AI132" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ132" s="0" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK132" s="0">
-        <v>6.9745303148409539</v>
+        <v>8.1101818523869742</v>
       </c>
       <c r="AL132" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM132" s="0">
-        <v>0.76666935548247972</v>
+        <v>0.86563004903879781</v>
       </c>
       <c r="AN132" s="0">
-        <v>0.34695731569454002</v>
+        <v>0.56876798771013581</v>
       </c>
       <c r="AO132" s="0">
-        <v>29.776188920909622</v>
+        <v>24.712890699900459</v>
       </c>
     </row>
     <row r="133">
@@ -16867,22 +16849,22 @@
         <v>5</v>
       </c>
       <c r="E133" s="0">
-        <v>0.037999999999999999</v>
+        <v>0.016</v>
       </c>
       <c r="F133" s="0">
-        <v>0.1070998815897214</v>
+        <v>0.074078712101503935</v>
       </c>
       <c r="G133" s="0">
-        <v>0.11209653386454181</v>
+        <v>0.078709960159362533</v>
       </c>
       <c r="H133" s="0">
-        <v>0.053078167330677301</v>
+        <v>0.02451063492063487</v>
       </c>
       <c r="I133" s="0">
-        <v>0.087605660389242265</v>
+        <v>0.049559149108355779</v>
       </c>
       <c r="J133" s="0">
-        <v>0.057185577689243032</v>
+        <v>0.038311984126984125</v>
       </c>
       <c r="K133" s="0">
         <v>0.002</v>
@@ -16891,13 +16873,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M133" s="0">
-        <v>0.44912529415346414</v>
+        <v>0.2734006029857915</v>
       </c>
       <c r="N133" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O133" s="0">
-        <v>2.1419976317944278</v>
+        <v>1.4815742420300786</v>
       </c>
       <c r="P133" s="0">
         <v>0.59999999999999998</v>
@@ -16906,76 +16888,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R133" s="0">
-        <v>0.28011235451150263</v>
+        <v>0.4049746431727036</v>
       </c>
       <c r="S133" s="0">
-        <v>912.13429666666627</v>
+        <v>769.40650666666636</v>
       </c>
       <c r="T133" s="0">
-        <v>8.9480374502999958</v>
+        <v>7.5478778303999974</v>
       </c>
       <c r="U133" s="0">
-        <v>3.7434704859030177</v>
+        <v>8.5213337539192082</v>
       </c>
       <c r="V133" s="0">
-        <v>1.9400094891991735</v>
+        <v>3.0170223157563152</v>
       </c>
       <c r="W133" s="0">
-        <v>0.061784755789736578</v>
+        <v>0.034708746150571755</v>
       </c>
       <c r="X133" s="0">
-        <v>0.048809957073891901</v>
+        <v>0.027419909458951688</v>
       </c>
       <c r="Y133" s="0">
-        <v>0.43816583925885128</v>
+        <v>0.32071424687658912</v>
       </c>
       <c r="Z133" s="0">
-        <v>0.70088443454583338</v>
+        <v>0.53815899557344538</v>
       </c>
       <c r="AA133" s="0">
-        <v>0.33702022070985471</v>
+        <v>0.24951966930242825</v>
       </c>
       <c r="AB133" s="0">
-        <v>151364.3057619789</v>
+        <v>68218.82804409918</v>
       </c>
       <c r="AC133" s="0">
-        <v>212885.389428742</v>
+        <v>129591.88581526515</v>
       </c>
       <c r="AD133" s="0">
-        <v>210000</v>
+        <v>130000</v>
       </c>
       <c r="AE133" s="0">
-        <v>2.3903053287039628</v>
+        <v>0.88576249309898347</v>
       </c>
       <c r="AF133" s="0">
-        <v>4.6123678776404864</v>
+        <v>2.5017640045224114</v>
       </c>
       <c r="AG133" s="0">
-        <v>4.532347946447798</v>
+        <v>5.686873240050625</v>
       </c>
       <c r="AH133" s="0">
-        <v>8.2861907714772318</v>
+        <v>7.2781032211797099</v>
       </c>
       <c r="AI133" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AJ133" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AK133" s="0">
-        <v>9.1447158240882835</v>
+        <v>8.1886372445730373</v>
       </c>
       <c r="AL133" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM133" s="0">
-        <v>0.95809022288488721</v>
+        <v>0.87451078510626656</v>
       </c>
       <c r="AN133" s="0">
-        <v>0.78369952835094625</v>
+        <v>0.58505350817332658</v>
       </c>
       <c r="AO133" s="0">
-        <v>19.494221200479139</v>
+        <v>24.519562993148156</v>
       </c>
     </row>
     <row r="134">
@@ -16992,22 +16974,22 @@
         <v>5</v>
       </c>
       <c r="E134" s="0">
-        <v>0.035999999999999997</v>
+        <v>0.032500000000000001</v>
       </c>
       <c r="F134" s="0">
-        <v>0.10444872404657812</v>
+        <v>0.10042450771380815</v>
       </c>
       <c r="G134" s="0">
-        <v>0.10934650793650794</v>
+        <v>0.10529525896414342</v>
       </c>
       <c r="H134" s="0">
-        <v>0.05065382470119522</v>
+        <v>0.047369163346613535</v>
       </c>
       <c r="I134" s="0">
-        <v>0.085466359743700288</v>
+        <v>0.084019848190063917</v>
       </c>
       <c r="J134" s="0">
-        <v>0.054698964143426287</v>
+        <v>0.06184380952380953</v>
       </c>
       <c r="K134" s="0">
         <v>0.002</v>
@@ -17016,13 +16998,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M134" s="0">
-        <v>0.43628699794210141</v>
+        <v>0.40965339480247764</v>
       </c>
       <c r="N134" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O134" s="0">
-        <v>2.0889744809315625</v>
+        <v>2.0084901542761626</v>
       </c>
       <c r="P134" s="0">
         <v>0.59999999999999998</v>
@@ -17031,76 +17013,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R134" s="0">
-        <v>0.2872222736452168</v>
+        <v>0.29873186020980674</v>
       </c>
       <c r="S134" s="0">
-        <v>893.49332999999979</v>
+        <v>798.41305333333344</v>
       </c>
       <c r="T134" s="0">
-        <v>8.7651695672999974</v>
+        <v>7.8324320532000007</v>
       </c>
       <c r="U134" s="0">
-        <v>3.8859519913145255</v>
+        <v>3.9386298614896931</v>
       </c>
       <c r="V134" s="0">
-        <v>1.9742660198977442</v>
+        <v>1.9369275926945981</v>
       </c>
       <c r="W134" s="0">
-        <v>0.059597394089591416</v>
+        <v>0.055669139803680559</v>
       </c>
       <c r="X134" s="0">
-        <v>0.04708194133077722</v>
+        <v>0.043978620444907641</v>
       </c>
       <c r="Y134" s="0">
-        <v>0.43100885953498547</v>
+        <v>0.41272635193241686</v>
       </c>
       <c r="Z134" s="0">
-        <v>0.70978437613072487</v>
+        <v>0.53300538620497939</v>
       </c>
       <c r="AA134" s="0">
-        <v>0.33042227569732063</v>
+        <v>0.32027225080168253</v>
       </c>
       <c r="AB134" s="0">
-        <v>144158.9427171814</v>
+        <v>131200.61480193978</v>
       </c>
       <c r="AC134" s="0">
-        <v>206800.03702455605</v>
+        <v>194175.70913637438</v>
       </c>
       <c r="AD134" s="0">
-        <v>210000</v>
+        <v>190000</v>
       </c>
       <c r="AE134" s="0">
-        <v>2.2556041831939746</v>
+        <v>1.9886184608973561</v>
       </c>
       <c r="AF134" s="0">
-        <v>4.4397104944114805</v>
+        <v>4.0437402424030449</v>
       </c>
       <c r="AG134" s="0">
-        <v>4.4133427533261882</v>
+        <v>3.8140341252919621</v>
       </c>
       <c r="AH134" s="0">
-        <v>7.9601851668685173</v>
+        <v>6.9304900037962183</v>
       </c>
       <c r="AI134" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ134" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AK134" s="0">
-        <v>8.8530532477376696</v>
+        <v>7.8577743676950069</v>
       </c>
       <c r="AL134" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM134" s="0">
-        <v>0.95302196657336158</v>
+        <v>0.95036741947917569</v>
       </c>
       <c r="AN134" s="0">
-        <v>0.77982109386501475</v>
+        <v>0.79512190925526416</v>
       </c>
       <c r="AO134" s="0">
-        <v>18.982364302877837</v>
+        <v>16.404659523744229</v>
       </c>
     </row>
     <row r="135">
@@ -17117,22 +17099,22 @@
         <v>5</v>
       </c>
       <c r="E135" s="0">
-        <v>0.034000000000000002</v>
+        <v>0.022499999999999999</v>
       </c>
       <c r="F135" s="0">
-        <v>0.10198616165757381</v>
+        <v>0.091685098870055659</v>
       </c>
       <c r="G135" s="0">
-        <v>0.10664362549800797</v>
+        <v>0.096336573705179243</v>
       </c>
       <c r="H135" s="0">
-        <v>0.048537171314741057</v>
+        <v>0.039745498007968193</v>
       </c>
       <c r="I135" s="0">
-        <v>0.083332087735343285</v>
+        <v>0.085760704986489869</v>
       </c>
       <c r="J135" s="0">
-        <v>0.056251872509960159</v>
+        <v>0.064522420634920627</v>
       </c>
       <c r="K135" s="0">
         <v>0.002</v>
@@ -17141,13 +17123,13 @@
         <v>0.027000000000000003</v>
       </c>
       <c r="M135" s="0">
-        <v>0.42199818077326545</v>
+        <v>0.31063949332261387</v>
       </c>
       <c r="N135" s="0">
         <v>0.040000000000000001</v>
       </c>
       <c r="O135" s="0">
-        <v>2.0397232331514759</v>
+        <v>1.8337019774011132</v>
       </c>
       <c r="P135" s="0">
         <v>0.59999999999999998</v>
@@ -17156,3076 +17138,76 @@
         <v>0.023699999999999999</v>
       </c>
       <c r="R135" s="0">
-        <v>0.2941575554213644</v>
+        <v>0.32720693296648662</v>
       </c>
       <c r="S135" s="0">
-        <v>869.13908333333268</v>
+        <v>437.47540999999961</v>
       </c>
       <c r="T135" s="0">
-        <v>8.5262544074999926</v>
+        <v>4.2916337720999964</v>
       </c>
       <c r="U135" s="0">
-        <v>4.0403480577761801</v>
+        <v>3.7531071670812155</v>
       </c>
       <c r="V135" s="0">
-        <v>2.0129561756402885</v>
+        <v>1.6988458771985808</v>
       </c>
       <c r="W135" s="0">
-        <v>0.057369123504737406</v>
+        <v>0.043565959367306985</v>
       </c>
       <c r="X135" s="0">
-        <v>0.045321607568742553</v>
+        <v>0.034417107900172522</v>
       </c>
       <c r="Y135" s="0">
-        <v>0.42189604243066903</v>
+        <v>0.32754636689686001</v>
       </c>
       <c r="Z135" s="0">
-        <v>0.64278543722349657</v>
+        <v>0.34626542393106013</v>
       </c>
       <c r="AA135" s="0">
-        <v>0.32423062823626803</v>
+        <v>0.29765130790118155</v>
       </c>
       <c r="AB135" s="0">
-        <v>136824.73526667806</v>
+        <v>92462.251473236378</v>
       </c>
       <c r="AC135" s="0">
-        <v>200027.13768652783</v>
+        <v>147243.11983491897</v>
       </c>
       <c r="AD135" s="0">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="AE135" s="0">
-        <v>2.1102772052249557</v>
+        <v>1.1434882035190037</v>
       </c>
       <c r="AF135" s="0">
-        <v>4.2356880446182252</v>
+        <v>2.5262054843827015</v>
       </c>
       <c r="AG135" s="0">
-        <v>4.3370162246968293</v>
+        <v>1.3774038047473953</v>
       </c>
       <c r="AH135" s="0">
-        <v>7.7344199335188026</v>
+        <v>2.7271479806355914</v>
       </c>
       <c r="AI135" s="0">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ135" s="0" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AK135" s="0">
-        <v>8.5727042693150537</v>
+        <v>3.9036092891300971</v>
       </c>
       <c r="AL135" s="0">
-        <v>20220513</v>
+        <v>20220516</v>
       </c>
       <c r="AM135" s="0">
-        <v>0.94986489903751437</v>
+        <v>0.97989802584220032</v>
       </c>
       <c r="AN135" s="0">
-        <v>0.7761271119221389</v>
+        <v>0.91658019183903794</v>
       </c>
       <c r="AO135" s="0">
-        <v>18.65407392223052</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B136" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C136" s="0">
-        <v>90</v>
-      </c>
-      <c r="D136" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="F136" s="0">
-        <v>0.099365606857708608</v>
-      </c>
-      <c r="G136" s="0">
-        <v>0.10416059760956171</v>
-      </c>
-      <c r="H136" s="0">
-        <v>0.046397529880478121</v>
-      </c>
-      <c r="I136" s="0">
-        <v>0.080913113201708201</v>
-      </c>
-      <c r="J136" s="0">
-        <v>0.055461904761904747</v>
-      </c>
-      <c r="K136" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L136" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M136" s="0">
-        <v>0.40764939091982855</v>
-      </c>
-      <c r="N136" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O136" s="0">
-        <v>1.987312137154172</v>
-      </c>
-      <c r="P136" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q136" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R136" s="0">
-        <v>0.301915330149998</v>
-      </c>
-      <c r="S136" s="0">
-        <v>849.29769333333331</v>
-      </c>
-      <c r="T136" s="0">
-        <v>8.3316103716000001</v>
-      </c>
-      <c r="U136" s="0">
-        <v>4.2309413591500444</v>
-      </c>
-      <c r="V136" s="0">
-        <v>2.0618316777805519</v>
-      </c>
-      <c r="W136" s="0">
-        <v>0.055096700151914792</v>
-      </c>
-      <c r="X136" s="0">
-        <v>0.043526393120012691</v>
-      </c>
-      <c r="Y136" s="0">
-        <v>0.4128898905285055</v>
-      </c>
-      <c r="Z136" s="0">
-        <v>0.61794581423697836</v>
-      </c>
-      <c r="AA136" s="0">
-        <v>0.31757399110567097</v>
-      </c>
-      <c r="AB136" s="0">
-        <v>129458.84404620581</v>
-      </c>
-      <c r="AC136" s="0">
-        <v>193225.81129599872</v>
-      </c>
-      <c r="AD136" s="0">
-        <v>190000</v>
-      </c>
-      <c r="AE136" s="0">
-        <v>1.96920960712009</v>
-      </c>
-      <c r="AF136" s="0">
-        <v>4.0408780510000311</v>
-      </c>
-      <c r="AG136" s="0">
-        <v>4.2901494175391264</v>
-      </c>
-      <c r="AH136" s="0">
-        <v>7.5307394509640746</v>
-      </c>
-      <c r="AI136" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ136" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK136" s="0">
-        <v>8.3310274685391583</v>
-      </c>
-      <c r="AL136" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM136" s="0">
-        <v>0.9454683802067807</v>
-      </c>
-      <c r="AN136" s="0">
-        <v>0.76989204308746328</v>
-      </c>
-      <c r="AO136" s="0">
-        <v>18.452493656000406</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B137" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C137" s="0">
-        <v>90</v>
-      </c>
-      <c r="D137" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="0">
-        <v>0.028000000000000001</v>
-      </c>
-      <c r="F137" s="0">
-        <v>0.094136853239312451</v>
-      </c>
-      <c r="G137" s="0">
-        <v>0.099096507936507927</v>
-      </c>
-      <c r="H137" s="0">
-        <v>0.042082222222222201</v>
-      </c>
-      <c r="I137" s="0">
-        <v>0.075922845180381671</v>
-      </c>
-      <c r="J137" s="0">
-        <v>0.056466230158730153</v>
-      </c>
-      <c r="K137" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L137" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M137" s="0">
-        <v>0.37650544664565216</v>
-      </c>
-      <c r="N137" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O137" s="0">
-        <v>1.8827370647862489</v>
-      </c>
-      <c r="P137" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q137" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R137" s="0">
-        <v>0.31868496733935558</v>
-      </c>
-      <c r="S137" s="0">
-        <v>805.57335999999998</v>
-      </c>
-      <c r="T137" s="0">
-        <v>7.9026746615999999</v>
-      </c>
-      <c r="U137" s="0">
-        <v>4.7044973303642692</v>
-      </c>
-      <c r="V137" s="0">
-        <v>2.1837814330911707</v>
-      </c>
-      <c r="W137" s="0">
-        <v>0.050403917367331325</v>
-      </c>
-      <c r="X137" s="0">
-        <v>0.039819094720191746</v>
-      </c>
-      <c r="Y137" s="0">
-        <v>0.39179322440229614</v>
-      </c>
-      <c r="Z137" s="0">
-        <v>0.52634127472033154</v>
-      </c>
-      <c r="AA137" s="0">
-        <v>0.3040789650853476</v>
-      </c>
-      <c r="AB137" s="0">
-        <v>114487.38656500647</v>
-      </c>
-      <c r="AC137" s="0">
-        <v>178463.58171003914</v>
-      </c>
-      <c r="AD137" s="0">
-        <v>180000</v>
-      </c>
-      <c r="AE137" s="0">
-        <v>1.6798127635430282</v>
-      </c>
-      <c r="AF137" s="0">
-        <v>3.6188029359759062</v>
-      </c>
-      <c r="AG137" s="0">
-        <v>4.2347022316772298</v>
-      </c>
-      <c r="AH137" s="0">
-        <v>7.1950311686745048</v>
-      </c>
-      <c r="AI137" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ137" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK137" s="0">
-        <v>7.853505167653136</v>
-      </c>
-      <c r="AL137" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM137" s="0">
-        <v>0.937581477970719</v>
-      </c>
-      <c r="AN137" s="0">
-        <v>0.75617413315274562</v>
-      </c>
-      <c r="AO137" s="0">
-        <v>18.21400805893078</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B138" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C138" s="0">
-        <v>90</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="0">
-        <v>0.035000000000000003</v>
-      </c>
-      <c r="F138" s="0">
-        <v>0.11432919567160915</v>
-      </c>
-      <c r="G138" s="0">
-        <v>0.1189615873015873</v>
-      </c>
-      <c r="H138" s="0">
-        <v>0.061472310756972133</v>
-      </c>
-      <c r="I138" s="0">
-        <v>0.11028295773345222</v>
-      </c>
-      <c r="J138" s="0">
-        <v>0.090853293650793657</v>
-      </c>
-      <c r="K138" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L138" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M138" s="0">
-        <v>0.38751079466708949</v>
-      </c>
-      <c r="N138" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O138" s="0">
-        <v>2.286583913432183</v>
-      </c>
-      <c r="P138" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q138" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R138" s="0">
-        <v>0.262400166674572</v>
-      </c>
-      <c r="S138" s="0">
-        <v>448.21691333333331</v>
-      </c>
-      <c r="T138" s="0">
-        <v>4.3970079198000001</v>
-      </c>
-      <c r="U138" s="0">
-        <v>2.4709917061883062</v>
-      </c>
-      <c r="V138" s="0">
-        <v>1.3443517211173213</v>
-      </c>
-      <c r="W138" s="0">
-        <v>0.058488565005636581</v>
-      </c>
-      <c r="X138" s="0">
-        <v>0.046205966354452899</v>
-      </c>
-      <c r="Y138" s="0">
-        <v>0.36590700781945229</v>
-      </c>
-      <c r="Z138" s="0">
-        <v>0.32236628747828994</v>
-      </c>
-      <c r="AA138" s="0">
-        <v>0.35466282062026244</v>
-      </c>
-      <c r="AB138" s="0">
-        <v>137435.6714574293</v>
-      </c>
-      <c r="AC138" s="0">
-        <v>183680.11667220041</v>
-      </c>
-      <c r="AD138" s="0">
-        <v>180000</v>
-      </c>
-      <c r="AE138" s="0">
-        <v>1.7794506994047024</v>
-      </c>
-      <c r="AF138" s="0">
-        <v>3.2707273332796771</v>
-      </c>
-      <c r="AG138" s="0">
-        <v>0.94073818190767289</v>
-      </c>
-      <c r="AH138" s="0">
-        <v>2.2967624388463332</v>
-      </c>
-      <c r="AI138" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ138" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK138" s="0">
-        <v>4.2114655151873501</v>
-      </c>
-      <c r="AL138" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM138" s="0">
-        <v>1.0538363712864034</v>
-      </c>
-      <c r="AN138" s="0">
-        <v>1.016539924993223</v>
-      </c>
-      <c r="AO138" s="0">
-        <v>4.0462379381569349</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B139" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C139" s="0">
-        <v>90</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="F139" s="0">
-        <v>0.10747858277940778</v>
-      </c>
-      <c r="G139" s="0">
-        <v>0.11237179282868531</v>
-      </c>
-      <c r="H139" s="0">
-        <v>0.054657968127490068</v>
-      </c>
-      <c r="I139" s="0">
-        <v>0.10407417313340553</v>
-      </c>
-      <c r="J139" s="0">
-        <v>0.085989083665338653</v>
-      </c>
-      <c r="K139" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L139" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M139" s="0">
-        <v>0.35332326275872239</v>
-      </c>
-      <c r="N139" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O139" s="0">
-        <v>2.1495716555881552</v>
-      </c>
-      <c r="P139" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q139" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R139" s="0">
-        <v>0.27912537757939071</v>
-      </c>
-      <c r="S139" s="0">
-        <v>400.43339333333324</v>
-      </c>
-      <c r="T139" s="0">
-        <v>3.9282515885999993</v>
-      </c>
-      <c r="U139" s="0">
-        <v>2.655439920479969</v>
-      </c>
-      <c r="V139" s="0">
-        <v>1.3799264965928517</v>
-      </c>
-      <c r="W139" s="0">
-        <v>0.052776401275214511</v>
-      </c>
-      <c r="X139" s="0">
-        <v>0.041693357007419468</v>
-      </c>
-      <c r="Y139" s="0">
-        <v>0.34409373310989616</v>
-      </c>
-      <c r="Z139" s="0">
-        <v>0.30008816016926709</v>
-      </c>
-      <c r="AA139" s="0">
-        <v>0.33795701271911716</v>
-      </c>
-      <c r="AB139" s="0">
-        <v>119408.07440610952</v>
-      </c>
-      <c r="AC139" s="0">
-        <v>167475.22654763443</v>
-      </c>
-      <c r="AD139" s="0">
-        <v>170000</v>
-      </c>
-      <c r="AE139" s="0">
-        <v>1.4793223368766597</v>
-      </c>
-      <c r="AF139" s="0">
-        <v>2.8467107474921054</v>
-      </c>
-      <c r="AG139" s="0">
-        <v>0.79151502946658481</v>
-      </c>
-      <c r="AH139" s="0">
-        <v>1.856244838070638</v>
-      </c>
-      <c r="AI139" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ139" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK139" s="0">
-        <v>3.6382257769586901</v>
-      </c>
-      <c r="AL139" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM139" s="0">
-        <v>1.0457515679265883</v>
-      </c>
-      <c r="AN139" s="0">
-        <v>1.0126271385462879</v>
-      </c>
-      <c r="AO139" s="0">
-        <v>3.4044096460022488</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B140" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C140" s="0">
-        <v>90</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="0">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="F140" s="0">
-        <v>0.10031190697975018</v>
-      </c>
-      <c r="G140" s="0">
-        <v>0.10523773809523805</v>
-      </c>
-      <c r="H140" s="0">
-        <v>0.047841587301587364</v>
-      </c>
-      <c r="I140" s="0">
-        <v>0.097542737563878754</v>
-      </c>
-      <c r="J140" s="0">
-        <v>0.080067689243027887</v>
-      </c>
-      <c r="K140" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L140" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M140" s="0">
-        <v>0.3154717178952785</v>
-      </c>
-      <c r="N140" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O140" s="0">
-        <v>2.0062381395950033</v>
-      </c>
-      <c r="P140" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q140" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R140" s="0">
-        <v>0.29906718856472397</v>
-      </c>
-      <c r="S140" s="0">
-        <v>350.37636333333336</v>
-      </c>
-      <c r="T140" s="0">
-        <v>3.4371921243000005</v>
-      </c>
-      <c r="U140" s="0">
-        <v>2.9145036006789535</v>
-      </c>
-      <c r="V140" s="0">
-        <v>1.4319154555522262</v>
-      </c>
-      <c r="W140" s="0">
-        <v>0.046736079221438992</v>
-      </c>
-      <c r="X140" s="0">
-        <v>0.036921502584936802</v>
-      </c>
-      <c r="Y140" s="0">
-        <v>0.31801652209563247</v>
-      </c>
-      <c r="Z140" s="0">
-        <v>0.27832143432619622</v>
-      </c>
-      <c r="AA140" s="0">
-        <v>0.31998587313283572</v>
-      </c>
-      <c r="AB140" s="0">
-        <v>100946.49309943634</v>
-      </c>
-      <c r="AC140" s="0">
-        <v>149533.59428236203</v>
-      </c>
-      <c r="AD140" s="0">
-        <v>150000</v>
-      </c>
-      <c r="AE140" s="0">
-        <v>1.1793404967828083</v>
-      </c>
-      <c r="AF140" s="0">
-        <v>2.4004155489574126</v>
-      </c>
-      <c r="AG140" s="0">
-        <v>0.64382358168185805</v>
-      </c>
-      <c r="AH140" s="0">
-        <v>1.4423981907178622</v>
-      </c>
-      <c r="AI140" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ140" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK140" s="0">
-        <v>3.0442391306392707</v>
-      </c>
-      <c r="AL140" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM140" s="0">
-        <v>1.0369647786750353</v>
-      </c>
-      <c r="AN140" s="0">
-        <v>1.0083387537404036</v>
-      </c>
-      <c r="AO140" s="0">
-        <v>2.7691694158714224</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B141" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C141" s="0">
-        <v>90</v>
-      </c>
-      <c r="D141" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="F141" s="0">
-        <v>0.0922511494144303</v>
-      </c>
-      <c r="G141" s="0">
-        <v>0.097113545816733149</v>
-      </c>
-      <c r="H141" s="0">
-        <v>0.040524999999999992</v>
-      </c>
-      <c r="I141" s="0">
-        <v>0.090180103891197946</v>
-      </c>
-      <c r="J141" s="0">
-        <v>0.075222063492063493</v>
-      </c>
-      <c r="K141" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L141" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M141" s="0">
-        <v>0.27442970474514683</v>
-      </c>
-      <c r="N141" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O141" s="0">
-        <v>1.845022988288606</v>
-      </c>
-      <c r="P141" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q141" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R141" s="0">
-        <v>0.32519920012299897</v>
-      </c>
-      <c r="S141" s="0">
-        <v>297.97217999999992</v>
-      </c>
-      <c r="T141" s="0">
-        <v>2.9231070857999994</v>
-      </c>
-      <c r="U141" s="0">
-        <v>3.2753984458659993</v>
-      </c>
-      <c r="V141" s="0">
-        <v>1.4914727261738254</v>
-      </c>
-      <c r="W141" s="0">
-        <v>0.040275932140298593</v>
-      </c>
-      <c r="X141" s="0">
-        <v>0.031817986390835891</v>
-      </c>
-      <c r="Y141" s="0">
-        <v>0.2884766869342803</v>
-      </c>
-      <c r="Z141" s="0">
-        <v>0.2445145566592804</v>
-      </c>
-      <c r="AA141" s="0">
-        <v>0.29914104102159184</v>
-      </c>
-      <c r="AB141" s="0">
-        <v>82093.187564711305</v>
-      </c>
-      <c r="AC141" s="0">
-        <v>130079.6800491996</v>
-      </c>
-      <c r="AD141" s="0">
-        <v>130000</v>
-      </c>
-      <c r="AE141" s="0">
-        <v>0.89244320473112526</v>
-      </c>
-      <c r="AF141" s="0">
-        <v>1.9598796776517942</v>
-      </c>
-      <c r="AG141" s="0">
-        <v>0.48151187101495252</v>
-      </c>
-      <c r="AH141" s="0">
-        <v>1.016200800717874</v>
-      </c>
-      <c r="AI141" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ141" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK141" s="0">
-        <v>2.4413915486667466</v>
-      </c>
-      <c r="AL141" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM141" s="0">
-        <v>1.0218797771155883</v>
-      </c>
-      <c r="AN141" s="0">
-        <v>0.99893849615474783</v>
-      </c>
-      <c r="AO141" s="0">
-        <v>2.0710455232323537</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B142" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C142" s="0">
-        <v>90</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E142" s="0">
-        <v>0.014999999999999999</v>
-      </c>
-      <c r="F142" s="0">
-        <v>0.08323598732161798</v>
-      </c>
-      <c r="G142" s="0">
-        <v>0.088056626984126959</v>
-      </c>
-      <c r="H142" s="0">
-        <v>0.032300318725099614</v>
-      </c>
-      <c r="I142" s="0">
-        <v>0.081958019844428465</v>
-      </c>
-      <c r="J142" s="0">
-        <v>0.068387450199203184</v>
-      </c>
-      <c r="K142" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L142" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M142" s="0">
-        <v>0.22811457379349809</v>
-      </c>
-      <c r="N142" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O142" s="0">
-        <v>1.6647197464323595</v>
-      </c>
-      <c r="P142" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q142" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R142" s="0">
-        <v>0.36042102659372699</v>
-      </c>
-      <c r="S142" s="0">
-        <v>236.8099866666667</v>
-      </c>
-      <c r="T142" s="0">
-        <v>2.3231059692000002</v>
-      </c>
-      <c r="U142" s="0">
-        <v>3.7674249154413841</v>
-      </c>
-      <c r="V142" s="0">
-        <v>1.541107595009847</v>
-      </c>
-      <c r="W142" s="0">
-        <v>0.033247049452170697</v>
-      </c>
-      <c r="X142" s="0">
-        <v>0.026265169067214853</v>
-      </c>
-      <c r="Y142" s="0">
-        <v>0.2524427839852077</v>
-      </c>
-      <c r="Z142" s="0">
-        <v>0.21155301996919773</v>
-      </c>
-      <c r="AA142" s="0">
-        <v>0.27499574154738976</v>
-      </c>
-      <c r="AB142" s="0">
-        <v>62730.536378109769</v>
-      </c>
-      <c r="AC142" s="0">
-        <v>108126.3079781181</v>
-      </c>
-      <c r="AD142" s="0">
-        <v>110000</v>
-      </c>
-      <c r="AE142" s="0">
-        <v>0.61662966650732298</v>
-      </c>
-      <c r="AF142" s="0">
-        <v>1.507426202247194</v>
-      </c>
-      <c r="AG142" s="0">
-        <v>0.29712360454413067</v>
-      </c>
-      <c r="AH142" s="0">
-        <v>0.58078173669846844</v>
-      </c>
-      <c r="AI142" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ142" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK142" s="0">
-        <v>1.8045498067913246</v>
-      </c>
-      <c r="AL142" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM142" s="0">
-        <v>0.99986711684527529</v>
-      </c>
-      <c r="AN142" s="0">
-        <v>0.98451561207003679</v>
-      </c>
-      <c r="AO142" s="0">
-        <v>1.2779674771895149</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B143" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C143" s="0">
-        <v>90</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="F143" s="0">
-        <v>0.072571962738705836</v>
-      </c>
-      <c r="G143" s="0">
-        <v>0.07726912698412694</v>
-      </c>
-      <c r="H143" s="0">
-        <v>0.022562738095238059</v>
-      </c>
-      <c r="I143" s="0">
-        <v>0.072240789628940205</v>
-      </c>
-      <c r="J143" s="0">
-        <v>0.067074801587301613</v>
-      </c>
-      <c r="K143" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L143" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M143" s="0">
-        <v>0.17442311562768403</v>
-      </c>
-      <c r="N143" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O143" s="0">
-        <v>1.4514392547741166</v>
-      </c>
-      <c r="P143" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q143" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R143" s="0">
-        <v>0.41338278403761114</v>
-      </c>
-      <c r="S143" s="0">
-        <v>173.49796000000001</v>
-      </c>
-      <c r="T143" s="0">
-        <v>1.7020149876000001</v>
-      </c>
-      <c r="U143" s="0">
-        <v>4.7210320649044952</v>
-      </c>
-      <c r="V143" s="0">
-        <v>1.6246004119847903</v>
-      </c>
-      <c r="W143" s="0">
-        <v>0.025372247353849832</v>
-      </c>
-      <c r="X143" s="0">
-        <v>0.020044075409541368</v>
-      </c>
-      <c r="Y143" s="0">
-        <v>0.20672124011746512</v>
-      </c>
-      <c r="Z143" s="0">
-        <v>0.1451956123276521</v>
-      </c>
-      <c r="AA143" s="0">
-        <v>0.24523220009928817</v>
-      </c>
-      <c r="AB143" s="0">
-        <v>42774.164393549487</v>
-      </c>
-      <c r="AC143" s="0">
-        <v>82676.556807522225</v>
-      </c>
-      <c r="AD143" s="0">
-        <v>80000</v>
-      </c>
-      <c r="AE143" s="0">
-        <v>0.36051756569343091</v>
-      </c>
-      <c r="AF143" s="0">
-        <v>1.0476514563483532</v>
-      </c>
-      <c r="AG143" s="0">
-        <v>0.076996754501179945</v>
-      </c>
-      <c r="AH143" s="0">
-        <v>0.13506769246767775</v>
-      </c>
-      <c r="AI143" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ143" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK143" s="0">
-        <v>1.1246482108495333</v>
-      </c>
-      <c r="AL143" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM143" s="0">
-        <v>0.96284727186125263</v>
-      </c>
-      <c r="AN143" s="0">
-        <v>0.95845343830324714</v>
-      </c>
-      <c r="AO143" s="0">
-        <v>0.33117310976563119</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B144" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C144" s="0">
-        <v>90</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="F144" s="0">
-        <v>0.11134886229305703</v>
-      </c>
-      <c r="G144" s="0">
-        <v>0.11616860557768925</v>
-      </c>
-      <c r="H144" s="0">
-        <v>0.057173067729083656</v>
-      </c>
-      <c r="I144" s="0">
-        <v>0.096647243802746377</v>
-      </c>
-      <c r="J144" s="0">
-        <v>0.068269442231075686</v>
-      </c>
-      <c r="K144" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L144" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M144" s="0">
-        <v>0.45472320371936292</v>
-      </c>
-      <c r="N144" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O144" s="0">
-        <v>2.2269772458611405</v>
-      </c>
-      <c r="P144" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q144" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R144" s="0">
-        <v>0.26942349820372252</v>
-      </c>
-      <c r="S144" s="0">
-        <v>820.59162666666714</v>
-      </c>
-      <c r="T144" s="0">
-        <v>8.0500038576000055</v>
-      </c>
-      <c r="U144" s="0">
-        <v>3.285364091337339</v>
-      </c>
-      <c r="V144" s="0">
-        <v>1.7535368828967393</v>
-      </c>
-      <c r="W144" s="0">
-        <v>0.063934057048509796</v>
-      </c>
-      <c r="X144" s="0">
-        <v>0.050507905068322742</v>
-      </c>
-      <c r="Y144" s="0">
-        <v>0.43508060158979095</v>
-      </c>
-      <c r="Z144" s="0">
-        <v>0.56560474860879384</v>
-      </c>
-      <c r="AA144" s="0">
-        <v>0.34745057316077715</v>
-      </c>
-      <c r="AB144" s="0">
-        <v>157993.83776179751</v>
-      </c>
-      <c r="AC144" s="0">
-        <v>215538.79856297802</v>
-      </c>
-      <c r="AD144" s="0">
-        <v>220000</v>
-      </c>
-      <c r="AE144" s="0">
-        <v>2.4502623252094948</v>
-      </c>
-      <c r="AF144" s="0">
-        <v>4.5907240025096456</v>
-      </c>
-      <c r="AG144" s="0">
-        <v>3.4180821941417556</v>
-      </c>
-      <c r="AH144" s="0">
-        <v>6.8979477148681712</v>
-      </c>
-      <c r="AI144" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ144" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK144" s="0">
-        <v>8.0088061966514008</v>
-      </c>
-      <c r="AL144" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM144" s="0">
-        <v>0.97730972790381665</v>
-      </c>
-      <c r="AN144" s="0">
-        <v>0.84827352160027791</v>
-      </c>
-      <c r="AO144" s="0">
-        <v>14.701618490310652</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B145" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C145" s="0">
-        <v>90</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="0">
-        <v>0.037499999999999999</v>
-      </c>
-      <c r="F145" s="0">
-        <v>0.11094018396640153</v>
-      </c>
-      <c r="G145" s="0">
-        <v>0.11571742063492069</v>
-      </c>
-      <c r="H145" s="0">
-        <v>0.057250039840637472</v>
-      </c>
-      <c r="I145" s="0">
-        <v>0.10084662122351755</v>
-      </c>
-      <c r="J145" s="0">
-        <v>0.075148055555555537</v>
-      </c>
-      <c r="K145" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L145" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M145" s="0">
-        <v>0.42787340649043482</v>
-      </c>
-      <c r="N145" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O145" s="0">
-        <v>2.2188036793280306</v>
-      </c>
-      <c r="P145" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q145" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R145" s="0">
-        <v>0.27041599290195478</v>
-      </c>
-      <c r="S145" s="0">
-        <v>670.06474000000003</v>
-      </c>
-      <c r="T145" s="0">
-        <v>6.5733350994000004</v>
-      </c>
-      <c r="U145" s="0">
-        <v>3.029959564418419</v>
-      </c>
-      <c r="V145" s="0">
-        <v>1.612825731372233</v>
-      </c>
-      <c r="W145" s="0">
-        <v>0.061241588709325723</v>
-      </c>
-      <c r="X145" s="0">
-        <v>0.048380855080367324</v>
-      </c>
-      <c r="Y145" s="0">
-        <v>0.4101439882366763</v>
-      </c>
-      <c r="Z145" s="0">
-        <v>0.4591422241541272</v>
-      </c>
-      <c r="AA145" s="0">
-        <v>0.34645496883195742</v>
-      </c>
-      <c r="AB145" s="0">
-        <v>148238.86770966704</v>
-      </c>
-      <c r="AC145" s="0">
-        <v>202811.9946764661</v>
-      </c>
-      <c r="AD145" s="0">
-        <v>200000</v>
-      </c>
-      <c r="AE145" s="0">
-        <v>2.1694464759834871</v>
-      </c>
-      <c r="AF145" s="0">
-        <v>4.0756635831989367</v>
-      </c>
-      <c r="AG145" s="0">
-        <v>2.3467230570322957</v>
-      </c>
-      <c r="AH145" s="0">
-        <v>5.0714999264530674</v>
-      </c>
-      <c r="AI145" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ145" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK145" s="0">
-        <v>6.4223866402312328</v>
-      </c>
-      <c r="AL145" s="0">
-        <v>20220513</v>
-      </c>
-      <c r="AM145" s="0">
-        <v>0.99729053902932141</v>
-      </c>
-      <c r="AN145" s="0">
-        <v>0.90655502491095996</v>
-      </c>
-      <c r="AO145" s="0">
-        <v>10.093562742883977</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B146" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C146" s="0">
-        <v>90</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="F146" s="0">
-        <v>0.063079486855808067</v>
-      </c>
-      <c r="G146" s="0">
-        <v>0.068059721115537888</v>
-      </c>
-      <c r="H146" s="0">
-        <v>0.015041872509960115</v>
-      </c>
-      <c r="I146" s="0">
-        <v>0.046587309622242591</v>
-      </c>
-      <c r="J146" s="0">
-        <v>0.042144661354581683</v>
-      </c>
-      <c r="K146" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L146" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M146" s="0">
-        <v>0.2006710656514441</v>
-      </c>
-      <c r="N146" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O146" s="0">
-        <v>1.2615897371161613</v>
-      </c>
-      <c r="P146" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q146" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R146" s="0">
-        <v>0.47559042559392251</v>
-      </c>
-      <c r="S146" s="0">
-        <v>525.02435666666645</v>
-      </c>
-      <c r="T146" s="0">
-        <v>5.1504889388999979</v>
-      </c>
-      <c r="U146" s="0">
-        <v>10.793457717073032</v>
-      </c>
-      <c r="V146" s="0">
-        <v>2.9682591755260899</v>
-      </c>
-      <c r="W146" s="0">
-        <v>0.025372247353849832</v>
-      </c>
-      <c r="X146" s="0">
-        <v>0.020044075409541368</v>
-      </c>
-      <c r="Y146" s="0">
-        <v>0.25509748528334514</v>
-      </c>
-      <c r="Z146" s="0">
-        <v>0.29152696736121708</v>
-      </c>
-      <c r="AA146" s="0">
-        <v>0.21757269664325524</v>
-      </c>
-      <c r="AB146" s="0">
-        <v>43660.544892060403</v>
-      </c>
-      <c r="AC146" s="0">
-        <v>95118.085118784511</v>
-      </c>
-      <c r="AD146" s="0">
-        <v>100000</v>
-      </c>
-      <c r="AE146" s="0">
-        <v>0.47718618758778136</v>
-      </c>
-      <c r="AF146" s="0">
-        <v>1.735188416620369</v>
-      </c>
-      <c r="AG146" s="0">
-        <v>3.7662665793720738</v>
-      </c>
-      <c r="AH146" s="0">
-        <v>4.783305438606539</v>
-      </c>
-      <c r="AI146" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ146" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK146" s="0">
-        <v>5.501454995992443</v>
-      </c>
-      <c r="AL146" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM146" s="0">
-        <v>0.83690601077169702</v>
-      </c>
-      <c r="AN146" s="0">
-        <v>0.6180963319765338</v>
-      </c>
-      <c r="AO146" s="0">
-        <v>16.492177233565478</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B147" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C147" s="0">
-        <v>90</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="0">
-        <v>0.010999999999999999</v>
-      </c>
-      <c r="F147" s="0">
-        <v>0.065225257322575128</v>
-      </c>
-      <c r="G147" s="0">
-        <v>0.069961474103585664</v>
-      </c>
-      <c r="H147" s="0">
-        <v>0.016833466135458153</v>
-      </c>
-      <c r="I147" s="0">
-        <v>0.048288579642925204</v>
-      </c>
-      <c r="J147" s="0">
-        <v>0.043287222222222227</v>
-      </c>
-      <c r="K147" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L147" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M147" s="0">
-        <v>0.2134763618340243</v>
-      </c>
-      <c r="N147" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O147" s="0">
-        <v>1.3045051464515025</v>
-      </c>
-      <c r="P147" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q147" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R147" s="0">
-        <v>0.4599445250423978</v>
-      </c>
-      <c r="S147" s="0">
-        <v>547.43092666666644</v>
-      </c>
-      <c r="T147" s="0">
-        <v>5.3702973905999976</v>
-      </c>
-      <c r="U147" s="0">
-        <v>9.9444415720703248</v>
-      </c>
-      <c r="V147" s="0">
-        <v>2.9003949938919913</v>
-      </c>
-      <c r="W147" s="0">
-        <v>0.027036723532058101</v>
-      </c>
-      <c r="X147" s="0">
-        <v>0.0213590115903259</v>
-      </c>
-      <c r="Y147" s="0">
-        <v>0.26687469036373956</v>
-      </c>
-      <c r="Z147" s="0">
-        <v>0.3080673666557377</v>
-      </c>
-      <c r="AA147" s="0">
-        <v>0.22392492574008405</v>
-      </c>
-      <c r="AB147" s="0">
-        <v>47802.678470947205</v>
-      </c>
-      <c r="AC147" s="0">
-        <v>101187.79550932751</v>
-      </c>
-      <c r="AD147" s="0">
-        <v>100000</v>
-      </c>
-      <c r="AE147" s="0">
-        <v>0.54003006118341146</v>
-      </c>
-      <c r="AF147" s="0">
-        <v>1.8515744930981575</v>
-      </c>
-      <c r="AG147" s="0">
-        <v>3.9057011232442362</v>
-      </c>
-      <c r="AH147" s="0">
-        <v>5.0325233206610056</v>
-      </c>
-      <c r="AI147" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ147" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK147" s="0">
-        <v>5.7572756163423939</v>
-      </c>
-      <c r="AL147" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM147" s="0">
-        <v>0.84667745890610535</v>
-      </c>
-      <c r="AN147" s="0">
-        <v>0.62682545971507164</v>
-      </c>
-      <c r="AO147" s="0">
-        <v>16.936677679649925</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B148" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C148" s="0">
-        <v>90</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="0">
-        <v>0.012</v>
-      </c>
-      <c r="F148" s="0">
-        <v>0.066186746928604753</v>
-      </c>
-      <c r="G148" s="0">
-        <v>0.070924701195219125</v>
-      </c>
-      <c r="H148" s="0">
-        <v>0.018071230158730116</v>
-      </c>
-      <c r="I148" s="0">
-        <v>0.042096684921186928</v>
-      </c>
-      <c r="J148" s="0">
-        <v>0.034548486055776893</v>
-      </c>
-      <c r="K148" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L148" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M148" s="0">
-        <v>0.22950022659531438</v>
-      </c>
-      <c r="N148" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O148" s="0">
-        <v>1.3237349385720949</v>
-      </c>
-      <c r="P148" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q148" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R148" s="0">
-        <v>0.45326294752574586</v>
-      </c>
-      <c r="S148" s="0">
-        <v>679.43345333333309</v>
-      </c>
-      <c r="T148" s="0">
-        <v>6.6652421771999979</v>
-      </c>
-      <c r="U148" s="0">
-        <v>10.679018679094449</v>
-      </c>
-      <c r="V148" s="0">
-        <v>3.1921872627517529</v>
-      </c>
-      <c r="W148" s="0">
-        <v>0.028651438672384837</v>
-      </c>
-      <c r="X148" s="0">
-        <v>0.022634636551184022</v>
-      </c>
-      <c r="Y148" s="0">
-        <v>0.28481515668586493</v>
-      </c>
-      <c r="Z148" s="0">
-        <v>0.47133566393443405</v>
-      </c>
-      <c r="AA148" s="0">
-        <v>0.2267520930374535</v>
-      </c>
-      <c r="AB148" s="0">
-        <v>52039.656733057389</v>
-      </c>
-      <c r="AC148" s="0">
-        <v>108783.10740617901</v>
-      </c>
-      <c r="AD148" s="0">
-        <v>110000</v>
-      </c>
-      <c r="AE148" s="0">
-        <v>0.62414369498651268</v>
-      </c>
-      <c r="AF148" s="0">
-        <v>2.0879859571441233</v>
-      </c>
-      <c r="AG148" s="0">
-        <v>5.3728442036037851</v>
-      </c>
-      <c r="AH148" s="0">
-        <v>6.4800191626622574</v>
-      </c>
-      <c r="AI148" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ148" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK148" s="0">
-        <v>7.4608301607479088</v>
-      </c>
-      <c r="AL148" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM148" s="0">
-        <v>0.84151985069592206</v>
-      </c>
-      <c r="AN148" s="0">
-        <v>0.53523095866735138</v>
-      </c>
-      <c r="AO148" s="0">
-        <v>24.090062007417824</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B149" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C149" s="0">
-        <v>90</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="0">
-        <v>0.012999999999999999</v>
-      </c>
-      <c r="F149" s="0">
-        <v>0.068555392911720706</v>
-      </c>
-      <c r="G149" s="0">
-        <v>0.073181309523809523</v>
-      </c>
-      <c r="H149" s="0">
-        <v>0.019907490039840665</v>
-      </c>
-      <c r="I149" s="0">
-        <v>0.046583968202656728</v>
-      </c>
-      <c r="J149" s="0">
-        <v>0.037285816733067731</v>
-      </c>
-      <c r="K149" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L149" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M149" s="0">
-        <v>0.24003503595584039</v>
-      </c>
-      <c r="N149" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O149" s="0">
-        <v>1.3711078582344141</v>
-      </c>
-      <c r="P149" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q149" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R149" s="0">
-        <v>0.43760233478103205</v>
-      </c>
-      <c r="S149" s="0">
-        <v>673.91387000000032</v>
-      </c>
-      <c r="T149" s="0">
-        <v>6.6110950647000033</v>
-      </c>
-      <c r="U149" s="0">
-        <v>9.6829073932405638</v>
-      </c>
-      <c r="V149" s="0">
-        <v>3.0626177583120526</v>
-      </c>
-      <c r="W149" s="0">
-        <v>0.030221858756759045</v>
-      </c>
-      <c r="X149" s="0">
-        <v>0.023875268417839646</v>
-      </c>
-      <c r="Y149" s="0">
-        <v>0.2926977075174389</v>
-      </c>
-      <c r="Z149" s="0">
-        <v>0.45542875630053881</v>
-      </c>
-      <c r="AA149" s="0">
-        <v>0.23366683347193129</v>
-      </c>
-      <c r="AB149" s="0">
-        <v>56088.226774122399</v>
-      </c>
-      <c r="AC149" s="0">
-        <v>113776.60704306835</v>
-      </c>
-      <c r="AD149" s="0">
-        <v>110000</v>
-      </c>
-      <c r="AE149" s="0">
-        <v>0.68275929906291077</v>
-      </c>
-      <c r="AF149" s="0">
-        <v>2.1586419156478991</v>
-      </c>
-      <c r="AG149" s="0">
-        <v>5.0400910545858979</v>
-      </c>
-      <c r="AH149" s="0">
-        <v>6.3273307533310996</v>
-      </c>
-      <c r="AI149" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ149" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK149" s="0">
-        <v>7.198732970233797</v>
-      </c>
-      <c r="AL149" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM149" s="0">
-        <v>0.85457248154256471</v>
-      </c>
-      <c r="AN149" s="0">
-        <v>0.58068921519138728</v>
-      </c>
-      <c r="AO149" s="0">
-        <v>21.971424709063978</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B150" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C150" s="0">
-        <v>90</v>
-      </c>
-      <c r="D150" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="0">
-        <v>0.014</v>
-      </c>
-      <c r="F150" s="0">
-        <v>0.070565617723522073</v>
-      </c>
-      <c r="G150" s="0">
-        <v>0.07516398406374504</v>
-      </c>
-      <c r="H150" s="0">
-        <v>0.021518525896414332</v>
-      </c>
-      <c r="I150" s="0">
-        <v>0.048342769865491193</v>
-      </c>
-      <c r="J150" s="0">
-        <v>0.036521115537848613</v>
-      </c>
-      <c r="K150" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L150" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M150" s="0">
-        <v>0.25113531999075162</v>
-      </c>
-      <c r="N150" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O150" s="0">
-        <v>1.4113123544704413</v>
-      </c>
-      <c r="P150" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q150" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R150" s="0">
-        <v>0.4251362202700581</v>
-      </c>
-      <c r="S150" s="0">
-        <v>698.01237333333324</v>
-      </c>
-      <c r="T150" s="0">
-        <v>6.8475013823999999</v>
-      </c>
-      <c r="U150" s="0">
-        <v>9.1621666061210849</v>
-      </c>
-      <c r="V150" s="0">
-        <v>3.0278062204307847</v>
-      </c>
-      <c r="W150" s="0">
-        <v>0.031752478244131258</v>
-      </c>
-      <c r="X150" s="0">
-        <v>0.025084457812863694</v>
-      </c>
-      <c r="Y150" s="0">
-        <v>0.30183994928371466</v>
-      </c>
-      <c r="Z150" s="0">
-        <v>0.50594647141464766</v>
-      </c>
-      <c r="AA150" s="0">
-        <v>0.23948004697669883</v>
-      </c>
-      <c r="AB150" s="0">
-        <v>60141.898228893493</v>
-      </c>
-      <c r="AC150" s="0">
-        <v>119038.14167561627</v>
-      </c>
-      <c r="AD150" s="0">
-        <v>120000</v>
-      </c>
-      <c r="AE150" s="0">
-        <v>0.74736704502025786</v>
-      </c>
-      <c r="AF150" s="0">
-        <v>2.2615388449217741</v>
-      </c>
-      <c r="AG150" s="0">
-        <v>5.1356482122116089</v>
-      </c>
-      <c r="AH150" s="0">
-        <v>6.5493086258272335</v>
-      </c>
-      <c r="AI150" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ150" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK150" s="0">
-        <v>7.3971870571333831</v>
-      </c>
-      <c r="AL150" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM150" s="0">
-        <v>0.8631618177102508</v>
-      </c>
-      <c r="AN150" s="0">
-        <v>0.59133094071018644</v>
-      </c>
-      <c r="AO150" s="0">
-        <v>22.222847858030878</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B151" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C151" s="0">
-        <v>90</v>
-      </c>
-      <c r="D151" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="0">
-        <v>0.014999999999999999</v>
-      </c>
-      <c r="F151" s="0">
-        <v>0.072061147499617756</v>
-      </c>
-      <c r="G151" s="0">
-        <v>0.076687649402390382</v>
-      </c>
-      <c r="H151" s="0">
-        <v>0.022732182539682583</v>
-      </c>
-      <c r="I151" s="0">
-        <v>0.047348256799717298</v>
-      </c>
-      <c r="J151" s="0">
-        <v>0.036763174603174603</v>
-      </c>
-      <c r="K151" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L151" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M151" s="0">
-        <v>0.26348930638736517</v>
-      </c>
-      <c r="N151" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O151" s="0">
-        <v>1.441222949992355</v>
-      </c>
-      <c r="P151" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q151" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R151" s="0">
-        <v>0.41631310409203698</v>
-      </c>
-      <c r="S151" s="0">
-        <v>753.7104899999996</v>
-      </c>
-      <c r="T151" s="0">
-        <v>7.3938999068999962</v>
-      </c>
-      <c r="U151" s="0">
-        <v>8.9872997815153699</v>
-      </c>
-      <c r="V151" s="0">
-        <v>3.0618866896722712</v>
-      </c>
-      <c r="W151" s="0">
-        <v>0.033247049452170697</v>
-      </c>
-      <c r="X151" s="0">
-        <v>0.026265169067214853</v>
-      </c>
-      <c r="Y151" s="0">
-        <v>0.31338478237357703</v>
-      </c>
-      <c r="Z151" s="0">
-        <v>0.53674046283062526</v>
-      </c>
-      <c r="AA151" s="0">
-        <v>0.24377239181404881</v>
-      </c>
-      <c r="AB151" s="0">
-        <v>64231.41843547274</v>
-      </c>
-      <c r="AC151" s="0">
-        <v>124893.93122761109</v>
-      </c>
-      <c r="AD151" s="0">
-        <v>120000</v>
-      </c>
-      <c r="AE151" s="0">
-        <v>0.8227053827788634</v>
-      </c>
-      <c r="AF151" s="0">
-        <v>2.4148182660839752</v>
-      </c>
-      <c r="AG151" s="0">
-        <v>5.6953635863029994</v>
-      </c>
-      <c r="AH151" s="0">
-        <v>7.1179066986153741</v>
-      </c>
-      <c r="AI151" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ151" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK151" s="0">
-        <v>8.1101818523869742</v>
-      </c>
-      <c r="AL151" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM151" s="0">
-        <v>0.86563004903879781</v>
-      </c>
-      <c r="AN151" s="0">
-        <v>0.56876798771013581</v>
-      </c>
-      <c r="AO151" s="0">
-        <v>24.712890699900459</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B152" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C152" s="0">
-        <v>90</v>
-      </c>
-      <c r="D152" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="0">
-        <v>0.016</v>
-      </c>
-      <c r="F152" s="0">
-        <v>0.074078712101503935</v>
-      </c>
-      <c r="G152" s="0">
-        <v>0.078709960159362533</v>
-      </c>
-      <c r="H152" s="0">
-        <v>0.02451063492063487</v>
-      </c>
-      <c r="I152" s="0">
-        <v>0.049559149108355779</v>
-      </c>
-      <c r="J152" s="0">
-        <v>0.038311984126984125</v>
-      </c>
-      <c r="K152" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L152" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M152" s="0">
-        <v>0.2734006029857915</v>
-      </c>
-      <c r="N152" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O152" s="0">
-        <v>1.4815742420300786</v>
-      </c>
-      <c r="P152" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q152" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R152" s="0">
-        <v>0.4049746431727036</v>
-      </c>
-      <c r="S152" s="0">
-        <v>769.40650666666636</v>
-      </c>
-      <c r="T152" s="0">
-        <v>7.5478778303999974</v>
-      </c>
-      <c r="U152" s="0">
-        <v>8.5213337539192082</v>
-      </c>
-      <c r="V152" s="0">
-        <v>3.0170223157563152</v>
-      </c>
-      <c r="W152" s="0">
-        <v>0.034708746150571755</v>
-      </c>
-      <c r="X152" s="0">
-        <v>0.027419909458951688</v>
-      </c>
-      <c r="Y152" s="0">
-        <v>0.32071424687658912</v>
-      </c>
-      <c r="Z152" s="0">
-        <v>0.53815899557344538</v>
-      </c>
-      <c r="AA152" s="0">
-        <v>0.24951966930242825</v>
-      </c>
-      <c r="AB152" s="0">
-        <v>68218.82804409918</v>
-      </c>
-      <c r="AC152" s="0">
-        <v>129591.88581526515</v>
-      </c>
-      <c r="AD152" s="0">
-        <v>130000</v>
-      </c>
-      <c r="AE152" s="0">
-        <v>0.88576249309898347</v>
-      </c>
-      <c r="AF152" s="0">
-        <v>2.5017640045224114</v>
-      </c>
-      <c r="AG152" s="0">
-        <v>5.686873240050625</v>
-      </c>
-      <c r="AH152" s="0">
-        <v>7.2781032211797099</v>
-      </c>
-      <c r="AI152" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ152" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK152" s="0">
-        <v>8.1886372445730373</v>
-      </c>
-      <c r="AL152" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM152" s="0">
-        <v>0.87451078510626656</v>
-      </c>
-      <c r="AN152" s="0">
-        <v>0.58505350817332658</v>
-      </c>
-      <c r="AO152" s="0">
-        <v>24.519562993148156</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B153" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C153" s="0">
-        <v>90</v>
-      </c>
-      <c r="D153" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="0">
-        <v>0.032500000000000001</v>
-      </c>
-      <c r="F153" s="0">
-        <v>0.10042450771380815</v>
-      </c>
-      <c r="G153" s="0">
-        <v>0.10529525896414342</v>
-      </c>
-      <c r="H153" s="0">
-        <v>0.047369163346613535</v>
-      </c>
-      <c r="I153" s="0">
-        <v>0.084019848190063917</v>
-      </c>
-      <c r="J153" s="0">
-        <v>0.06184380952380953</v>
-      </c>
-      <c r="K153" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L153" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M153" s="0">
-        <v>0.40965339480247764</v>
-      </c>
-      <c r="N153" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O153" s="0">
-        <v>2.0084901542761626</v>
-      </c>
-      <c r="P153" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q153" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R153" s="0">
-        <v>0.29873186020980674</v>
-      </c>
-      <c r="S153" s="0">
-        <v>798.41305333333344</v>
-      </c>
-      <c r="T153" s="0">
-        <v>7.8324320532000007</v>
-      </c>
-      <c r="U153" s="0">
-        <v>3.9386298614896931</v>
-      </c>
-      <c r="V153" s="0">
-        <v>1.9369275926945981</v>
-      </c>
-      <c r="W153" s="0">
-        <v>0.055669139803680559</v>
-      </c>
-      <c r="X153" s="0">
-        <v>0.043978620444907641</v>
-      </c>
-      <c r="Y153" s="0">
-        <v>0.41272635193241686</v>
-      </c>
-      <c r="Z153" s="0">
-        <v>0.53300538620497939</v>
-      </c>
-      <c r="AA153" s="0">
-        <v>0.32027225080168253</v>
-      </c>
-      <c r="AB153" s="0">
-        <v>131200.61480193978</v>
-      </c>
-      <c r="AC153" s="0">
-        <v>194175.70913637438</v>
-      </c>
-      <c r="AD153" s="0">
-        <v>190000</v>
-      </c>
-      <c r="AE153" s="0">
-        <v>1.9886184608973561</v>
-      </c>
-      <c r="AF153" s="0">
-        <v>4.0437402424030449</v>
-      </c>
-      <c r="AG153" s="0">
-        <v>3.8140341252919621</v>
-      </c>
-      <c r="AH153" s="0">
-        <v>6.9304900037962183</v>
-      </c>
-      <c r="AI153" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ153" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK153" s="0">
-        <v>7.8577743676950069</v>
-      </c>
-      <c r="AL153" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM153" s="0">
-        <v>0.95036741947917569</v>
-      </c>
-      <c r="AN153" s="0">
-        <v>0.79512190925526416</v>
-      </c>
-      <c r="AO153" s="0">
-        <v>16.404659523744229</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="B154" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C154" s="0">
-        <v>90</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="0">
-        <v>0.022499999999999999</v>
-      </c>
-      <c r="F154" s="0">
-        <v>0.091685098870055659</v>
-      </c>
-      <c r="G154" s="0">
-        <v>0.096336573705179243</v>
-      </c>
-      <c r="H154" s="0">
-        <v>0.039745498007968193</v>
-      </c>
-      <c r="I154" s="0">
-        <v>0.085760704986489869</v>
-      </c>
-      <c r="J154" s="0">
-        <v>0.064522420634920627</v>
-      </c>
-      <c r="K154" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L154" s="0">
-        <v>0.027000000000000003</v>
-      </c>
-      <c r="M154" s="0">
-        <v>0.31063949332261387</v>
-      </c>
-      <c r="N154" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="O154" s="0">
-        <v>1.8337019774011132</v>
-      </c>
-      <c r="P154" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q154" s="0">
-        <v>0.023699999999999999</v>
-      </c>
-      <c r="R154" s="0">
-        <v>0.32720693296648662</v>
-      </c>
-      <c r="S154" s="0">
-        <v>437.47540999999961</v>
-      </c>
-      <c r="T154" s="0">
-        <v>4.2916337720999964</v>
-      </c>
-      <c r="U154" s="0">
-        <v>3.7531071670812155</v>
-      </c>
-      <c r="V154" s="0">
-        <v>1.6988458771985808</v>
-      </c>
-      <c r="W154" s="0">
-        <v>0.043565959367306985</v>
-      </c>
-      <c r="X154" s="0">
-        <v>0.034417107900172522</v>
-      </c>
-      <c r="Y154" s="0">
-        <v>0.32754636689686001</v>
-      </c>
-      <c r="Z154" s="0">
-        <v>0.34626542393106013</v>
-      </c>
-      <c r="AA154" s="0">
-        <v>0.29765130790118155</v>
-      </c>
-      <c r="AB154" s="0">
-        <v>92462.251473236378</v>
-      </c>
-      <c r="AC154" s="0">
-        <v>147243.11983491897</v>
-      </c>
-      <c r="AD154" s="0">
-        <v>150000</v>
-      </c>
-      <c r="AE154" s="0">
-        <v>1.1434882035190037</v>
-      </c>
-      <c r="AF154" s="0">
-        <v>2.5262054843827015</v>
-      </c>
-      <c r="AG154" s="0">
-        <v>1.3774038047473953</v>
-      </c>
-      <c r="AH154" s="0">
-        <v>2.7271479806355914</v>
-      </c>
-      <c r="AI154" s="0">
-        <v>31</v>
-      </c>
-      <c r="AJ154" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK154" s="0">
-        <v>3.9036092891300971</v>
-      </c>
-      <c r="AL154" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM154" s="0">
-        <v>0.97989802584220032</v>
-      </c>
-      <c r="AN154" s="0">
-        <v>0.91658019183903794</v>
-      </c>
-      <c r="AO154" s="0">
         <v>5.9243938835657897</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B155" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C155" s="0">
-        <v>90</v>
-      </c>
-      <c r="D155" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="0">
-        <v>0.025000000000000001</v>
-      </c>
-      <c r="F155" s="0">
-        <v>0.096221385947550947</v>
-      </c>
-      <c r="G155" s="0">
-        <v>0.10098269841269839</v>
-      </c>
-      <c r="H155" s="0">
-        <v>0.034794860557768974</v>
-      </c>
-      <c r="I155" s="0">
-        <v>0.052719777090549313</v>
-      </c>
-      <c r="J155" s="0">
-        <v>0.018103571428571431</v>
-      </c>
-      <c r="K155" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L155" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M155" s="0">
-        <v>0.32888291213663001</v>
-      </c>
-      <c r="N155" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O155" s="0">
-        <v>1.6036897657925158</v>
-      </c>
-      <c r="P155" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q155" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R155" s="0">
-        <v>0.37413720084663027</v>
-      </c>
-      <c r="S155" s="0">
-        <v>1369.4479000000001</v>
-      </c>
-      <c r="T155" s="0">
-        <v>13.434283899000002</v>
-      </c>
-      <c r="U155" s="0">
-        <v>8.7343845097176072</v>
-      </c>
-      <c r="V155" s="0">
-        <v>3.4212954756299743</v>
-      </c>
-      <c r="W155" s="0">
-        <v>0.046736079221438992</v>
-      </c>
-      <c r="X155" s="0">
-        <v>0.036921502584936802</v>
-      </c>
-      <c r="Y155" s="0">
-        <v>0.33850960932315993</v>
-      </c>
-      <c r="Z155" s="0">
-        <v>2.5887267204266586</v>
-      </c>
-      <c r="AA155" s="0">
-        <v>0.30949342627636156</v>
-      </c>
-      <c r="AB155" s="0">
-        <v>101787.0993209132</v>
-      </c>
-      <c r="AC155" s="0">
-        <v>155890.50035276261</v>
-      </c>
-      <c r="AD155" s="0">
-        <v>160000</v>
-      </c>
-      <c r="AE155" s="0">
-        <v>1.5380916519135874</v>
-      </c>
-      <c r="AF155" s="0">
-        <v>3.9266657892289487</v>
-      </c>
-      <c r="AG155" s="0">
-        <v>11.936559949883543</v>
-      </c>
-      <c r="AH155" s="0">
-        <v>13.915499222790185</v>
-      </c>
-      <c r="AI155" s="0">
-        <v>22</v>
-      </c>
-      <c r="AJ155" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK155" s="0">
-        <v>15.863225739112492</v>
-      </c>
-      <c r="AL155" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM155" s="0">
-        <v>0.90148885596524642</v>
-      </c>
-      <c r="AN155" s="0">
-        <v>0.49392649116494836</v>
-      </c>
-      <c r="AO155" s="0">
-        <v>43.501608857001635</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B156" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C156" s="0">
-        <v>90</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E156" s="0">
-        <v>0.017000000000000001</v>
-      </c>
-      <c r="F156" s="0">
-        <v>0.083681940240152478</v>
-      </c>
-      <c r="G156" s="0">
-        <v>0.08852496031746028</v>
-      </c>
-      <c r="H156" s="0">
-        <v>0.024374980079681238</v>
-      </c>
-      <c r="I156" s="0">
-        <v>0.057612980173135965</v>
-      </c>
-      <c r="J156" s="0">
-        <v>0.048956746031746039</v>
-      </c>
-      <c r="K156" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L156" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M156" s="0">
-        <v>0.25715210808946876</v>
-      </c>
-      <c r="N156" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O156" s="0">
-        <v>1.3946990040025413</v>
-      </c>
-      <c r="P156" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q156" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R156" s="0">
-        <v>0.43020035023908759</v>
-      </c>
-      <c r="S156" s="0">
-        <v>948.68832666666697</v>
-      </c>
-      <c r="T156" s="0">
-        <v>9.306632484600005</v>
-      </c>
-      <c r="U156" s="0">
-        <v>9.8972101043084866</v>
-      </c>
-      <c r="V156" s="0">
-        <v>3.2133434445778049</v>
-      </c>
-      <c r="W156" s="0">
-        <v>0.036140283158818703</v>
-      </c>
-      <c r="X156" s="0">
-        <v>0.028550823695466777</v>
-      </c>
-      <c r="Y156" s="0">
-        <v>0.28381785578895546</v>
-      </c>
-      <c r="Z156" s="0">
-        <v>0.39584274780309875</v>
-      </c>
-      <c r="AA156" s="0">
-        <v>0.27621151847322262</v>
-      </c>
-      <c r="AB156" s="0">
-        <v>71028.374253982445</v>
-      </c>
-      <c r="AC156" s="0">
-        <v>121890.09923440819</v>
-      </c>
-      <c r="AD156" s="0">
-        <v>120000</v>
-      </c>
-      <c r="AE156" s="0">
-        <v>0.94032887920087804</v>
-      </c>
-      <c r="AF156" s="0">
-        <v>2.896245809113251</v>
-      </c>
-      <c r="AG156" s="0">
-        <v>7.2283997704346357</v>
-      </c>
-      <c r="AH156" s="0">
-        <v>9.3379463141535428</v>
-      </c>
-      <c r="AI156" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ156" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK156" s="0">
-        <v>10.124645579547886</v>
-      </c>
-      <c r="AL156" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM156" s="0">
-        <v>0.87041495500813437</v>
-      </c>
-      <c r="AN156" s="0">
-        <v>0.59925952244141356</v>
-      </c>
-      <c r="AO156" s="0">
-        <v>26.068960067016512</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B157" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C157" s="0">
-        <v>90</v>
-      </c>
-      <c r="D157" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" s="0">
-        <v>0.017999999999999999</v>
-      </c>
-      <c r="F157" s="0">
-        <v>0.085777728920593072</v>
-      </c>
-      <c r="G157" s="0">
-        <v>0.090655000000000027</v>
-      </c>
-      <c r="H157" s="0">
-        <v>0.02606753968253973</v>
-      </c>
-      <c r="I157" s="0">
-        <v>0.059534314407671839</v>
-      </c>
-      <c r="J157" s="0">
-        <v>0.049254422310756982</v>
-      </c>
-      <c r="K157" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L157" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M157" s="0">
-        <v>0.26562617608674199</v>
-      </c>
-      <c r="N157" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O157" s="0">
-        <v>1.429628815343218</v>
-      </c>
-      <c r="P157" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q157" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R157" s="0">
-        <v>0.41968935821705228</v>
-      </c>
-      <c r="S157" s="0">
-        <v>979.86918666666656</v>
-      </c>
-      <c r="T157" s="0">
-        <v>9.6125167212000004</v>
-      </c>
-      <c r="U157" s="0">
-        <v>9.5806675709190703</v>
-      </c>
-      <c r="V157" s="0">
-        <v>3.2263898359365042</v>
-      </c>
-      <c r="W157" s="0">
-        <v>0.037544005666178264</v>
-      </c>
-      <c r="X157" s="0">
-        <v>0.029659764476280829</v>
-      </c>
-      <c r="Y157" s="0">
-        <v>0.28956701873341817</v>
-      </c>
-      <c r="Z157" s="0">
-        <v>0.41533377372489205</v>
-      </c>
-      <c r="AA157" s="0">
-        <v>0.28189494550593353</v>
-      </c>
-      <c r="AB157" s="0">
-        <v>74878.676432921638</v>
-      </c>
-      <c r="AC157" s="0">
-        <v>125906.80746511571</v>
-      </c>
-      <c r="AD157" s="0">
-        <v>130000</v>
-      </c>
-      <c r="AE157" s="0">
-        <v>1.0033243143074502</v>
-      </c>
-      <c r="AF157" s="0">
-        <v>2.9793413722461208</v>
-      </c>
-      <c r="AG157" s="0">
-        <v>7.307683272552441</v>
-      </c>
-      <c r="AH157" s="0">
-        <v>9.6223449918633808</v>
-      </c>
-      <c r="AI157" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ157" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK157" s="0">
-        <v>10.287024644798562</v>
-      </c>
-      <c r="AL157" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM157" s="0">
-        <v>0.87937468155805953</v>
-      </c>
-      <c r="AN157" s="0">
-        <v>0.61033288515354001</v>
-      </c>
-      <c r="AO157" s="0">
-        <v>26.243414512921234</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B158" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C158" s="0">
-        <v>90</v>
-      </c>
-      <c r="D158" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" s="0">
-        <v>0.019</v>
-      </c>
-      <c r="F158" s="0">
-        <v>0.087281588767949309</v>
-      </c>
-      <c r="G158" s="0">
-        <v>0.092247928286852549</v>
-      </c>
-      <c r="H158" s="0">
-        <v>0.027353745019920366</v>
-      </c>
-      <c r="I158" s="0">
-        <v>0.059890883258635848</v>
-      </c>
-      <c r="J158" s="0">
-        <v>0.04818274900398406</v>
-      </c>
-      <c r="K158" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L158" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M158" s="0">
-        <v>0.27555218976747181</v>
-      </c>
-      <c r="N158" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O158" s="0">
-        <v>1.4546931461324886</v>
-      </c>
-      <c r="P158" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q158" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R158" s="0">
-        <v>0.41245811984141567</v>
-      </c>
-      <c r="S158" s="0">
-        <v>1023.681066666667</v>
-      </c>
-      <c r="T158" s="0">
-        <v>10.042311264000004</v>
-      </c>
-      <c r="U158" s="0">
-        <v>9.3009294176530659</v>
-      </c>
-      <c r="V158" s="0">
-        <v>3.2107316267939763</v>
-      </c>
-      <c r="W158" s="0">
-        <v>0.038921957191051626</v>
-      </c>
-      <c r="X158" s="0">
-        <v>0.030748346180930787</v>
-      </c>
-      <c r="Y158" s="0">
-        <v>0.29778858179551809</v>
-      </c>
-      <c r="Z158" s="0">
-        <v>0.45311540425231911</v>
-      </c>
-      <c r="AA158" s="0">
-        <v>0.28594272198044263</v>
-      </c>
-      <c r="AB158" s="0">
-        <v>78792.143189782364</v>
-      </c>
-      <c r="AC158" s="0">
-        <v>130611.73794978163</v>
-      </c>
-      <c r="AD158" s="0">
-        <v>130000</v>
-      </c>
-      <c r="AE158" s="0">
-        <v>1.0797105120419259</v>
-      </c>
-      <c r="AF158" s="0">
-        <v>3.1277330002282344</v>
-      </c>
-      <c r="AG158" s="0">
-        <v>7.6315658957880901</v>
-      </c>
-      <c r="AH158" s="0">
-        <v>10.045152209561341</v>
-      </c>
-      <c r="AI158" s="0">
-        <v>21</v>
-      </c>
-      <c r="AJ158" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK158" s="0">
-        <v>10.759298896016325</v>
-      </c>
-      <c r="AL158" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM158" s="0">
-        <v>0.88232775863278923</v>
-      </c>
-      <c r="AN158" s="0">
-        <v>0.60543568848892038</v>
-      </c>
-      <c r="AO158" s="0">
-        <v>27.390705509313459</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="B159" s="0">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="C159" s="0">
-        <v>90</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E159" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="F159" s="0">
-        <v>0.10272235378476199</v>
-      </c>
-      <c r="G159" s="0">
-        <v>0.10771266932270922</v>
-      </c>
-      <c r="H159" s="0">
-        <v>0.039512619047619039</v>
-      </c>
-      <c r="I159" s="0">
-        <v>0.057742728208005877</v>
-      </c>
-      <c r="J159" s="0">
-        <v>0.023825952380952389</v>
-      </c>
-      <c r="K159" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="L159" s="0">
-        <v>0.032000000000000001</v>
-      </c>
-      <c r="M159" s="0">
-        <v>0.36968276275944356</v>
-      </c>
-      <c r="N159" s="0">
-        <v>0.033333333333333333</v>
-      </c>
-      <c r="O159" s="0">
-        <v>1.7120392297460334</v>
-      </c>
-      <c r="P159" s="0">
-        <v>0.59999999999999998</v>
-      </c>
-      <c r="Q159" s="0">
-        <v>0.028439999999999997</v>
-      </c>
-      <c r="R159" s="0">
-        <v>0.35045925909595244</v>
-      </c>
-      <c r="S159" s="0">
-        <v>1408.3579333333341</v>
-      </c>
-      <c r="T159" s="0">
-        <v>13.815991326000008</v>
-      </c>
-      <c r="U159" s="0">
-        <v>7.1092543633852312</v>
-      </c>
-      <c r="V159" s="0">
-        <v>2.9994169813551217</v>
-      </c>
-      <c r="W159" s="0">
-        <v>0.052776401275214518</v>
-      </c>
-      <c r="X159" s="0">
-        <v>0.041693357007419468</v>
-      </c>
-      <c r="Y159" s="0">
-        <v>0.36826650170725761</v>
-      </c>
-      <c r="Z159" s="0">
-        <v>2.0574933401653768</v>
-      </c>
-      <c r="AA159" s="0">
-        <v>0.32608806445151239</v>
-      </c>
-      <c r="AB159" s="0">
-        <v>120549.13656931461</v>
-      </c>
-      <c r="AC159" s="0">
-        <v>175229.62954797625</v>
-      </c>
-      <c r="AD159" s="0">
-        <v>180000</v>
-      </c>
-      <c r="AE159" s="0">
-        <v>1.9433812070582903</v>
-      </c>
-      <c r="AF159" s="0">
-        <v>4.6062256138051243</v>
-      </c>
-      <c r="AG159" s="0">
-        <v>12.507015008760909</v>
-      </c>
-      <c r="AH159" s="0">
-        <v>14.68022214403608</v>
-      </c>
-      <c r="AI159" s="0">
-        <v>22</v>
-      </c>
-      <c r="AJ159" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK159" s="0">
-        <v>17.113240622566032</v>
-      </c>
-      <c r="AL159" s="0">
-        <v>20220516</v>
-      </c>
-      <c r="AM159" s="0">
-        <v>0.91084972231099059</v>
-      </c>
-      <c r="AN159" s="0">
-        <v>0.51201073589050861</v>
-      </c>
-      <c r="AO159" s="0">
-        <v>44.979625576756121</v>
       </c>
     </row>
   </sheetData>
